--- a/服务器交互接口1.04.xlsx
+++ b/服务器交互接口1.04.xlsx
@@ -396,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容：TransNode对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【获得全部节点列表】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,10 +425,6 @@
   </si>
   <si>
     <t>TransNode对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应头："TransNode"；内容："OK"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -544,10 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（成功）响应头："Lo_UserInfo"；内容：UserInfo对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>响应头："Get_UserInfo"；内容：UserInfo对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,6 +561,18 @@
   </si>
   <si>
     <t>内容：地区全名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应头："R_TransNode"；内容："OK"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（成功）响应头："Lo_UserInfo"；内容：UserInfo对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应头："Get_TransNode"；内容：TransNode对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,12 +790,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,6 +798,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1136,13 +1136,13 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="7"/>
@@ -1164,7 +1164,7 @@
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
         <v>56</v>
@@ -1249,7 +1249,7 @@
         <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
         <v>60</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1274,7 +1274,7 @@
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1284,12 +1284,12 @@
       <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -1305,7 +1305,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1349,7 +1349,7 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:16384" x14ac:dyDescent="0.2">
@@ -1366,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:16384" x14ac:dyDescent="0.2">
@@ -17814,12 +17814,12 @@
         <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -17867,7 +17867,7 @@
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:16384" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -17889,13 +17889,13 @@
       </c>
     </row>
     <row r="31" spans="1:16384" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="7"/>
@@ -17911,15 +17911,15 @@
         <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -17936,7 +17936,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -17945,7 +17945,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
         <v>91</v>
@@ -17953,22 +17953,22 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
         <v>98</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>100</v>
       </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>101</v>
       </c>
-      <c r="E35" t="s">
-        <v>102</v>
-      </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -17976,7 +17976,7 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -17985,127 +17985,2836 @@
         <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
         <v>104</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" t="s">
         <v>106</v>
       </c>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>108</v>
-      </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
         <v>109</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>110</v>
       </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" t="s">
-        <v>112</v>
-      </c>
       <c r="F40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
         <v>113</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>114</v>
       </c>
-      <c r="C41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" t="s">
-        <v>116</v>
-      </c>
       <c r="F41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2741">
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="DK21:DP21"/>
+    <mergeCell ref="DQ21:DV21"/>
+    <mergeCell ref="DW21:EB21"/>
+    <mergeCell ref="EC21:EH21"/>
+    <mergeCell ref="EI21:EN21"/>
+    <mergeCell ref="CG21:CL21"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="CS21:CX21"/>
+    <mergeCell ref="CY21:DD21"/>
+    <mergeCell ref="DE21:DJ21"/>
+    <mergeCell ref="BC21:BH21"/>
+    <mergeCell ref="BI21:BN21"/>
+    <mergeCell ref="BO21:BT21"/>
+    <mergeCell ref="BU21:BZ21"/>
+    <mergeCell ref="CA21:CF21"/>
+    <mergeCell ref="Y21:AD21"/>
+    <mergeCell ref="AE21:AJ21"/>
+    <mergeCell ref="AK21:AP21"/>
+    <mergeCell ref="AQ21:AV21"/>
+    <mergeCell ref="AW21:BB21"/>
+    <mergeCell ref="IA21:IF21"/>
+    <mergeCell ref="IG21:IL21"/>
+    <mergeCell ref="IM21:IR21"/>
+    <mergeCell ref="IS21:IX21"/>
+    <mergeCell ref="IY21:JD21"/>
+    <mergeCell ref="GW21:HB21"/>
+    <mergeCell ref="HC21:HH21"/>
+    <mergeCell ref="HI21:HN21"/>
+    <mergeCell ref="HO21:HT21"/>
+    <mergeCell ref="HU21:HZ21"/>
+    <mergeCell ref="FS21:FX21"/>
+    <mergeCell ref="FY21:GD21"/>
+    <mergeCell ref="GE21:GJ21"/>
+    <mergeCell ref="GK21:GP21"/>
+    <mergeCell ref="GQ21:GV21"/>
+    <mergeCell ref="EO21:ET21"/>
+    <mergeCell ref="EU21:EZ21"/>
+    <mergeCell ref="FA21:FF21"/>
+    <mergeCell ref="FG21:FL21"/>
+    <mergeCell ref="FM21:FR21"/>
+    <mergeCell ref="MQ21:MV21"/>
+    <mergeCell ref="MW21:NB21"/>
+    <mergeCell ref="NC21:NH21"/>
+    <mergeCell ref="NI21:NN21"/>
+    <mergeCell ref="NO21:NT21"/>
+    <mergeCell ref="LM21:LR21"/>
+    <mergeCell ref="LS21:LX21"/>
+    <mergeCell ref="LY21:MD21"/>
+    <mergeCell ref="ME21:MJ21"/>
+    <mergeCell ref="MK21:MP21"/>
+    <mergeCell ref="KI21:KN21"/>
+    <mergeCell ref="KO21:KT21"/>
+    <mergeCell ref="KU21:KZ21"/>
+    <mergeCell ref="LA21:LF21"/>
+    <mergeCell ref="LG21:LL21"/>
+    <mergeCell ref="JE21:JJ21"/>
+    <mergeCell ref="JK21:JP21"/>
+    <mergeCell ref="JQ21:JV21"/>
+    <mergeCell ref="JW21:KB21"/>
+    <mergeCell ref="KC21:KH21"/>
+    <mergeCell ref="RG21:RL21"/>
+    <mergeCell ref="RM21:RR21"/>
+    <mergeCell ref="RS21:RX21"/>
+    <mergeCell ref="RY21:SD21"/>
+    <mergeCell ref="SE21:SJ21"/>
+    <mergeCell ref="QC21:QH21"/>
+    <mergeCell ref="QI21:QN21"/>
+    <mergeCell ref="QO21:QT21"/>
+    <mergeCell ref="QU21:QZ21"/>
+    <mergeCell ref="RA21:RF21"/>
+    <mergeCell ref="OY21:PD21"/>
+    <mergeCell ref="PE21:PJ21"/>
+    <mergeCell ref="PK21:PP21"/>
+    <mergeCell ref="PQ21:PV21"/>
+    <mergeCell ref="PW21:QB21"/>
+    <mergeCell ref="NU21:NZ21"/>
+    <mergeCell ref="OA21:OF21"/>
+    <mergeCell ref="OG21:OL21"/>
+    <mergeCell ref="OM21:OR21"/>
+    <mergeCell ref="OS21:OX21"/>
+    <mergeCell ref="VW21:WB21"/>
+    <mergeCell ref="WC21:WH21"/>
+    <mergeCell ref="WI21:WN21"/>
+    <mergeCell ref="WO21:WT21"/>
+    <mergeCell ref="WU21:WZ21"/>
+    <mergeCell ref="US21:UX21"/>
+    <mergeCell ref="UY21:VD21"/>
+    <mergeCell ref="VE21:VJ21"/>
+    <mergeCell ref="VK21:VP21"/>
+    <mergeCell ref="VQ21:VV21"/>
+    <mergeCell ref="TO21:TT21"/>
+    <mergeCell ref="TU21:TZ21"/>
+    <mergeCell ref="UA21:UF21"/>
+    <mergeCell ref="UG21:UL21"/>
+    <mergeCell ref="UM21:UR21"/>
+    <mergeCell ref="SK21:SP21"/>
+    <mergeCell ref="SQ21:SV21"/>
+    <mergeCell ref="SW21:TB21"/>
+    <mergeCell ref="TC21:TH21"/>
+    <mergeCell ref="TI21:TN21"/>
+    <mergeCell ref="AAM21:AAR21"/>
+    <mergeCell ref="AAS21:AAX21"/>
+    <mergeCell ref="AAY21:ABD21"/>
+    <mergeCell ref="ABE21:ABJ21"/>
+    <mergeCell ref="ABK21:ABP21"/>
+    <mergeCell ref="ZI21:ZN21"/>
+    <mergeCell ref="ZO21:ZT21"/>
+    <mergeCell ref="ZU21:ZZ21"/>
+    <mergeCell ref="AAA21:AAF21"/>
+    <mergeCell ref="AAG21:AAL21"/>
+    <mergeCell ref="YE21:YJ21"/>
+    <mergeCell ref="YK21:YP21"/>
+    <mergeCell ref="YQ21:YV21"/>
+    <mergeCell ref="YW21:ZB21"/>
+    <mergeCell ref="ZC21:ZH21"/>
+    <mergeCell ref="XA21:XF21"/>
+    <mergeCell ref="XG21:XL21"/>
+    <mergeCell ref="XM21:XR21"/>
+    <mergeCell ref="XS21:XX21"/>
+    <mergeCell ref="XY21:YD21"/>
+    <mergeCell ref="AFC21:AFH21"/>
+    <mergeCell ref="AFI21:AFN21"/>
+    <mergeCell ref="AFO21:AFT21"/>
+    <mergeCell ref="AFU21:AFZ21"/>
+    <mergeCell ref="AGA21:AGF21"/>
+    <mergeCell ref="ADY21:AED21"/>
+    <mergeCell ref="AEE21:AEJ21"/>
+    <mergeCell ref="AEK21:AEP21"/>
+    <mergeCell ref="AEQ21:AEV21"/>
+    <mergeCell ref="AEW21:AFB21"/>
+    <mergeCell ref="ACU21:ACZ21"/>
+    <mergeCell ref="ADA21:ADF21"/>
+    <mergeCell ref="ADG21:ADL21"/>
+    <mergeCell ref="ADM21:ADR21"/>
+    <mergeCell ref="ADS21:ADX21"/>
+    <mergeCell ref="ABQ21:ABV21"/>
+    <mergeCell ref="ABW21:ACB21"/>
+    <mergeCell ref="ACC21:ACH21"/>
+    <mergeCell ref="ACI21:ACN21"/>
+    <mergeCell ref="ACO21:ACT21"/>
+    <mergeCell ref="AJS21:AJX21"/>
+    <mergeCell ref="AJY21:AKD21"/>
+    <mergeCell ref="AKE21:AKJ21"/>
+    <mergeCell ref="AKK21:AKP21"/>
+    <mergeCell ref="AKQ21:AKV21"/>
+    <mergeCell ref="AIO21:AIT21"/>
+    <mergeCell ref="AIU21:AIZ21"/>
+    <mergeCell ref="AJA21:AJF21"/>
+    <mergeCell ref="AJG21:AJL21"/>
+    <mergeCell ref="AJM21:AJR21"/>
+    <mergeCell ref="AHK21:AHP21"/>
+    <mergeCell ref="AHQ21:AHV21"/>
+    <mergeCell ref="AHW21:AIB21"/>
+    <mergeCell ref="AIC21:AIH21"/>
+    <mergeCell ref="AII21:AIN21"/>
+    <mergeCell ref="AGG21:AGL21"/>
+    <mergeCell ref="AGM21:AGR21"/>
+    <mergeCell ref="AGS21:AGX21"/>
+    <mergeCell ref="AGY21:AHD21"/>
+    <mergeCell ref="AHE21:AHJ21"/>
+    <mergeCell ref="AOI21:AON21"/>
+    <mergeCell ref="AOO21:AOT21"/>
+    <mergeCell ref="AOU21:AOZ21"/>
+    <mergeCell ref="APA21:APF21"/>
+    <mergeCell ref="APG21:APL21"/>
+    <mergeCell ref="ANE21:ANJ21"/>
+    <mergeCell ref="ANK21:ANP21"/>
+    <mergeCell ref="ANQ21:ANV21"/>
+    <mergeCell ref="ANW21:AOB21"/>
+    <mergeCell ref="AOC21:AOH21"/>
+    <mergeCell ref="AMA21:AMF21"/>
+    <mergeCell ref="AMG21:AML21"/>
+    <mergeCell ref="AMM21:AMR21"/>
+    <mergeCell ref="AMS21:AMX21"/>
+    <mergeCell ref="AMY21:AND21"/>
+    <mergeCell ref="AKW21:ALB21"/>
+    <mergeCell ref="ALC21:ALH21"/>
+    <mergeCell ref="ALI21:ALN21"/>
+    <mergeCell ref="ALO21:ALT21"/>
+    <mergeCell ref="ALU21:ALZ21"/>
+    <mergeCell ref="ASY21:ATD21"/>
+    <mergeCell ref="ATE21:ATJ21"/>
+    <mergeCell ref="ATK21:ATP21"/>
+    <mergeCell ref="ATQ21:ATV21"/>
+    <mergeCell ref="ATW21:AUB21"/>
+    <mergeCell ref="ARU21:ARZ21"/>
+    <mergeCell ref="ASA21:ASF21"/>
+    <mergeCell ref="ASG21:ASL21"/>
+    <mergeCell ref="ASM21:ASR21"/>
+    <mergeCell ref="ASS21:ASX21"/>
+    <mergeCell ref="AQQ21:AQV21"/>
+    <mergeCell ref="AQW21:ARB21"/>
+    <mergeCell ref="ARC21:ARH21"/>
+    <mergeCell ref="ARI21:ARN21"/>
+    <mergeCell ref="ARO21:ART21"/>
+    <mergeCell ref="APM21:APR21"/>
+    <mergeCell ref="APS21:APX21"/>
+    <mergeCell ref="APY21:AQD21"/>
+    <mergeCell ref="AQE21:AQJ21"/>
+    <mergeCell ref="AQK21:AQP21"/>
+    <mergeCell ref="AXO21:AXT21"/>
+    <mergeCell ref="AXU21:AXZ21"/>
+    <mergeCell ref="AYA21:AYF21"/>
+    <mergeCell ref="AYG21:AYL21"/>
+    <mergeCell ref="AYM21:AYR21"/>
+    <mergeCell ref="AWK21:AWP21"/>
+    <mergeCell ref="AWQ21:AWV21"/>
+    <mergeCell ref="AWW21:AXB21"/>
+    <mergeCell ref="AXC21:AXH21"/>
+    <mergeCell ref="AXI21:AXN21"/>
+    <mergeCell ref="AVG21:AVL21"/>
+    <mergeCell ref="AVM21:AVR21"/>
+    <mergeCell ref="AVS21:AVX21"/>
+    <mergeCell ref="AVY21:AWD21"/>
+    <mergeCell ref="AWE21:AWJ21"/>
+    <mergeCell ref="AUC21:AUH21"/>
+    <mergeCell ref="AUI21:AUN21"/>
+    <mergeCell ref="AUO21:AUT21"/>
+    <mergeCell ref="AUU21:AUZ21"/>
+    <mergeCell ref="AVA21:AVF21"/>
+    <mergeCell ref="BCE21:BCJ21"/>
+    <mergeCell ref="BCK21:BCP21"/>
+    <mergeCell ref="BCQ21:BCV21"/>
+    <mergeCell ref="BCW21:BDB21"/>
+    <mergeCell ref="BDC21:BDH21"/>
+    <mergeCell ref="BBA21:BBF21"/>
+    <mergeCell ref="BBG21:BBL21"/>
+    <mergeCell ref="BBM21:BBR21"/>
+    <mergeCell ref="BBS21:BBX21"/>
+    <mergeCell ref="BBY21:BCD21"/>
+    <mergeCell ref="AZW21:BAB21"/>
+    <mergeCell ref="BAC21:BAH21"/>
+    <mergeCell ref="BAI21:BAN21"/>
+    <mergeCell ref="BAO21:BAT21"/>
+    <mergeCell ref="BAU21:BAZ21"/>
+    <mergeCell ref="AYS21:AYX21"/>
+    <mergeCell ref="AYY21:AZD21"/>
+    <mergeCell ref="AZE21:AZJ21"/>
+    <mergeCell ref="AZK21:AZP21"/>
+    <mergeCell ref="AZQ21:AZV21"/>
+    <mergeCell ref="BGU21:BGZ21"/>
+    <mergeCell ref="BHA21:BHF21"/>
+    <mergeCell ref="BHG21:BHL21"/>
+    <mergeCell ref="BHM21:BHR21"/>
+    <mergeCell ref="BHS21:BHX21"/>
+    <mergeCell ref="BFQ21:BFV21"/>
+    <mergeCell ref="BFW21:BGB21"/>
+    <mergeCell ref="BGC21:BGH21"/>
+    <mergeCell ref="BGI21:BGN21"/>
+    <mergeCell ref="BGO21:BGT21"/>
+    <mergeCell ref="BEM21:BER21"/>
+    <mergeCell ref="BES21:BEX21"/>
+    <mergeCell ref="BEY21:BFD21"/>
+    <mergeCell ref="BFE21:BFJ21"/>
+    <mergeCell ref="BFK21:BFP21"/>
+    <mergeCell ref="BDI21:BDN21"/>
+    <mergeCell ref="BDO21:BDT21"/>
+    <mergeCell ref="BDU21:BDZ21"/>
+    <mergeCell ref="BEA21:BEF21"/>
+    <mergeCell ref="BEG21:BEL21"/>
+    <mergeCell ref="BLK21:BLP21"/>
+    <mergeCell ref="BLQ21:BLV21"/>
+    <mergeCell ref="BLW21:BMB21"/>
+    <mergeCell ref="BMC21:BMH21"/>
+    <mergeCell ref="BMI21:BMN21"/>
+    <mergeCell ref="BKG21:BKL21"/>
+    <mergeCell ref="BKM21:BKR21"/>
+    <mergeCell ref="BKS21:BKX21"/>
+    <mergeCell ref="BKY21:BLD21"/>
+    <mergeCell ref="BLE21:BLJ21"/>
+    <mergeCell ref="BJC21:BJH21"/>
+    <mergeCell ref="BJI21:BJN21"/>
+    <mergeCell ref="BJO21:BJT21"/>
+    <mergeCell ref="BJU21:BJZ21"/>
+    <mergeCell ref="BKA21:BKF21"/>
+    <mergeCell ref="BHY21:BID21"/>
+    <mergeCell ref="BIE21:BIJ21"/>
+    <mergeCell ref="BIK21:BIP21"/>
+    <mergeCell ref="BIQ21:BIV21"/>
+    <mergeCell ref="BIW21:BJB21"/>
+    <mergeCell ref="BQA21:BQF21"/>
+    <mergeCell ref="BQG21:BQL21"/>
+    <mergeCell ref="BQM21:BQR21"/>
+    <mergeCell ref="BQS21:BQX21"/>
+    <mergeCell ref="BQY21:BRD21"/>
+    <mergeCell ref="BOW21:BPB21"/>
+    <mergeCell ref="BPC21:BPH21"/>
+    <mergeCell ref="BPI21:BPN21"/>
+    <mergeCell ref="BPO21:BPT21"/>
+    <mergeCell ref="BPU21:BPZ21"/>
+    <mergeCell ref="BNS21:BNX21"/>
+    <mergeCell ref="BNY21:BOD21"/>
+    <mergeCell ref="BOE21:BOJ21"/>
+    <mergeCell ref="BOK21:BOP21"/>
+    <mergeCell ref="BOQ21:BOV21"/>
+    <mergeCell ref="BMO21:BMT21"/>
+    <mergeCell ref="BMU21:BMZ21"/>
+    <mergeCell ref="BNA21:BNF21"/>
+    <mergeCell ref="BNG21:BNL21"/>
+    <mergeCell ref="BNM21:BNR21"/>
+    <mergeCell ref="BUQ21:BUV21"/>
+    <mergeCell ref="BUW21:BVB21"/>
+    <mergeCell ref="BVC21:BVH21"/>
+    <mergeCell ref="BVI21:BVN21"/>
+    <mergeCell ref="BVO21:BVT21"/>
+    <mergeCell ref="BTM21:BTR21"/>
+    <mergeCell ref="BTS21:BTX21"/>
+    <mergeCell ref="BTY21:BUD21"/>
+    <mergeCell ref="BUE21:BUJ21"/>
+    <mergeCell ref="BUK21:BUP21"/>
+    <mergeCell ref="BSI21:BSN21"/>
+    <mergeCell ref="BSO21:BST21"/>
+    <mergeCell ref="BSU21:BSZ21"/>
+    <mergeCell ref="BTA21:BTF21"/>
+    <mergeCell ref="BTG21:BTL21"/>
+    <mergeCell ref="BRE21:BRJ21"/>
+    <mergeCell ref="BRK21:BRP21"/>
+    <mergeCell ref="BRQ21:BRV21"/>
+    <mergeCell ref="BRW21:BSB21"/>
+    <mergeCell ref="BSC21:BSH21"/>
+    <mergeCell ref="BZG21:BZL21"/>
+    <mergeCell ref="BZM21:BZR21"/>
+    <mergeCell ref="BZS21:BZX21"/>
+    <mergeCell ref="BZY21:CAD21"/>
+    <mergeCell ref="CAE21:CAJ21"/>
+    <mergeCell ref="BYC21:BYH21"/>
+    <mergeCell ref="BYI21:BYN21"/>
+    <mergeCell ref="BYO21:BYT21"/>
+    <mergeCell ref="BYU21:BYZ21"/>
+    <mergeCell ref="BZA21:BZF21"/>
+    <mergeCell ref="BWY21:BXD21"/>
+    <mergeCell ref="BXE21:BXJ21"/>
+    <mergeCell ref="BXK21:BXP21"/>
+    <mergeCell ref="BXQ21:BXV21"/>
+    <mergeCell ref="BXW21:BYB21"/>
+    <mergeCell ref="BVU21:BVZ21"/>
+    <mergeCell ref="BWA21:BWF21"/>
+    <mergeCell ref="BWG21:BWL21"/>
+    <mergeCell ref="BWM21:BWR21"/>
+    <mergeCell ref="BWS21:BWX21"/>
+    <mergeCell ref="CDW21:CEB21"/>
+    <mergeCell ref="CEC21:CEH21"/>
+    <mergeCell ref="CEI21:CEN21"/>
+    <mergeCell ref="CEO21:CET21"/>
+    <mergeCell ref="CEU21:CEZ21"/>
+    <mergeCell ref="CCS21:CCX21"/>
+    <mergeCell ref="CCY21:CDD21"/>
+    <mergeCell ref="CDE21:CDJ21"/>
+    <mergeCell ref="CDK21:CDP21"/>
+    <mergeCell ref="CDQ21:CDV21"/>
+    <mergeCell ref="CBO21:CBT21"/>
+    <mergeCell ref="CBU21:CBZ21"/>
+    <mergeCell ref="CCA21:CCF21"/>
+    <mergeCell ref="CCG21:CCL21"/>
+    <mergeCell ref="CCM21:CCR21"/>
+    <mergeCell ref="CAK21:CAP21"/>
+    <mergeCell ref="CAQ21:CAV21"/>
+    <mergeCell ref="CAW21:CBB21"/>
+    <mergeCell ref="CBC21:CBH21"/>
+    <mergeCell ref="CBI21:CBN21"/>
+    <mergeCell ref="CIM21:CIR21"/>
+    <mergeCell ref="CIS21:CIX21"/>
+    <mergeCell ref="CIY21:CJD21"/>
+    <mergeCell ref="CJE21:CJJ21"/>
+    <mergeCell ref="CJK21:CJP21"/>
+    <mergeCell ref="CHI21:CHN21"/>
+    <mergeCell ref="CHO21:CHT21"/>
+    <mergeCell ref="CHU21:CHZ21"/>
+    <mergeCell ref="CIA21:CIF21"/>
+    <mergeCell ref="CIG21:CIL21"/>
+    <mergeCell ref="CGE21:CGJ21"/>
+    <mergeCell ref="CGK21:CGP21"/>
+    <mergeCell ref="CGQ21:CGV21"/>
+    <mergeCell ref="CGW21:CHB21"/>
+    <mergeCell ref="CHC21:CHH21"/>
+    <mergeCell ref="CFA21:CFF21"/>
+    <mergeCell ref="CFG21:CFL21"/>
+    <mergeCell ref="CFM21:CFR21"/>
+    <mergeCell ref="CFS21:CFX21"/>
+    <mergeCell ref="CFY21:CGD21"/>
+    <mergeCell ref="CNC21:CNH21"/>
+    <mergeCell ref="CNI21:CNN21"/>
+    <mergeCell ref="CNO21:CNT21"/>
+    <mergeCell ref="CNU21:CNZ21"/>
+    <mergeCell ref="COA21:COF21"/>
+    <mergeCell ref="CLY21:CMD21"/>
+    <mergeCell ref="CME21:CMJ21"/>
+    <mergeCell ref="CMK21:CMP21"/>
+    <mergeCell ref="CMQ21:CMV21"/>
+    <mergeCell ref="CMW21:CNB21"/>
+    <mergeCell ref="CKU21:CKZ21"/>
+    <mergeCell ref="CLA21:CLF21"/>
+    <mergeCell ref="CLG21:CLL21"/>
+    <mergeCell ref="CLM21:CLR21"/>
+    <mergeCell ref="CLS21:CLX21"/>
+    <mergeCell ref="CJQ21:CJV21"/>
+    <mergeCell ref="CJW21:CKB21"/>
+    <mergeCell ref="CKC21:CKH21"/>
+    <mergeCell ref="CKI21:CKN21"/>
+    <mergeCell ref="CKO21:CKT21"/>
+    <mergeCell ref="CRS21:CRX21"/>
+    <mergeCell ref="CRY21:CSD21"/>
+    <mergeCell ref="CSE21:CSJ21"/>
+    <mergeCell ref="CSK21:CSP21"/>
+    <mergeCell ref="CSQ21:CSV21"/>
+    <mergeCell ref="CQO21:CQT21"/>
+    <mergeCell ref="CQU21:CQZ21"/>
+    <mergeCell ref="CRA21:CRF21"/>
+    <mergeCell ref="CRG21:CRL21"/>
+    <mergeCell ref="CRM21:CRR21"/>
+    <mergeCell ref="CPK21:CPP21"/>
+    <mergeCell ref="CPQ21:CPV21"/>
+    <mergeCell ref="CPW21:CQB21"/>
+    <mergeCell ref="CQC21:CQH21"/>
+    <mergeCell ref="CQI21:CQN21"/>
+    <mergeCell ref="COG21:COL21"/>
+    <mergeCell ref="COM21:COR21"/>
+    <mergeCell ref="COS21:COX21"/>
+    <mergeCell ref="COY21:CPD21"/>
+    <mergeCell ref="CPE21:CPJ21"/>
+    <mergeCell ref="CWI21:CWN21"/>
+    <mergeCell ref="CWO21:CWT21"/>
+    <mergeCell ref="CWU21:CWZ21"/>
+    <mergeCell ref="CXA21:CXF21"/>
+    <mergeCell ref="CXG21:CXL21"/>
+    <mergeCell ref="CVE21:CVJ21"/>
+    <mergeCell ref="CVK21:CVP21"/>
+    <mergeCell ref="CVQ21:CVV21"/>
+    <mergeCell ref="CVW21:CWB21"/>
+    <mergeCell ref="CWC21:CWH21"/>
+    <mergeCell ref="CUA21:CUF21"/>
+    <mergeCell ref="CUG21:CUL21"/>
+    <mergeCell ref="CUM21:CUR21"/>
+    <mergeCell ref="CUS21:CUX21"/>
+    <mergeCell ref="CUY21:CVD21"/>
+    <mergeCell ref="CSW21:CTB21"/>
+    <mergeCell ref="CTC21:CTH21"/>
+    <mergeCell ref="CTI21:CTN21"/>
+    <mergeCell ref="CTO21:CTT21"/>
+    <mergeCell ref="CTU21:CTZ21"/>
+    <mergeCell ref="DAY21:DBD21"/>
+    <mergeCell ref="DBE21:DBJ21"/>
+    <mergeCell ref="DBK21:DBP21"/>
+    <mergeCell ref="DBQ21:DBV21"/>
+    <mergeCell ref="DBW21:DCB21"/>
+    <mergeCell ref="CZU21:CZZ21"/>
+    <mergeCell ref="DAA21:DAF21"/>
+    <mergeCell ref="DAG21:DAL21"/>
+    <mergeCell ref="DAM21:DAR21"/>
+    <mergeCell ref="DAS21:DAX21"/>
+    <mergeCell ref="CYQ21:CYV21"/>
+    <mergeCell ref="CYW21:CZB21"/>
+    <mergeCell ref="CZC21:CZH21"/>
+    <mergeCell ref="CZI21:CZN21"/>
+    <mergeCell ref="CZO21:CZT21"/>
+    <mergeCell ref="CXM21:CXR21"/>
+    <mergeCell ref="CXS21:CXX21"/>
+    <mergeCell ref="CXY21:CYD21"/>
+    <mergeCell ref="CYE21:CYJ21"/>
+    <mergeCell ref="CYK21:CYP21"/>
+    <mergeCell ref="DFO21:DFT21"/>
+    <mergeCell ref="DFU21:DFZ21"/>
+    <mergeCell ref="DGA21:DGF21"/>
+    <mergeCell ref="DGG21:DGL21"/>
+    <mergeCell ref="DGM21:DGR21"/>
+    <mergeCell ref="DEK21:DEP21"/>
+    <mergeCell ref="DEQ21:DEV21"/>
+    <mergeCell ref="DEW21:DFB21"/>
+    <mergeCell ref="DFC21:DFH21"/>
+    <mergeCell ref="DFI21:DFN21"/>
+    <mergeCell ref="DDG21:DDL21"/>
+    <mergeCell ref="DDM21:DDR21"/>
+    <mergeCell ref="DDS21:DDX21"/>
+    <mergeCell ref="DDY21:DED21"/>
+    <mergeCell ref="DEE21:DEJ21"/>
+    <mergeCell ref="DCC21:DCH21"/>
+    <mergeCell ref="DCI21:DCN21"/>
+    <mergeCell ref="DCO21:DCT21"/>
+    <mergeCell ref="DCU21:DCZ21"/>
+    <mergeCell ref="DDA21:DDF21"/>
+    <mergeCell ref="DKE21:DKJ21"/>
+    <mergeCell ref="DKK21:DKP21"/>
+    <mergeCell ref="DKQ21:DKV21"/>
+    <mergeCell ref="DKW21:DLB21"/>
+    <mergeCell ref="DLC21:DLH21"/>
+    <mergeCell ref="DJA21:DJF21"/>
+    <mergeCell ref="DJG21:DJL21"/>
+    <mergeCell ref="DJM21:DJR21"/>
+    <mergeCell ref="DJS21:DJX21"/>
+    <mergeCell ref="DJY21:DKD21"/>
+    <mergeCell ref="DHW21:DIB21"/>
+    <mergeCell ref="DIC21:DIH21"/>
+    <mergeCell ref="DII21:DIN21"/>
+    <mergeCell ref="DIO21:DIT21"/>
+    <mergeCell ref="DIU21:DIZ21"/>
+    <mergeCell ref="DGS21:DGX21"/>
+    <mergeCell ref="DGY21:DHD21"/>
+    <mergeCell ref="DHE21:DHJ21"/>
+    <mergeCell ref="DHK21:DHP21"/>
+    <mergeCell ref="DHQ21:DHV21"/>
+    <mergeCell ref="DOU21:DOZ21"/>
+    <mergeCell ref="DPA21:DPF21"/>
+    <mergeCell ref="DPG21:DPL21"/>
+    <mergeCell ref="DPM21:DPR21"/>
+    <mergeCell ref="DPS21:DPX21"/>
+    <mergeCell ref="DNQ21:DNV21"/>
+    <mergeCell ref="DNW21:DOB21"/>
+    <mergeCell ref="DOC21:DOH21"/>
+    <mergeCell ref="DOI21:DON21"/>
+    <mergeCell ref="DOO21:DOT21"/>
+    <mergeCell ref="DMM21:DMR21"/>
+    <mergeCell ref="DMS21:DMX21"/>
+    <mergeCell ref="DMY21:DND21"/>
+    <mergeCell ref="DNE21:DNJ21"/>
+    <mergeCell ref="DNK21:DNP21"/>
+    <mergeCell ref="DLI21:DLN21"/>
+    <mergeCell ref="DLO21:DLT21"/>
+    <mergeCell ref="DLU21:DLZ21"/>
+    <mergeCell ref="DMA21:DMF21"/>
+    <mergeCell ref="DMG21:DML21"/>
+    <mergeCell ref="DTK21:DTP21"/>
+    <mergeCell ref="DTQ21:DTV21"/>
+    <mergeCell ref="DTW21:DUB21"/>
+    <mergeCell ref="DUC21:DUH21"/>
+    <mergeCell ref="DUI21:DUN21"/>
+    <mergeCell ref="DSG21:DSL21"/>
+    <mergeCell ref="DSM21:DSR21"/>
+    <mergeCell ref="DSS21:DSX21"/>
+    <mergeCell ref="DSY21:DTD21"/>
+    <mergeCell ref="DTE21:DTJ21"/>
+    <mergeCell ref="DRC21:DRH21"/>
+    <mergeCell ref="DRI21:DRN21"/>
+    <mergeCell ref="DRO21:DRT21"/>
+    <mergeCell ref="DRU21:DRZ21"/>
+    <mergeCell ref="DSA21:DSF21"/>
+    <mergeCell ref="DPY21:DQD21"/>
+    <mergeCell ref="DQE21:DQJ21"/>
+    <mergeCell ref="DQK21:DQP21"/>
+    <mergeCell ref="DQQ21:DQV21"/>
+    <mergeCell ref="DQW21:DRB21"/>
+    <mergeCell ref="DYA21:DYF21"/>
+    <mergeCell ref="DYG21:DYL21"/>
+    <mergeCell ref="DYM21:DYR21"/>
+    <mergeCell ref="DYS21:DYX21"/>
+    <mergeCell ref="DYY21:DZD21"/>
+    <mergeCell ref="DWW21:DXB21"/>
+    <mergeCell ref="DXC21:DXH21"/>
+    <mergeCell ref="DXI21:DXN21"/>
+    <mergeCell ref="DXO21:DXT21"/>
+    <mergeCell ref="DXU21:DXZ21"/>
+    <mergeCell ref="DVS21:DVX21"/>
+    <mergeCell ref="DVY21:DWD21"/>
+    <mergeCell ref="DWE21:DWJ21"/>
+    <mergeCell ref="DWK21:DWP21"/>
+    <mergeCell ref="DWQ21:DWV21"/>
+    <mergeCell ref="DUO21:DUT21"/>
+    <mergeCell ref="DUU21:DUZ21"/>
+    <mergeCell ref="DVA21:DVF21"/>
+    <mergeCell ref="DVG21:DVL21"/>
+    <mergeCell ref="DVM21:DVR21"/>
+    <mergeCell ref="ECQ21:ECV21"/>
+    <mergeCell ref="ECW21:EDB21"/>
+    <mergeCell ref="EDC21:EDH21"/>
+    <mergeCell ref="EDI21:EDN21"/>
+    <mergeCell ref="EDO21:EDT21"/>
+    <mergeCell ref="EBM21:EBR21"/>
+    <mergeCell ref="EBS21:EBX21"/>
+    <mergeCell ref="EBY21:ECD21"/>
+    <mergeCell ref="ECE21:ECJ21"/>
+    <mergeCell ref="ECK21:ECP21"/>
+    <mergeCell ref="EAI21:EAN21"/>
+    <mergeCell ref="EAO21:EAT21"/>
+    <mergeCell ref="EAU21:EAZ21"/>
+    <mergeCell ref="EBA21:EBF21"/>
+    <mergeCell ref="EBG21:EBL21"/>
+    <mergeCell ref="DZE21:DZJ21"/>
+    <mergeCell ref="DZK21:DZP21"/>
+    <mergeCell ref="DZQ21:DZV21"/>
+    <mergeCell ref="DZW21:EAB21"/>
+    <mergeCell ref="EAC21:EAH21"/>
+    <mergeCell ref="EHG21:EHL21"/>
+    <mergeCell ref="EHM21:EHR21"/>
+    <mergeCell ref="EHS21:EHX21"/>
+    <mergeCell ref="EHY21:EID21"/>
+    <mergeCell ref="EIE21:EIJ21"/>
+    <mergeCell ref="EGC21:EGH21"/>
+    <mergeCell ref="EGI21:EGN21"/>
+    <mergeCell ref="EGO21:EGT21"/>
+    <mergeCell ref="EGU21:EGZ21"/>
+    <mergeCell ref="EHA21:EHF21"/>
+    <mergeCell ref="EEY21:EFD21"/>
+    <mergeCell ref="EFE21:EFJ21"/>
+    <mergeCell ref="EFK21:EFP21"/>
+    <mergeCell ref="EFQ21:EFV21"/>
+    <mergeCell ref="EFW21:EGB21"/>
+    <mergeCell ref="EDU21:EDZ21"/>
+    <mergeCell ref="EEA21:EEF21"/>
+    <mergeCell ref="EEG21:EEL21"/>
+    <mergeCell ref="EEM21:EER21"/>
+    <mergeCell ref="EES21:EEX21"/>
+    <mergeCell ref="ELW21:EMB21"/>
+    <mergeCell ref="EMC21:EMH21"/>
+    <mergeCell ref="EMI21:EMN21"/>
+    <mergeCell ref="EMO21:EMT21"/>
+    <mergeCell ref="EMU21:EMZ21"/>
+    <mergeCell ref="EKS21:EKX21"/>
+    <mergeCell ref="EKY21:ELD21"/>
+    <mergeCell ref="ELE21:ELJ21"/>
+    <mergeCell ref="ELK21:ELP21"/>
+    <mergeCell ref="ELQ21:ELV21"/>
+    <mergeCell ref="EJO21:EJT21"/>
+    <mergeCell ref="EJU21:EJZ21"/>
+    <mergeCell ref="EKA21:EKF21"/>
+    <mergeCell ref="EKG21:EKL21"/>
+    <mergeCell ref="EKM21:EKR21"/>
+    <mergeCell ref="EIK21:EIP21"/>
+    <mergeCell ref="EIQ21:EIV21"/>
+    <mergeCell ref="EIW21:EJB21"/>
+    <mergeCell ref="EJC21:EJH21"/>
+    <mergeCell ref="EJI21:EJN21"/>
+    <mergeCell ref="EQM21:EQR21"/>
+    <mergeCell ref="EQS21:EQX21"/>
+    <mergeCell ref="EQY21:ERD21"/>
+    <mergeCell ref="ERE21:ERJ21"/>
+    <mergeCell ref="ERK21:ERP21"/>
+    <mergeCell ref="EPI21:EPN21"/>
+    <mergeCell ref="EPO21:EPT21"/>
+    <mergeCell ref="EPU21:EPZ21"/>
+    <mergeCell ref="EQA21:EQF21"/>
+    <mergeCell ref="EQG21:EQL21"/>
+    <mergeCell ref="EOE21:EOJ21"/>
+    <mergeCell ref="EOK21:EOP21"/>
+    <mergeCell ref="EOQ21:EOV21"/>
+    <mergeCell ref="EOW21:EPB21"/>
+    <mergeCell ref="EPC21:EPH21"/>
+    <mergeCell ref="ENA21:ENF21"/>
+    <mergeCell ref="ENG21:ENL21"/>
+    <mergeCell ref="ENM21:ENR21"/>
+    <mergeCell ref="ENS21:ENX21"/>
+    <mergeCell ref="ENY21:EOD21"/>
+    <mergeCell ref="EVC21:EVH21"/>
+    <mergeCell ref="EVI21:EVN21"/>
+    <mergeCell ref="EVO21:EVT21"/>
+    <mergeCell ref="EVU21:EVZ21"/>
+    <mergeCell ref="EWA21:EWF21"/>
+    <mergeCell ref="ETY21:EUD21"/>
+    <mergeCell ref="EUE21:EUJ21"/>
+    <mergeCell ref="EUK21:EUP21"/>
+    <mergeCell ref="EUQ21:EUV21"/>
+    <mergeCell ref="EUW21:EVB21"/>
+    <mergeCell ref="ESU21:ESZ21"/>
+    <mergeCell ref="ETA21:ETF21"/>
+    <mergeCell ref="ETG21:ETL21"/>
+    <mergeCell ref="ETM21:ETR21"/>
+    <mergeCell ref="ETS21:ETX21"/>
+    <mergeCell ref="ERQ21:ERV21"/>
+    <mergeCell ref="ERW21:ESB21"/>
+    <mergeCell ref="ESC21:ESH21"/>
+    <mergeCell ref="ESI21:ESN21"/>
+    <mergeCell ref="ESO21:EST21"/>
+    <mergeCell ref="EZS21:EZX21"/>
+    <mergeCell ref="EZY21:FAD21"/>
+    <mergeCell ref="FAE21:FAJ21"/>
+    <mergeCell ref="FAK21:FAP21"/>
+    <mergeCell ref="FAQ21:FAV21"/>
+    <mergeCell ref="EYO21:EYT21"/>
+    <mergeCell ref="EYU21:EYZ21"/>
+    <mergeCell ref="EZA21:EZF21"/>
+    <mergeCell ref="EZG21:EZL21"/>
+    <mergeCell ref="EZM21:EZR21"/>
+    <mergeCell ref="EXK21:EXP21"/>
+    <mergeCell ref="EXQ21:EXV21"/>
+    <mergeCell ref="EXW21:EYB21"/>
+    <mergeCell ref="EYC21:EYH21"/>
+    <mergeCell ref="EYI21:EYN21"/>
+    <mergeCell ref="EWG21:EWL21"/>
+    <mergeCell ref="EWM21:EWR21"/>
+    <mergeCell ref="EWS21:EWX21"/>
+    <mergeCell ref="EWY21:EXD21"/>
+    <mergeCell ref="EXE21:EXJ21"/>
+    <mergeCell ref="FEI21:FEN21"/>
+    <mergeCell ref="FEO21:FET21"/>
+    <mergeCell ref="FEU21:FEZ21"/>
+    <mergeCell ref="FFA21:FFF21"/>
+    <mergeCell ref="FFG21:FFL21"/>
+    <mergeCell ref="FDE21:FDJ21"/>
+    <mergeCell ref="FDK21:FDP21"/>
+    <mergeCell ref="FDQ21:FDV21"/>
+    <mergeCell ref="FDW21:FEB21"/>
+    <mergeCell ref="FEC21:FEH21"/>
+    <mergeCell ref="FCA21:FCF21"/>
+    <mergeCell ref="FCG21:FCL21"/>
+    <mergeCell ref="FCM21:FCR21"/>
+    <mergeCell ref="FCS21:FCX21"/>
+    <mergeCell ref="FCY21:FDD21"/>
+    <mergeCell ref="FAW21:FBB21"/>
+    <mergeCell ref="FBC21:FBH21"/>
+    <mergeCell ref="FBI21:FBN21"/>
+    <mergeCell ref="FBO21:FBT21"/>
+    <mergeCell ref="FBU21:FBZ21"/>
+    <mergeCell ref="FIY21:FJD21"/>
+    <mergeCell ref="FJE21:FJJ21"/>
+    <mergeCell ref="FJK21:FJP21"/>
+    <mergeCell ref="FJQ21:FJV21"/>
+    <mergeCell ref="FJW21:FKB21"/>
+    <mergeCell ref="FHU21:FHZ21"/>
+    <mergeCell ref="FIA21:FIF21"/>
+    <mergeCell ref="FIG21:FIL21"/>
+    <mergeCell ref="FIM21:FIR21"/>
+    <mergeCell ref="FIS21:FIX21"/>
+    <mergeCell ref="FGQ21:FGV21"/>
+    <mergeCell ref="FGW21:FHB21"/>
+    <mergeCell ref="FHC21:FHH21"/>
+    <mergeCell ref="FHI21:FHN21"/>
+    <mergeCell ref="FHO21:FHT21"/>
+    <mergeCell ref="FFM21:FFR21"/>
+    <mergeCell ref="FFS21:FFX21"/>
+    <mergeCell ref="FFY21:FGD21"/>
+    <mergeCell ref="FGE21:FGJ21"/>
+    <mergeCell ref="FGK21:FGP21"/>
+    <mergeCell ref="FNO21:FNT21"/>
+    <mergeCell ref="FNU21:FNZ21"/>
+    <mergeCell ref="FOA21:FOF21"/>
+    <mergeCell ref="FOG21:FOL21"/>
+    <mergeCell ref="FOM21:FOR21"/>
+    <mergeCell ref="FMK21:FMP21"/>
+    <mergeCell ref="FMQ21:FMV21"/>
+    <mergeCell ref="FMW21:FNB21"/>
+    <mergeCell ref="FNC21:FNH21"/>
+    <mergeCell ref="FNI21:FNN21"/>
+    <mergeCell ref="FLG21:FLL21"/>
+    <mergeCell ref="FLM21:FLR21"/>
+    <mergeCell ref="FLS21:FLX21"/>
+    <mergeCell ref="FLY21:FMD21"/>
+    <mergeCell ref="FME21:FMJ21"/>
+    <mergeCell ref="FKC21:FKH21"/>
+    <mergeCell ref="FKI21:FKN21"/>
+    <mergeCell ref="FKO21:FKT21"/>
+    <mergeCell ref="FKU21:FKZ21"/>
+    <mergeCell ref="FLA21:FLF21"/>
+    <mergeCell ref="FSE21:FSJ21"/>
+    <mergeCell ref="FSK21:FSP21"/>
+    <mergeCell ref="FSQ21:FSV21"/>
+    <mergeCell ref="FSW21:FTB21"/>
+    <mergeCell ref="FTC21:FTH21"/>
+    <mergeCell ref="FRA21:FRF21"/>
+    <mergeCell ref="FRG21:FRL21"/>
+    <mergeCell ref="FRM21:FRR21"/>
+    <mergeCell ref="FRS21:FRX21"/>
+    <mergeCell ref="FRY21:FSD21"/>
+    <mergeCell ref="FPW21:FQB21"/>
+    <mergeCell ref="FQC21:FQH21"/>
+    <mergeCell ref="FQI21:FQN21"/>
+    <mergeCell ref="FQO21:FQT21"/>
+    <mergeCell ref="FQU21:FQZ21"/>
+    <mergeCell ref="FOS21:FOX21"/>
+    <mergeCell ref="FOY21:FPD21"/>
+    <mergeCell ref="FPE21:FPJ21"/>
+    <mergeCell ref="FPK21:FPP21"/>
+    <mergeCell ref="FPQ21:FPV21"/>
+    <mergeCell ref="FWU21:FWZ21"/>
+    <mergeCell ref="FXA21:FXF21"/>
+    <mergeCell ref="FXG21:FXL21"/>
+    <mergeCell ref="FXM21:FXR21"/>
+    <mergeCell ref="FXS21:FXX21"/>
+    <mergeCell ref="FVQ21:FVV21"/>
+    <mergeCell ref="FVW21:FWB21"/>
+    <mergeCell ref="FWC21:FWH21"/>
+    <mergeCell ref="FWI21:FWN21"/>
+    <mergeCell ref="FWO21:FWT21"/>
+    <mergeCell ref="FUM21:FUR21"/>
+    <mergeCell ref="FUS21:FUX21"/>
+    <mergeCell ref="FUY21:FVD21"/>
+    <mergeCell ref="FVE21:FVJ21"/>
+    <mergeCell ref="FVK21:FVP21"/>
+    <mergeCell ref="FTI21:FTN21"/>
+    <mergeCell ref="FTO21:FTT21"/>
+    <mergeCell ref="FTU21:FTZ21"/>
+    <mergeCell ref="FUA21:FUF21"/>
+    <mergeCell ref="FUG21:FUL21"/>
+    <mergeCell ref="GBK21:GBP21"/>
+    <mergeCell ref="GBQ21:GBV21"/>
+    <mergeCell ref="GBW21:GCB21"/>
+    <mergeCell ref="GCC21:GCH21"/>
+    <mergeCell ref="GCI21:GCN21"/>
+    <mergeCell ref="GAG21:GAL21"/>
+    <mergeCell ref="GAM21:GAR21"/>
+    <mergeCell ref="GAS21:GAX21"/>
+    <mergeCell ref="GAY21:GBD21"/>
+    <mergeCell ref="GBE21:GBJ21"/>
+    <mergeCell ref="FZC21:FZH21"/>
+    <mergeCell ref="FZI21:FZN21"/>
+    <mergeCell ref="FZO21:FZT21"/>
+    <mergeCell ref="FZU21:FZZ21"/>
+    <mergeCell ref="GAA21:GAF21"/>
+    <mergeCell ref="FXY21:FYD21"/>
+    <mergeCell ref="FYE21:FYJ21"/>
+    <mergeCell ref="FYK21:FYP21"/>
+    <mergeCell ref="FYQ21:FYV21"/>
+    <mergeCell ref="FYW21:FZB21"/>
+    <mergeCell ref="GGA21:GGF21"/>
+    <mergeCell ref="GGG21:GGL21"/>
+    <mergeCell ref="GGM21:GGR21"/>
+    <mergeCell ref="GGS21:GGX21"/>
+    <mergeCell ref="GGY21:GHD21"/>
+    <mergeCell ref="GEW21:GFB21"/>
+    <mergeCell ref="GFC21:GFH21"/>
+    <mergeCell ref="GFI21:GFN21"/>
+    <mergeCell ref="GFO21:GFT21"/>
+    <mergeCell ref="GFU21:GFZ21"/>
+    <mergeCell ref="GDS21:GDX21"/>
+    <mergeCell ref="GDY21:GED21"/>
+    <mergeCell ref="GEE21:GEJ21"/>
+    <mergeCell ref="GEK21:GEP21"/>
+    <mergeCell ref="GEQ21:GEV21"/>
+    <mergeCell ref="GCO21:GCT21"/>
+    <mergeCell ref="GCU21:GCZ21"/>
+    <mergeCell ref="GDA21:GDF21"/>
+    <mergeCell ref="GDG21:GDL21"/>
+    <mergeCell ref="GDM21:GDR21"/>
+    <mergeCell ref="GKQ21:GKV21"/>
+    <mergeCell ref="GKW21:GLB21"/>
+    <mergeCell ref="GLC21:GLH21"/>
+    <mergeCell ref="GLI21:GLN21"/>
+    <mergeCell ref="GLO21:GLT21"/>
+    <mergeCell ref="GJM21:GJR21"/>
+    <mergeCell ref="GJS21:GJX21"/>
+    <mergeCell ref="GJY21:GKD21"/>
+    <mergeCell ref="GKE21:GKJ21"/>
+    <mergeCell ref="GKK21:GKP21"/>
+    <mergeCell ref="GII21:GIN21"/>
+    <mergeCell ref="GIO21:GIT21"/>
+    <mergeCell ref="GIU21:GIZ21"/>
+    <mergeCell ref="GJA21:GJF21"/>
+    <mergeCell ref="GJG21:GJL21"/>
+    <mergeCell ref="GHE21:GHJ21"/>
+    <mergeCell ref="GHK21:GHP21"/>
+    <mergeCell ref="GHQ21:GHV21"/>
+    <mergeCell ref="GHW21:GIB21"/>
+    <mergeCell ref="GIC21:GIH21"/>
+    <mergeCell ref="GPG21:GPL21"/>
+    <mergeCell ref="GPM21:GPR21"/>
+    <mergeCell ref="GPS21:GPX21"/>
+    <mergeCell ref="GPY21:GQD21"/>
+    <mergeCell ref="GQE21:GQJ21"/>
+    <mergeCell ref="GOC21:GOH21"/>
+    <mergeCell ref="GOI21:GON21"/>
+    <mergeCell ref="GOO21:GOT21"/>
+    <mergeCell ref="GOU21:GOZ21"/>
+    <mergeCell ref="GPA21:GPF21"/>
+    <mergeCell ref="GMY21:GND21"/>
+    <mergeCell ref="GNE21:GNJ21"/>
+    <mergeCell ref="GNK21:GNP21"/>
+    <mergeCell ref="GNQ21:GNV21"/>
+    <mergeCell ref="GNW21:GOB21"/>
+    <mergeCell ref="GLU21:GLZ21"/>
+    <mergeCell ref="GMA21:GMF21"/>
+    <mergeCell ref="GMG21:GML21"/>
+    <mergeCell ref="GMM21:GMR21"/>
+    <mergeCell ref="GMS21:GMX21"/>
+    <mergeCell ref="GTW21:GUB21"/>
+    <mergeCell ref="GUC21:GUH21"/>
+    <mergeCell ref="GUI21:GUN21"/>
+    <mergeCell ref="GUO21:GUT21"/>
+    <mergeCell ref="GUU21:GUZ21"/>
+    <mergeCell ref="GSS21:GSX21"/>
+    <mergeCell ref="GSY21:GTD21"/>
+    <mergeCell ref="GTE21:GTJ21"/>
+    <mergeCell ref="GTK21:GTP21"/>
+    <mergeCell ref="GTQ21:GTV21"/>
+    <mergeCell ref="GRO21:GRT21"/>
+    <mergeCell ref="GRU21:GRZ21"/>
+    <mergeCell ref="GSA21:GSF21"/>
+    <mergeCell ref="GSG21:GSL21"/>
+    <mergeCell ref="GSM21:GSR21"/>
+    <mergeCell ref="GQK21:GQP21"/>
+    <mergeCell ref="GQQ21:GQV21"/>
+    <mergeCell ref="GQW21:GRB21"/>
+    <mergeCell ref="GRC21:GRH21"/>
+    <mergeCell ref="GRI21:GRN21"/>
+    <mergeCell ref="GYM21:GYR21"/>
+    <mergeCell ref="GYS21:GYX21"/>
+    <mergeCell ref="GYY21:GZD21"/>
+    <mergeCell ref="GZE21:GZJ21"/>
+    <mergeCell ref="GZK21:GZP21"/>
+    <mergeCell ref="GXI21:GXN21"/>
+    <mergeCell ref="GXO21:GXT21"/>
+    <mergeCell ref="GXU21:GXZ21"/>
+    <mergeCell ref="GYA21:GYF21"/>
+    <mergeCell ref="GYG21:GYL21"/>
+    <mergeCell ref="GWE21:GWJ21"/>
+    <mergeCell ref="GWK21:GWP21"/>
+    <mergeCell ref="GWQ21:GWV21"/>
+    <mergeCell ref="GWW21:GXB21"/>
+    <mergeCell ref="GXC21:GXH21"/>
+    <mergeCell ref="GVA21:GVF21"/>
+    <mergeCell ref="GVG21:GVL21"/>
+    <mergeCell ref="GVM21:GVR21"/>
+    <mergeCell ref="GVS21:GVX21"/>
+    <mergeCell ref="GVY21:GWD21"/>
+    <mergeCell ref="HDC21:HDH21"/>
+    <mergeCell ref="HDI21:HDN21"/>
+    <mergeCell ref="HDO21:HDT21"/>
+    <mergeCell ref="HDU21:HDZ21"/>
+    <mergeCell ref="HEA21:HEF21"/>
+    <mergeCell ref="HBY21:HCD21"/>
+    <mergeCell ref="HCE21:HCJ21"/>
+    <mergeCell ref="HCK21:HCP21"/>
+    <mergeCell ref="HCQ21:HCV21"/>
+    <mergeCell ref="HCW21:HDB21"/>
+    <mergeCell ref="HAU21:HAZ21"/>
+    <mergeCell ref="HBA21:HBF21"/>
+    <mergeCell ref="HBG21:HBL21"/>
+    <mergeCell ref="HBM21:HBR21"/>
+    <mergeCell ref="HBS21:HBX21"/>
+    <mergeCell ref="GZQ21:GZV21"/>
+    <mergeCell ref="GZW21:HAB21"/>
+    <mergeCell ref="HAC21:HAH21"/>
+    <mergeCell ref="HAI21:HAN21"/>
+    <mergeCell ref="HAO21:HAT21"/>
+    <mergeCell ref="HHS21:HHX21"/>
+    <mergeCell ref="HHY21:HID21"/>
+    <mergeCell ref="HIE21:HIJ21"/>
+    <mergeCell ref="HIK21:HIP21"/>
+    <mergeCell ref="HIQ21:HIV21"/>
+    <mergeCell ref="HGO21:HGT21"/>
+    <mergeCell ref="HGU21:HGZ21"/>
+    <mergeCell ref="HHA21:HHF21"/>
+    <mergeCell ref="HHG21:HHL21"/>
+    <mergeCell ref="HHM21:HHR21"/>
+    <mergeCell ref="HFK21:HFP21"/>
+    <mergeCell ref="HFQ21:HFV21"/>
+    <mergeCell ref="HFW21:HGB21"/>
+    <mergeCell ref="HGC21:HGH21"/>
+    <mergeCell ref="HGI21:HGN21"/>
+    <mergeCell ref="HEG21:HEL21"/>
+    <mergeCell ref="HEM21:HER21"/>
+    <mergeCell ref="HES21:HEX21"/>
+    <mergeCell ref="HEY21:HFD21"/>
+    <mergeCell ref="HFE21:HFJ21"/>
+    <mergeCell ref="HMI21:HMN21"/>
+    <mergeCell ref="HMO21:HMT21"/>
+    <mergeCell ref="HMU21:HMZ21"/>
+    <mergeCell ref="HNA21:HNF21"/>
+    <mergeCell ref="HNG21:HNL21"/>
+    <mergeCell ref="HLE21:HLJ21"/>
+    <mergeCell ref="HLK21:HLP21"/>
+    <mergeCell ref="HLQ21:HLV21"/>
+    <mergeCell ref="HLW21:HMB21"/>
+    <mergeCell ref="HMC21:HMH21"/>
+    <mergeCell ref="HKA21:HKF21"/>
+    <mergeCell ref="HKG21:HKL21"/>
+    <mergeCell ref="HKM21:HKR21"/>
+    <mergeCell ref="HKS21:HKX21"/>
+    <mergeCell ref="HKY21:HLD21"/>
+    <mergeCell ref="HIW21:HJB21"/>
+    <mergeCell ref="HJC21:HJH21"/>
+    <mergeCell ref="HJI21:HJN21"/>
+    <mergeCell ref="HJO21:HJT21"/>
+    <mergeCell ref="HJU21:HJZ21"/>
+    <mergeCell ref="HQY21:HRD21"/>
+    <mergeCell ref="HRE21:HRJ21"/>
+    <mergeCell ref="HRK21:HRP21"/>
+    <mergeCell ref="HRQ21:HRV21"/>
+    <mergeCell ref="HRW21:HSB21"/>
+    <mergeCell ref="HPU21:HPZ21"/>
+    <mergeCell ref="HQA21:HQF21"/>
+    <mergeCell ref="HQG21:HQL21"/>
+    <mergeCell ref="HQM21:HQR21"/>
+    <mergeCell ref="HQS21:HQX21"/>
+    <mergeCell ref="HOQ21:HOV21"/>
+    <mergeCell ref="HOW21:HPB21"/>
+    <mergeCell ref="HPC21:HPH21"/>
+    <mergeCell ref="HPI21:HPN21"/>
+    <mergeCell ref="HPO21:HPT21"/>
+    <mergeCell ref="HNM21:HNR21"/>
+    <mergeCell ref="HNS21:HNX21"/>
+    <mergeCell ref="HNY21:HOD21"/>
+    <mergeCell ref="HOE21:HOJ21"/>
+    <mergeCell ref="HOK21:HOP21"/>
+    <mergeCell ref="HVO21:HVT21"/>
+    <mergeCell ref="HVU21:HVZ21"/>
+    <mergeCell ref="HWA21:HWF21"/>
+    <mergeCell ref="HWG21:HWL21"/>
+    <mergeCell ref="HWM21:HWR21"/>
+    <mergeCell ref="HUK21:HUP21"/>
+    <mergeCell ref="HUQ21:HUV21"/>
+    <mergeCell ref="HUW21:HVB21"/>
+    <mergeCell ref="HVC21:HVH21"/>
+    <mergeCell ref="HVI21:HVN21"/>
+    <mergeCell ref="HTG21:HTL21"/>
+    <mergeCell ref="HTM21:HTR21"/>
+    <mergeCell ref="HTS21:HTX21"/>
+    <mergeCell ref="HTY21:HUD21"/>
+    <mergeCell ref="HUE21:HUJ21"/>
+    <mergeCell ref="HSC21:HSH21"/>
+    <mergeCell ref="HSI21:HSN21"/>
+    <mergeCell ref="HSO21:HST21"/>
+    <mergeCell ref="HSU21:HSZ21"/>
+    <mergeCell ref="HTA21:HTF21"/>
+    <mergeCell ref="IAE21:IAJ21"/>
+    <mergeCell ref="IAK21:IAP21"/>
+    <mergeCell ref="IAQ21:IAV21"/>
+    <mergeCell ref="IAW21:IBB21"/>
+    <mergeCell ref="IBC21:IBH21"/>
+    <mergeCell ref="HZA21:HZF21"/>
+    <mergeCell ref="HZG21:HZL21"/>
+    <mergeCell ref="HZM21:HZR21"/>
+    <mergeCell ref="HZS21:HZX21"/>
+    <mergeCell ref="HZY21:IAD21"/>
+    <mergeCell ref="HXW21:HYB21"/>
+    <mergeCell ref="HYC21:HYH21"/>
+    <mergeCell ref="HYI21:HYN21"/>
+    <mergeCell ref="HYO21:HYT21"/>
+    <mergeCell ref="HYU21:HYZ21"/>
+    <mergeCell ref="HWS21:HWX21"/>
+    <mergeCell ref="HWY21:HXD21"/>
+    <mergeCell ref="HXE21:HXJ21"/>
+    <mergeCell ref="HXK21:HXP21"/>
+    <mergeCell ref="HXQ21:HXV21"/>
+    <mergeCell ref="IEU21:IEZ21"/>
+    <mergeCell ref="IFA21:IFF21"/>
+    <mergeCell ref="IFG21:IFL21"/>
+    <mergeCell ref="IFM21:IFR21"/>
+    <mergeCell ref="IFS21:IFX21"/>
+    <mergeCell ref="IDQ21:IDV21"/>
+    <mergeCell ref="IDW21:IEB21"/>
+    <mergeCell ref="IEC21:IEH21"/>
+    <mergeCell ref="IEI21:IEN21"/>
+    <mergeCell ref="IEO21:IET21"/>
+    <mergeCell ref="ICM21:ICR21"/>
+    <mergeCell ref="ICS21:ICX21"/>
+    <mergeCell ref="ICY21:IDD21"/>
+    <mergeCell ref="IDE21:IDJ21"/>
+    <mergeCell ref="IDK21:IDP21"/>
+    <mergeCell ref="IBI21:IBN21"/>
+    <mergeCell ref="IBO21:IBT21"/>
+    <mergeCell ref="IBU21:IBZ21"/>
+    <mergeCell ref="ICA21:ICF21"/>
+    <mergeCell ref="ICG21:ICL21"/>
+    <mergeCell ref="IJK21:IJP21"/>
+    <mergeCell ref="IJQ21:IJV21"/>
+    <mergeCell ref="IJW21:IKB21"/>
+    <mergeCell ref="IKC21:IKH21"/>
+    <mergeCell ref="IKI21:IKN21"/>
+    <mergeCell ref="IIG21:IIL21"/>
+    <mergeCell ref="IIM21:IIR21"/>
+    <mergeCell ref="IIS21:IIX21"/>
+    <mergeCell ref="IIY21:IJD21"/>
+    <mergeCell ref="IJE21:IJJ21"/>
+    <mergeCell ref="IHC21:IHH21"/>
+    <mergeCell ref="IHI21:IHN21"/>
+    <mergeCell ref="IHO21:IHT21"/>
+    <mergeCell ref="IHU21:IHZ21"/>
+    <mergeCell ref="IIA21:IIF21"/>
+    <mergeCell ref="IFY21:IGD21"/>
+    <mergeCell ref="IGE21:IGJ21"/>
+    <mergeCell ref="IGK21:IGP21"/>
+    <mergeCell ref="IGQ21:IGV21"/>
+    <mergeCell ref="IGW21:IHB21"/>
+    <mergeCell ref="IOA21:IOF21"/>
+    <mergeCell ref="IOG21:IOL21"/>
+    <mergeCell ref="IOM21:IOR21"/>
+    <mergeCell ref="IOS21:IOX21"/>
+    <mergeCell ref="IOY21:IPD21"/>
+    <mergeCell ref="IMW21:INB21"/>
+    <mergeCell ref="INC21:INH21"/>
+    <mergeCell ref="INI21:INN21"/>
+    <mergeCell ref="INO21:INT21"/>
+    <mergeCell ref="INU21:INZ21"/>
+    <mergeCell ref="ILS21:ILX21"/>
+    <mergeCell ref="ILY21:IMD21"/>
+    <mergeCell ref="IME21:IMJ21"/>
+    <mergeCell ref="IMK21:IMP21"/>
+    <mergeCell ref="IMQ21:IMV21"/>
+    <mergeCell ref="IKO21:IKT21"/>
+    <mergeCell ref="IKU21:IKZ21"/>
+    <mergeCell ref="ILA21:ILF21"/>
+    <mergeCell ref="ILG21:ILL21"/>
+    <mergeCell ref="ILM21:ILR21"/>
+    <mergeCell ref="ISQ21:ISV21"/>
+    <mergeCell ref="ISW21:ITB21"/>
+    <mergeCell ref="ITC21:ITH21"/>
+    <mergeCell ref="ITI21:ITN21"/>
+    <mergeCell ref="ITO21:ITT21"/>
+    <mergeCell ref="IRM21:IRR21"/>
+    <mergeCell ref="IRS21:IRX21"/>
+    <mergeCell ref="IRY21:ISD21"/>
+    <mergeCell ref="ISE21:ISJ21"/>
+    <mergeCell ref="ISK21:ISP21"/>
+    <mergeCell ref="IQI21:IQN21"/>
+    <mergeCell ref="IQO21:IQT21"/>
+    <mergeCell ref="IQU21:IQZ21"/>
+    <mergeCell ref="IRA21:IRF21"/>
+    <mergeCell ref="IRG21:IRL21"/>
+    <mergeCell ref="IPE21:IPJ21"/>
+    <mergeCell ref="IPK21:IPP21"/>
+    <mergeCell ref="IPQ21:IPV21"/>
+    <mergeCell ref="IPW21:IQB21"/>
+    <mergeCell ref="IQC21:IQH21"/>
+    <mergeCell ref="IXG21:IXL21"/>
+    <mergeCell ref="IXM21:IXR21"/>
+    <mergeCell ref="IXS21:IXX21"/>
+    <mergeCell ref="IXY21:IYD21"/>
+    <mergeCell ref="IYE21:IYJ21"/>
+    <mergeCell ref="IWC21:IWH21"/>
+    <mergeCell ref="IWI21:IWN21"/>
+    <mergeCell ref="IWO21:IWT21"/>
+    <mergeCell ref="IWU21:IWZ21"/>
+    <mergeCell ref="IXA21:IXF21"/>
+    <mergeCell ref="IUY21:IVD21"/>
+    <mergeCell ref="IVE21:IVJ21"/>
+    <mergeCell ref="IVK21:IVP21"/>
+    <mergeCell ref="IVQ21:IVV21"/>
+    <mergeCell ref="IVW21:IWB21"/>
+    <mergeCell ref="ITU21:ITZ21"/>
+    <mergeCell ref="IUA21:IUF21"/>
+    <mergeCell ref="IUG21:IUL21"/>
+    <mergeCell ref="IUM21:IUR21"/>
+    <mergeCell ref="IUS21:IUX21"/>
+    <mergeCell ref="JBW21:JCB21"/>
+    <mergeCell ref="JCC21:JCH21"/>
+    <mergeCell ref="JCI21:JCN21"/>
+    <mergeCell ref="JCO21:JCT21"/>
+    <mergeCell ref="JCU21:JCZ21"/>
+    <mergeCell ref="JAS21:JAX21"/>
+    <mergeCell ref="JAY21:JBD21"/>
+    <mergeCell ref="JBE21:JBJ21"/>
+    <mergeCell ref="JBK21:JBP21"/>
+    <mergeCell ref="JBQ21:JBV21"/>
+    <mergeCell ref="IZO21:IZT21"/>
+    <mergeCell ref="IZU21:IZZ21"/>
+    <mergeCell ref="JAA21:JAF21"/>
+    <mergeCell ref="JAG21:JAL21"/>
+    <mergeCell ref="JAM21:JAR21"/>
+    <mergeCell ref="IYK21:IYP21"/>
+    <mergeCell ref="IYQ21:IYV21"/>
+    <mergeCell ref="IYW21:IZB21"/>
+    <mergeCell ref="IZC21:IZH21"/>
+    <mergeCell ref="IZI21:IZN21"/>
+    <mergeCell ref="JGM21:JGR21"/>
+    <mergeCell ref="JGS21:JGX21"/>
+    <mergeCell ref="JGY21:JHD21"/>
+    <mergeCell ref="JHE21:JHJ21"/>
+    <mergeCell ref="JHK21:JHP21"/>
+    <mergeCell ref="JFI21:JFN21"/>
+    <mergeCell ref="JFO21:JFT21"/>
+    <mergeCell ref="JFU21:JFZ21"/>
+    <mergeCell ref="JGA21:JGF21"/>
+    <mergeCell ref="JGG21:JGL21"/>
+    <mergeCell ref="JEE21:JEJ21"/>
+    <mergeCell ref="JEK21:JEP21"/>
+    <mergeCell ref="JEQ21:JEV21"/>
+    <mergeCell ref="JEW21:JFB21"/>
+    <mergeCell ref="JFC21:JFH21"/>
+    <mergeCell ref="JDA21:JDF21"/>
+    <mergeCell ref="JDG21:JDL21"/>
+    <mergeCell ref="JDM21:JDR21"/>
+    <mergeCell ref="JDS21:JDX21"/>
+    <mergeCell ref="JDY21:JED21"/>
+    <mergeCell ref="JLC21:JLH21"/>
+    <mergeCell ref="JLI21:JLN21"/>
+    <mergeCell ref="JLO21:JLT21"/>
+    <mergeCell ref="JLU21:JLZ21"/>
+    <mergeCell ref="JMA21:JMF21"/>
+    <mergeCell ref="JJY21:JKD21"/>
+    <mergeCell ref="JKE21:JKJ21"/>
+    <mergeCell ref="JKK21:JKP21"/>
+    <mergeCell ref="JKQ21:JKV21"/>
+    <mergeCell ref="JKW21:JLB21"/>
+    <mergeCell ref="JIU21:JIZ21"/>
+    <mergeCell ref="JJA21:JJF21"/>
+    <mergeCell ref="JJG21:JJL21"/>
+    <mergeCell ref="JJM21:JJR21"/>
+    <mergeCell ref="JJS21:JJX21"/>
+    <mergeCell ref="JHQ21:JHV21"/>
+    <mergeCell ref="JHW21:JIB21"/>
+    <mergeCell ref="JIC21:JIH21"/>
+    <mergeCell ref="JII21:JIN21"/>
+    <mergeCell ref="JIO21:JIT21"/>
+    <mergeCell ref="JPS21:JPX21"/>
+    <mergeCell ref="JPY21:JQD21"/>
+    <mergeCell ref="JQE21:JQJ21"/>
+    <mergeCell ref="JQK21:JQP21"/>
+    <mergeCell ref="JQQ21:JQV21"/>
+    <mergeCell ref="JOO21:JOT21"/>
+    <mergeCell ref="JOU21:JOZ21"/>
+    <mergeCell ref="JPA21:JPF21"/>
+    <mergeCell ref="JPG21:JPL21"/>
+    <mergeCell ref="JPM21:JPR21"/>
+    <mergeCell ref="JNK21:JNP21"/>
+    <mergeCell ref="JNQ21:JNV21"/>
+    <mergeCell ref="JNW21:JOB21"/>
+    <mergeCell ref="JOC21:JOH21"/>
+    <mergeCell ref="JOI21:JON21"/>
+    <mergeCell ref="JMG21:JML21"/>
+    <mergeCell ref="JMM21:JMR21"/>
+    <mergeCell ref="JMS21:JMX21"/>
+    <mergeCell ref="JMY21:JND21"/>
+    <mergeCell ref="JNE21:JNJ21"/>
+    <mergeCell ref="JUI21:JUN21"/>
+    <mergeCell ref="JUO21:JUT21"/>
+    <mergeCell ref="JUU21:JUZ21"/>
+    <mergeCell ref="JVA21:JVF21"/>
+    <mergeCell ref="JVG21:JVL21"/>
+    <mergeCell ref="JTE21:JTJ21"/>
+    <mergeCell ref="JTK21:JTP21"/>
+    <mergeCell ref="JTQ21:JTV21"/>
+    <mergeCell ref="JTW21:JUB21"/>
+    <mergeCell ref="JUC21:JUH21"/>
+    <mergeCell ref="JSA21:JSF21"/>
+    <mergeCell ref="JSG21:JSL21"/>
+    <mergeCell ref="JSM21:JSR21"/>
+    <mergeCell ref="JSS21:JSX21"/>
+    <mergeCell ref="JSY21:JTD21"/>
+    <mergeCell ref="JQW21:JRB21"/>
+    <mergeCell ref="JRC21:JRH21"/>
+    <mergeCell ref="JRI21:JRN21"/>
+    <mergeCell ref="JRO21:JRT21"/>
+    <mergeCell ref="JRU21:JRZ21"/>
+    <mergeCell ref="JYY21:JZD21"/>
+    <mergeCell ref="JZE21:JZJ21"/>
+    <mergeCell ref="JZK21:JZP21"/>
+    <mergeCell ref="JZQ21:JZV21"/>
+    <mergeCell ref="JZW21:KAB21"/>
+    <mergeCell ref="JXU21:JXZ21"/>
+    <mergeCell ref="JYA21:JYF21"/>
+    <mergeCell ref="JYG21:JYL21"/>
+    <mergeCell ref="JYM21:JYR21"/>
+    <mergeCell ref="JYS21:JYX21"/>
+    <mergeCell ref="JWQ21:JWV21"/>
+    <mergeCell ref="JWW21:JXB21"/>
+    <mergeCell ref="JXC21:JXH21"/>
+    <mergeCell ref="JXI21:JXN21"/>
+    <mergeCell ref="JXO21:JXT21"/>
+    <mergeCell ref="JVM21:JVR21"/>
+    <mergeCell ref="JVS21:JVX21"/>
+    <mergeCell ref="JVY21:JWD21"/>
+    <mergeCell ref="JWE21:JWJ21"/>
+    <mergeCell ref="JWK21:JWP21"/>
+    <mergeCell ref="KDO21:KDT21"/>
+    <mergeCell ref="KDU21:KDZ21"/>
+    <mergeCell ref="KEA21:KEF21"/>
+    <mergeCell ref="KEG21:KEL21"/>
+    <mergeCell ref="KEM21:KER21"/>
+    <mergeCell ref="KCK21:KCP21"/>
+    <mergeCell ref="KCQ21:KCV21"/>
+    <mergeCell ref="KCW21:KDB21"/>
+    <mergeCell ref="KDC21:KDH21"/>
+    <mergeCell ref="KDI21:KDN21"/>
+    <mergeCell ref="KBG21:KBL21"/>
+    <mergeCell ref="KBM21:KBR21"/>
+    <mergeCell ref="KBS21:KBX21"/>
+    <mergeCell ref="KBY21:KCD21"/>
+    <mergeCell ref="KCE21:KCJ21"/>
+    <mergeCell ref="KAC21:KAH21"/>
+    <mergeCell ref="KAI21:KAN21"/>
+    <mergeCell ref="KAO21:KAT21"/>
+    <mergeCell ref="KAU21:KAZ21"/>
+    <mergeCell ref="KBA21:KBF21"/>
+    <mergeCell ref="KIE21:KIJ21"/>
+    <mergeCell ref="KIK21:KIP21"/>
+    <mergeCell ref="KIQ21:KIV21"/>
+    <mergeCell ref="KIW21:KJB21"/>
+    <mergeCell ref="KJC21:KJH21"/>
+    <mergeCell ref="KHA21:KHF21"/>
+    <mergeCell ref="KHG21:KHL21"/>
+    <mergeCell ref="KHM21:KHR21"/>
+    <mergeCell ref="KHS21:KHX21"/>
+    <mergeCell ref="KHY21:KID21"/>
+    <mergeCell ref="KFW21:KGB21"/>
+    <mergeCell ref="KGC21:KGH21"/>
+    <mergeCell ref="KGI21:KGN21"/>
+    <mergeCell ref="KGO21:KGT21"/>
+    <mergeCell ref="KGU21:KGZ21"/>
+    <mergeCell ref="KES21:KEX21"/>
+    <mergeCell ref="KEY21:KFD21"/>
+    <mergeCell ref="KFE21:KFJ21"/>
+    <mergeCell ref="KFK21:KFP21"/>
+    <mergeCell ref="KFQ21:KFV21"/>
+    <mergeCell ref="KMU21:KMZ21"/>
+    <mergeCell ref="KNA21:KNF21"/>
+    <mergeCell ref="KNG21:KNL21"/>
+    <mergeCell ref="KNM21:KNR21"/>
+    <mergeCell ref="KNS21:KNX21"/>
+    <mergeCell ref="KLQ21:KLV21"/>
+    <mergeCell ref="KLW21:KMB21"/>
+    <mergeCell ref="KMC21:KMH21"/>
+    <mergeCell ref="KMI21:KMN21"/>
+    <mergeCell ref="KMO21:KMT21"/>
+    <mergeCell ref="KKM21:KKR21"/>
+    <mergeCell ref="KKS21:KKX21"/>
+    <mergeCell ref="KKY21:KLD21"/>
+    <mergeCell ref="KLE21:KLJ21"/>
+    <mergeCell ref="KLK21:KLP21"/>
+    <mergeCell ref="KJI21:KJN21"/>
+    <mergeCell ref="KJO21:KJT21"/>
+    <mergeCell ref="KJU21:KJZ21"/>
+    <mergeCell ref="KKA21:KKF21"/>
+    <mergeCell ref="KKG21:KKL21"/>
+    <mergeCell ref="KRK21:KRP21"/>
+    <mergeCell ref="KRQ21:KRV21"/>
+    <mergeCell ref="KRW21:KSB21"/>
+    <mergeCell ref="KSC21:KSH21"/>
+    <mergeCell ref="KSI21:KSN21"/>
+    <mergeCell ref="KQG21:KQL21"/>
+    <mergeCell ref="KQM21:KQR21"/>
+    <mergeCell ref="KQS21:KQX21"/>
+    <mergeCell ref="KQY21:KRD21"/>
+    <mergeCell ref="KRE21:KRJ21"/>
+    <mergeCell ref="KPC21:KPH21"/>
+    <mergeCell ref="KPI21:KPN21"/>
+    <mergeCell ref="KPO21:KPT21"/>
+    <mergeCell ref="KPU21:KPZ21"/>
+    <mergeCell ref="KQA21:KQF21"/>
+    <mergeCell ref="KNY21:KOD21"/>
+    <mergeCell ref="KOE21:KOJ21"/>
+    <mergeCell ref="KOK21:KOP21"/>
+    <mergeCell ref="KOQ21:KOV21"/>
+    <mergeCell ref="KOW21:KPB21"/>
+    <mergeCell ref="KWA21:KWF21"/>
+    <mergeCell ref="KWG21:KWL21"/>
+    <mergeCell ref="KWM21:KWR21"/>
+    <mergeCell ref="KWS21:KWX21"/>
+    <mergeCell ref="KWY21:KXD21"/>
+    <mergeCell ref="KUW21:KVB21"/>
+    <mergeCell ref="KVC21:KVH21"/>
+    <mergeCell ref="KVI21:KVN21"/>
+    <mergeCell ref="KVO21:KVT21"/>
+    <mergeCell ref="KVU21:KVZ21"/>
+    <mergeCell ref="KTS21:KTX21"/>
+    <mergeCell ref="KTY21:KUD21"/>
+    <mergeCell ref="KUE21:KUJ21"/>
+    <mergeCell ref="KUK21:KUP21"/>
+    <mergeCell ref="KUQ21:KUV21"/>
+    <mergeCell ref="KSO21:KST21"/>
+    <mergeCell ref="KSU21:KSZ21"/>
+    <mergeCell ref="KTA21:KTF21"/>
+    <mergeCell ref="KTG21:KTL21"/>
+    <mergeCell ref="KTM21:KTR21"/>
+    <mergeCell ref="LAQ21:LAV21"/>
+    <mergeCell ref="LAW21:LBB21"/>
+    <mergeCell ref="LBC21:LBH21"/>
+    <mergeCell ref="LBI21:LBN21"/>
+    <mergeCell ref="LBO21:LBT21"/>
+    <mergeCell ref="KZM21:KZR21"/>
+    <mergeCell ref="KZS21:KZX21"/>
+    <mergeCell ref="KZY21:LAD21"/>
+    <mergeCell ref="LAE21:LAJ21"/>
+    <mergeCell ref="LAK21:LAP21"/>
+    <mergeCell ref="KYI21:KYN21"/>
+    <mergeCell ref="KYO21:KYT21"/>
+    <mergeCell ref="KYU21:KYZ21"/>
+    <mergeCell ref="KZA21:KZF21"/>
+    <mergeCell ref="KZG21:KZL21"/>
+    <mergeCell ref="KXE21:KXJ21"/>
+    <mergeCell ref="KXK21:KXP21"/>
+    <mergeCell ref="KXQ21:KXV21"/>
+    <mergeCell ref="KXW21:KYB21"/>
+    <mergeCell ref="KYC21:KYH21"/>
+    <mergeCell ref="LFG21:LFL21"/>
+    <mergeCell ref="LFM21:LFR21"/>
+    <mergeCell ref="LFS21:LFX21"/>
+    <mergeCell ref="LFY21:LGD21"/>
+    <mergeCell ref="LGE21:LGJ21"/>
+    <mergeCell ref="LEC21:LEH21"/>
+    <mergeCell ref="LEI21:LEN21"/>
+    <mergeCell ref="LEO21:LET21"/>
+    <mergeCell ref="LEU21:LEZ21"/>
+    <mergeCell ref="LFA21:LFF21"/>
+    <mergeCell ref="LCY21:LDD21"/>
+    <mergeCell ref="LDE21:LDJ21"/>
+    <mergeCell ref="LDK21:LDP21"/>
+    <mergeCell ref="LDQ21:LDV21"/>
+    <mergeCell ref="LDW21:LEB21"/>
+    <mergeCell ref="LBU21:LBZ21"/>
+    <mergeCell ref="LCA21:LCF21"/>
+    <mergeCell ref="LCG21:LCL21"/>
+    <mergeCell ref="LCM21:LCR21"/>
+    <mergeCell ref="LCS21:LCX21"/>
+    <mergeCell ref="LJW21:LKB21"/>
+    <mergeCell ref="LKC21:LKH21"/>
+    <mergeCell ref="LKI21:LKN21"/>
+    <mergeCell ref="LKO21:LKT21"/>
+    <mergeCell ref="LKU21:LKZ21"/>
+    <mergeCell ref="LIS21:LIX21"/>
+    <mergeCell ref="LIY21:LJD21"/>
+    <mergeCell ref="LJE21:LJJ21"/>
+    <mergeCell ref="LJK21:LJP21"/>
+    <mergeCell ref="LJQ21:LJV21"/>
+    <mergeCell ref="LHO21:LHT21"/>
+    <mergeCell ref="LHU21:LHZ21"/>
+    <mergeCell ref="LIA21:LIF21"/>
+    <mergeCell ref="LIG21:LIL21"/>
+    <mergeCell ref="LIM21:LIR21"/>
+    <mergeCell ref="LGK21:LGP21"/>
+    <mergeCell ref="LGQ21:LGV21"/>
+    <mergeCell ref="LGW21:LHB21"/>
+    <mergeCell ref="LHC21:LHH21"/>
+    <mergeCell ref="LHI21:LHN21"/>
+    <mergeCell ref="LOM21:LOR21"/>
+    <mergeCell ref="LOS21:LOX21"/>
+    <mergeCell ref="LOY21:LPD21"/>
+    <mergeCell ref="LPE21:LPJ21"/>
+    <mergeCell ref="LPK21:LPP21"/>
+    <mergeCell ref="LNI21:LNN21"/>
+    <mergeCell ref="LNO21:LNT21"/>
+    <mergeCell ref="LNU21:LNZ21"/>
+    <mergeCell ref="LOA21:LOF21"/>
+    <mergeCell ref="LOG21:LOL21"/>
+    <mergeCell ref="LME21:LMJ21"/>
+    <mergeCell ref="LMK21:LMP21"/>
+    <mergeCell ref="LMQ21:LMV21"/>
+    <mergeCell ref="LMW21:LNB21"/>
+    <mergeCell ref="LNC21:LNH21"/>
+    <mergeCell ref="LLA21:LLF21"/>
+    <mergeCell ref="LLG21:LLL21"/>
+    <mergeCell ref="LLM21:LLR21"/>
+    <mergeCell ref="LLS21:LLX21"/>
+    <mergeCell ref="LLY21:LMD21"/>
+    <mergeCell ref="LTC21:LTH21"/>
+    <mergeCell ref="LTI21:LTN21"/>
+    <mergeCell ref="LTO21:LTT21"/>
+    <mergeCell ref="LTU21:LTZ21"/>
+    <mergeCell ref="LUA21:LUF21"/>
+    <mergeCell ref="LRY21:LSD21"/>
+    <mergeCell ref="LSE21:LSJ21"/>
+    <mergeCell ref="LSK21:LSP21"/>
+    <mergeCell ref="LSQ21:LSV21"/>
+    <mergeCell ref="LSW21:LTB21"/>
+    <mergeCell ref="LQU21:LQZ21"/>
+    <mergeCell ref="LRA21:LRF21"/>
+    <mergeCell ref="LRG21:LRL21"/>
+    <mergeCell ref="LRM21:LRR21"/>
+    <mergeCell ref="LRS21:LRX21"/>
+    <mergeCell ref="LPQ21:LPV21"/>
+    <mergeCell ref="LPW21:LQB21"/>
+    <mergeCell ref="LQC21:LQH21"/>
+    <mergeCell ref="LQI21:LQN21"/>
+    <mergeCell ref="LQO21:LQT21"/>
+    <mergeCell ref="LXS21:LXX21"/>
+    <mergeCell ref="LXY21:LYD21"/>
+    <mergeCell ref="LYE21:LYJ21"/>
+    <mergeCell ref="LYK21:LYP21"/>
+    <mergeCell ref="LYQ21:LYV21"/>
+    <mergeCell ref="LWO21:LWT21"/>
+    <mergeCell ref="LWU21:LWZ21"/>
+    <mergeCell ref="LXA21:LXF21"/>
+    <mergeCell ref="LXG21:LXL21"/>
+    <mergeCell ref="LXM21:LXR21"/>
+    <mergeCell ref="LVK21:LVP21"/>
+    <mergeCell ref="LVQ21:LVV21"/>
+    <mergeCell ref="LVW21:LWB21"/>
+    <mergeCell ref="LWC21:LWH21"/>
+    <mergeCell ref="LWI21:LWN21"/>
+    <mergeCell ref="LUG21:LUL21"/>
+    <mergeCell ref="LUM21:LUR21"/>
+    <mergeCell ref="LUS21:LUX21"/>
+    <mergeCell ref="LUY21:LVD21"/>
+    <mergeCell ref="LVE21:LVJ21"/>
+    <mergeCell ref="MCI21:MCN21"/>
+    <mergeCell ref="MCO21:MCT21"/>
+    <mergeCell ref="MCU21:MCZ21"/>
+    <mergeCell ref="MDA21:MDF21"/>
+    <mergeCell ref="MDG21:MDL21"/>
+    <mergeCell ref="MBE21:MBJ21"/>
+    <mergeCell ref="MBK21:MBP21"/>
+    <mergeCell ref="MBQ21:MBV21"/>
+    <mergeCell ref="MBW21:MCB21"/>
+    <mergeCell ref="MCC21:MCH21"/>
+    <mergeCell ref="MAA21:MAF21"/>
+    <mergeCell ref="MAG21:MAL21"/>
+    <mergeCell ref="MAM21:MAR21"/>
+    <mergeCell ref="MAS21:MAX21"/>
+    <mergeCell ref="MAY21:MBD21"/>
+    <mergeCell ref="LYW21:LZB21"/>
+    <mergeCell ref="LZC21:LZH21"/>
+    <mergeCell ref="LZI21:LZN21"/>
+    <mergeCell ref="LZO21:LZT21"/>
+    <mergeCell ref="LZU21:LZZ21"/>
+    <mergeCell ref="MGY21:MHD21"/>
+    <mergeCell ref="MHE21:MHJ21"/>
+    <mergeCell ref="MHK21:MHP21"/>
+    <mergeCell ref="MHQ21:MHV21"/>
+    <mergeCell ref="MHW21:MIB21"/>
+    <mergeCell ref="MFU21:MFZ21"/>
+    <mergeCell ref="MGA21:MGF21"/>
+    <mergeCell ref="MGG21:MGL21"/>
+    <mergeCell ref="MGM21:MGR21"/>
+    <mergeCell ref="MGS21:MGX21"/>
+    <mergeCell ref="MEQ21:MEV21"/>
+    <mergeCell ref="MEW21:MFB21"/>
+    <mergeCell ref="MFC21:MFH21"/>
+    <mergeCell ref="MFI21:MFN21"/>
+    <mergeCell ref="MFO21:MFT21"/>
+    <mergeCell ref="MDM21:MDR21"/>
+    <mergeCell ref="MDS21:MDX21"/>
+    <mergeCell ref="MDY21:MED21"/>
+    <mergeCell ref="MEE21:MEJ21"/>
+    <mergeCell ref="MEK21:MEP21"/>
+    <mergeCell ref="MLO21:MLT21"/>
+    <mergeCell ref="MLU21:MLZ21"/>
+    <mergeCell ref="MMA21:MMF21"/>
+    <mergeCell ref="MMG21:MML21"/>
+    <mergeCell ref="MMM21:MMR21"/>
+    <mergeCell ref="MKK21:MKP21"/>
+    <mergeCell ref="MKQ21:MKV21"/>
+    <mergeCell ref="MKW21:MLB21"/>
+    <mergeCell ref="MLC21:MLH21"/>
+    <mergeCell ref="MLI21:MLN21"/>
+    <mergeCell ref="MJG21:MJL21"/>
+    <mergeCell ref="MJM21:MJR21"/>
+    <mergeCell ref="MJS21:MJX21"/>
+    <mergeCell ref="MJY21:MKD21"/>
+    <mergeCell ref="MKE21:MKJ21"/>
+    <mergeCell ref="MIC21:MIH21"/>
+    <mergeCell ref="MII21:MIN21"/>
+    <mergeCell ref="MIO21:MIT21"/>
+    <mergeCell ref="MIU21:MIZ21"/>
+    <mergeCell ref="MJA21:MJF21"/>
+    <mergeCell ref="MQE21:MQJ21"/>
+    <mergeCell ref="MQK21:MQP21"/>
+    <mergeCell ref="MQQ21:MQV21"/>
+    <mergeCell ref="MQW21:MRB21"/>
+    <mergeCell ref="MRC21:MRH21"/>
+    <mergeCell ref="MPA21:MPF21"/>
+    <mergeCell ref="MPG21:MPL21"/>
+    <mergeCell ref="MPM21:MPR21"/>
+    <mergeCell ref="MPS21:MPX21"/>
+    <mergeCell ref="MPY21:MQD21"/>
+    <mergeCell ref="MNW21:MOB21"/>
+    <mergeCell ref="MOC21:MOH21"/>
+    <mergeCell ref="MOI21:MON21"/>
+    <mergeCell ref="MOO21:MOT21"/>
+    <mergeCell ref="MOU21:MOZ21"/>
+    <mergeCell ref="MMS21:MMX21"/>
+    <mergeCell ref="MMY21:MND21"/>
+    <mergeCell ref="MNE21:MNJ21"/>
+    <mergeCell ref="MNK21:MNP21"/>
+    <mergeCell ref="MNQ21:MNV21"/>
+    <mergeCell ref="MUU21:MUZ21"/>
+    <mergeCell ref="MVA21:MVF21"/>
+    <mergeCell ref="MVG21:MVL21"/>
+    <mergeCell ref="MVM21:MVR21"/>
+    <mergeCell ref="MVS21:MVX21"/>
+    <mergeCell ref="MTQ21:MTV21"/>
+    <mergeCell ref="MTW21:MUB21"/>
+    <mergeCell ref="MUC21:MUH21"/>
+    <mergeCell ref="MUI21:MUN21"/>
+    <mergeCell ref="MUO21:MUT21"/>
+    <mergeCell ref="MSM21:MSR21"/>
+    <mergeCell ref="MSS21:MSX21"/>
+    <mergeCell ref="MSY21:MTD21"/>
+    <mergeCell ref="MTE21:MTJ21"/>
+    <mergeCell ref="MTK21:MTP21"/>
+    <mergeCell ref="MRI21:MRN21"/>
+    <mergeCell ref="MRO21:MRT21"/>
+    <mergeCell ref="MRU21:MRZ21"/>
+    <mergeCell ref="MSA21:MSF21"/>
+    <mergeCell ref="MSG21:MSL21"/>
+    <mergeCell ref="MZK21:MZP21"/>
+    <mergeCell ref="MZQ21:MZV21"/>
+    <mergeCell ref="MZW21:NAB21"/>
+    <mergeCell ref="NAC21:NAH21"/>
+    <mergeCell ref="NAI21:NAN21"/>
+    <mergeCell ref="MYG21:MYL21"/>
+    <mergeCell ref="MYM21:MYR21"/>
+    <mergeCell ref="MYS21:MYX21"/>
+    <mergeCell ref="MYY21:MZD21"/>
+    <mergeCell ref="MZE21:MZJ21"/>
+    <mergeCell ref="MXC21:MXH21"/>
+    <mergeCell ref="MXI21:MXN21"/>
+    <mergeCell ref="MXO21:MXT21"/>
+    <mergeCell ref="MXU21:MXZ21"/>
+    <mergeCell ref="MYA21:MYF21"/>
+    <mergeCell ref="MVY21:MWD21"/>
+    <mergeCell ref="MWE21:MWJ21"/>
+    <mergeCell ref="MWK21:MWP21"/>
+    <mergeCell ref="MWQ21:MWV21"/>
+    <mergeCell ref="MWW21:MXB21"/>
+    <mergeCell ref="NEA21:NEF21"/>
+    <mergeCell ref="NEG21:NEL21"/>
+    <mergeCell ref="NEM21:NER21"/>
+    <mergeCell ref="NES21:NEX21"/>
+    <mergeCell ref="NEY21:NFD21"/>
+    <mergeCell ref="NCW21:NDB21"/>
+    <mergeCell ref="NDC21:NDH21"/>
+    <mergeCell ref="NDI21:NDN21"/>
+    <mergeCell ref="NDO21:NDT21"/>
+    <mergeCell ref="NDU21:NDZ21"/>
+    <mergeCell ref="NBS21:NBX21"/>
+    <mergeCell ref="NBY21:NCD21"/>
+    <mergeCell ref="NCE21:NCJ21"/>
+    <mergeCell ref="NCK21:NCP21"/>
+    <mergeCell ref="NCQ21:NCV21"/>
+    <mergeCell ref="NAO21:NAT21"/>
+    <mergeCell ref="NAU21:NAZ21"/>
+    <mergeCell ref="NBA21:NBF21"/>
+    <mergeCell ref="NBG21:NBL21"/>
+    <mergeCell ref="NBM21:NBR21"/>
+    <mergeCell ref="NIQ21:NIV21"/>
+    <mergeCell ref="NIW21:NJB21"/>
+    <mergeCell ref="NJC21:NJH21"/>
+    <mergeCell ref="NJI21:NJN21"/>
+    <mergeCell ref="NJO21:NJT21"/>
+    <mergeCell ref="NHM21:NHR21"/>
+    <mergeCell ref="NHS21:NHX21"/>
+    <mergeCell ref="NHY21:NID21"/>
+    <mergeCell ref="NIE21:NIJ21"/>
+    <mergeCell ref="NIK21:NIP21"/>
+    <mergeCell ref="NGI21:NGN21"/>
+    <mergeCell ref="NGO21:NGT21"/>
+    <mergeCell ref="NGU21:NGZ21"/>
+    <mergeCell ref="NHA21:NHF21"/>
+    <mergeCell ref="NHG21:NHL21"/>
+    <mergeCell ref="NFE21:NFJ21"/>
+    <mergeCell ref="NFK21:NFP21"/>
+    <mergeCell ref="NFQ21:NFV21"/>
+    <mergeCell ref="NFW21:NGB21"/>
+    <mergeCell ref="NGC21:NGH21"/>
+    <mergeCell ref="NNG21:NNL21"/>
+    <mergeCell ref="NNM21:NNR21"/>
+    <mergeCell ref="NNS21:NNX21"/>
+    <mergeCell ref="NNY21:NOD21"/>
+    <mergeCell ref="NOE21:NOJ21"/>
+    <mergeCell ref="NMC21:NMH21"/>
+    <mergeCell ref="NMI21:NMN21"/>
+    <mergeCell ref="NMO21:NMT21"/>
+    <mergeCell ref="NMU21:NMZ21"/>
+    <mergeCell ref="NNA21:NNF21"/>
+    <mergeCell ref="NKY21:NLD21"/>
+    <mergeCell ref="NLE21:NLJ21"/>
+    <mergeCell ref="NLK21:NLP21"/>
+    <mergeCell ref="NLQ21:NLV21"/>
+    <mergeCell ref="NLW21:NMB21"/>
+    <mergeCell ref="NJU21:NJZ21"/>
+    <mergeCell ref="NKA21:NKF21"/>
+    <mergeCell ref="NKG21:NKL21"/>
+    <mergeCell ref="NKM21:NKR21"/>
+    <mergeCell ref="NKS21:NKX21"/>
+    <mergeCell ref="NRW21:NSB21"/>
+    <mergeCell ref="NSC21:NSH21"/>
+    <mergeCell ref="NSI21:NSN21"/>
+    <mergeCell ref="NSO21:NST21"/>
+    <mergeCell ref="NSU21:NSZ21"/>
+    <mergeCell ref="NQS21:NQX21"/>
+    <mergeCell ref="NQY21:NRD21"/>
+    <mergeCell ref="NRE21:NRJ21"/>
+    <mergeCell ref="NRK21:NRP21"/>
+    <mergeCell ref="NRQ21:NRV21"/>
+    <mergeCell ref="NPO21:NPT21"/>
+    <mergeCell ref="NPU21:NPZ21"/>
+    <mergeCell ref="NQA21:NQF21"/>
+    <mergeCell ref="NQG21:NQL21"/>
+    <mergeCell ref="NQM21:NQR21"/>
+    <mergeCell ref="NOK21:NOP21"/>
+    <mergeCell ref="NOQ21:NOV21"/>
+    <mergeCell ref="NOW21:NPB21"/>
+    <mergeCell ref="NPC21:NPH21"/>
+    <mergeCell ref="NPI21:NPN21"/>
+    <mergeCell ref="NWM21:NWR21"/>
+    <mergeCell ref="NWS21:NWX21"/>
+    <mergeCell ref="NWY21:NXD21"/>
+    <mergeCell ref="NXE21:NXJ21"/>
+    <mergeCell ref="NXK21:NXP21"/>
+    <mergeCell ref="NVI21:NVN21"/>
+    <mergeCell ref="NVO21:NVT21"/>
+    <mergeCell ref="NVU21:NVZ21"/>
+    <mergeCell ref="NWA21:NWF21"/>
+    <mergeCell ref="NWG21:NWL21"/>
+    <mergeCell ref="NUE21:NUJ21"/>
+    <mergeCell ref="NUK21:NUP21"/>
+    <mergeCell ref="NUQ21:NUV21"/>
+    <mergeCell ref="NUW21:NVB21"/>
+    <mergeCell ref="NVC21:NVH21"/>
+    <mergeCell ref="NTA21:NTF21"/>
+    <mergeCell ref="NTG21:NTL21"/>
+    <mergeCell ref="NTM21:NTR21"/>
+    <mergeCell ref="NTS21:NTX21"/>
+    <mergeCell ref="NTY21:NUD21"/>
+    <mergeCell ref="OBC21:OBH21"/>
+    <mergeCell ref="OBI21:OBN21"/>
+    <mergeCell ref="OBO21:OBT21"/>
+    <mergeCell ref="OBU21:OBZ21"/>
+    <mergeCell ref="OCA21:OCF21"/>
+    <mergeCell ref="NZY21:OAD21"/>
+    <mergeCell ref="OAE21:OAJ21"/>
+    <mergeCell ref="OAK21:OAP21"/>
+    <mergeCell ref="OAQ21:OAV21"/>
+    <mergeCell ref="OAW21:OBB21"/>
+    <mergeCell ref="NYU21:NYZ21"/>
+    <mergeCell ref="NZA21:NZF21"/>
+    <mergeCell ref="NZG21:NZL21"/>
+    <mergeCell ref="NZM21:NZR21"/>
+    <mergeCell ref="NZS21:NZX21"/>
+    <mergeCell ref="NXQ21:NXV21"/>
+    <mergeCell ref="NXW21:NYB21"/>
+    <mergeCell ref="NYC21:NYH21"/>
+    <mergeCell ref="NYI21:NYN21"/>
+    <mergeCell ref="NYO21:NYT21"/>
+    <mergeCell ref="OFS21:OFX21"/>
+    <mergeCell ref="OFY21:OGD21"/>
+    <mergeCell ref="OGE21:OGJ21"/>
+    <mergeCell ref="OGK21:OGP21"/>
+    <mergeCell ref="OGQ21:OGV21"/>
+    <mergeCell ref="OEO21:OET21"/>
+    <mergeCell ref="OEU21:OEZ21"/>
+    <mergeCell ref="OFA21:OFF21"/>
+    <mergeCell ref="OFG21:OFL21"/>
+    <mergeCell ref="OFM21:OFR21"/>
+    <mergeCell ref="ODK21:ODP21"/>
+    <mergeCell ref="ODQ21:ODV21"/>
+    <mergeCell ref="ODW21:OEB21"/>
+    <mergeCell ref="OEC21:OEH21"/>
+    <mergeCell ref="OEI21:OEN21"/>
+    <mergeCell ref="OCG21:OCL21"/>
+    <mergeCell ref="OCM21:OCR21"/>
+    <mergeCell ref="OCS21:OCX21"/>
+    <mergeCell ref="OCY21:ODD21"/>
+    <mergeCell ref="ODE21:ODJ21"/>
+    <mergeCell ref="OKI21:OKN21"/>
+    <mergeCell ref="OKO21:OKT21"/>
+    <mergeCell ref="OKU21:OKZ21"/>
+    <mergeCell ref="OLA21:OLF21"/>
+    <mergeCell ref="OLG21:OLL21"/>
+    <mergeCell ref="OJE21:OJJ21"/>
+    <mergeCell ref="OJK21:OJP21"/>
+    <mergeCell ref="OJQ21:OJV21"/>
+    <mergeCell ref="OJW21:OKB21"/>
+    <mergeCell ref="OKC21:OKH21"/>
+    <mergeCell ref="OIA21:OIF21"/>
+    <mergeCell ref="OIG21:OIL21"/>
+    <mergeCell ref="OIM21:OIR21"/>
+    <mergeCell ref="OIS21:OIX21"/>
+    <mergeCell ref="OIY21:OJD21"/>
+    <mergeCell ref="OGW21:OHB21"/>
+    <mergeCell ref="OHC21:OHH21"/>
+    <mergeCell ref="OHI21:OHN21"/>
+    <mergeCell ref="OHO21:OHT21"/>
+    <mergeCell ref="OHU21:OHZ21"/>
+    <mergeCell ref="OOY21:OPD21"/>
+    <mergeCell ref="OPE21:OPJ21"/>
+    <mergeCell ref="OPK21:OPP21"/>
+    <mergeCell ref="OPQ21:OPV21"/>
+    <mergeCell ref="OPW21:OQB21"/>
+    <mergeCell ref="ONU21:ONZ21"/>
+    <mergeCell ref="OOA21:OOF21"/>
+    <mergeCell ref="OOG21:OOL21"/>
+    <mergeCell ref="OOM21:OOR21"/>
+    <mergeCell ref="OOS21:OOX21"/>
+    <mergeCell ref="OMQ21:OMV21"/>
+    <mergeCell ref="OMW21:ONB21"/>
+    <mergeCell ref="ONC21:ONH21"/>
+    <mergeCell ref="ONI21:ONN21"/>
+    <mergeCell ref="ONO21:ONT21"/>
+    <mergeCell ref="OLM21:OLR21"/>
+    <mergeCell ref="OLS21:OLX21"/>
+    <mergeCell ref="OLY21:OMD21"/>
+    <mergeCell ref="OME21:OMJ21"/>
+    <mergeCell ref="OMK21:OMP21"/>
+    <mergeCell ref="OTO21:OTT21"/>
+    <mergeCell ref="OTU21:OTZ21"/>
+    <mergeCell ref="OUA21:OUF21"/>
+    <mergeCell ref="OUG21:OUL21"/>
+    <mergeCell ref="OUM21:OUR21"/>
+    <mergeCell ref="OSK21:OSP21"/>
+    <mergeCell ref="OSQ21:OSV21"/>
+    <mergeCell ref="OSW21:OTB21"/>
+    <mergeCell ref="OTC21:OTH21"/>
+    <mergeCell ref="OTI21:OTN21"/>
+    <mergeCell ref="ORG21:ORL21"/>
+    <mergeCell ref="ORM21:ORR21"/>
+    <mergeCell ref="ORS21:ORX21"/>
+    <mergeCell ref="ORY21:OSD21"/>
+    <mergeCell ref="OSE21:OSJ21"/>
+    <mergeCell ref="OQC21:OQH21"/>
+    <mergeCell ref="OQI21:OQN21"/>
+    <mergeCell ref="OQO21:OQT21"/>
+    <mergeCell ref="OQU21:OQZ21"/>
+    <mergeCell ref="ORA21:ORF21"/>
+    <mergeCell ref="OYE21:OYJ21"/>
+    <mergeCell ref="OYK21:OYP21"/>
+    <mergeCell ref="OYQ21:OYV21"/>
+    <mergeCell ref="OYW21:OZB21"/>
+    <mergeCell ref="OZC21:OZH21"/>
+    <mergeCell ref="OXA21:OXF21"/>
+    <mergeCell ref="OXG21:OXL21"/>
+    <mergeCell ref="OXM21:OXR21"/>
+    <mergeCell ref="OXS21:OXX21"/>
+    <mergeCell ref="OXY21:OYD21"/>
+    <mergeCell ref="OVW21:OWB21"/>
+    <mergeCell ref="OWC21:OWH21"/>
+    <mergeCell ref="OWI21:OWN21"/>
+    <mergeCell ref="OWO21:OWT21"/>
+    <mergeCell ref="OWU21:OWZ21"/>
+    <mergeCell ref="OUS21:OUX21"/>
+    <mergeCell ref="OUY21:OVD21"/>
+    <mergeCell ref="OVE21:OVJ21"/>
+    <mergeCell ref="OVK21:OVP21"/>
+    <mergeCell ref="OVQ21:OVV21"/>
+    <mergeCell ref="PCU21:PCZ21"/>
+    <mergeCell ref="PDA21:PDF21"/>
+    <mergeCell ref="PDG21:PDL21"/>
+    <mergeCell ref="PDM21:PDR21"/>
+    <mergeCell ref="PDS21:PDX21"/>
+    <mergeCell ref="PBQ21:PBV21"/>
+    <mergeCell ref="PBW21:PCB21"/>
+    <mergeCell ref="PCC21:PCH21"/>
+    <mergeCell ref="PCI21:PCN21"/>
+    <mergeCell ref="PCO21:PCT21"/>
+    <mergeCell ref="PAM21:PAR21"/>
+    <mergeCell ref="PAS21:PAX21"/>
+    <mergeCell ref="PAY21:PBD21"/>
+    <mergeCell ref="PBE21:PBJ21"/>
+    <mergeCell ref="PBK21:PBP21"/>
+    <mergeCell ref="OZI21:OZN21"/>
+    <mergeCell ref="OZO21:OZT21"/>
+    <mergeCell ref="OZU21:OZZ21"/>
+    <mergeCell ref="PAA21:PAF21"/>
+    <mergeCell ref="PAG21:PAL21"/>
+    <mergeCell ref="PHK21:PHP21"/>
+    <mergeCell ref="PHQ21:PHV21"/>
+    <mergeCell ref="PHW21:PIB21"/>
+    <mergeCell ref="PIC21:PIH21"/>
+    <mergeCell ref="PII21:PIN21"/>
+    <mergeCell ref="PGG21:PGL21"/>
+    <mergeCell ref="PGM21:PGR21"/>
+    <mergeCell ref="PGS21:PGX21"/>
+    <mergeCell ref="PGY21:PHD21"/>
+    <mergeCell ref="PHE21:PHJ21"/>
+    <mergeCell ref="PFC21:PFH21"/>
+    <mergeCell ref="PFI21:PFN21"/>
+    <mergeCell ref="PFO21:PFT21"/>
+    <mergeCell ref="PFU21:PFZ21"/>
+    <mergeCell ref="PGA21:PGF21"/>
+    <mergeCell ref="PDY21:PED21"/>
+    <mergeCell ref="PEE21:PEJ21"/>
+    <mergeCell ref="PEK21:PEP21"/>
+    <mergeCell ref="PEQ21:PEV21"/>
+    <mergeCell ref="PEW21:PFB21"/>
+    <mergeCell ref="PMA21:PMF21"/>
+    <mergeCell ref="PMG21:PML21"/>
+    <mergeCell ref="PMM21:PMR21"/>
+    <mergeCell ref="PMS21:PMX21"/>
+    <mergeCell ref="PMY21:PND21"/>
+    <mergeCell ref="PKW21:PLB21"/>
+    <mergeCell ref="PLC21:PLH21"/>
+    <mergeCell ref="PLI21:PLN21"/>
+    <mergeCell ref="PLO21:PLT21"/>
+    <mergeCell ref="PLU21:PLZ21"/>
+    <mergeCell ref="PJS21:PJX21"/>
+    <mergeCell ref="PJY21:PKD21"/>
+    <mergeCell ref="PKE21:PKJ21"/>
+    <mergeCell ref="PKK21:PKP21"/>
+    <mergeCell ref="PKQ21:PKV21"/>
+    <mergeCell ref="PIO21:PIT21"/>
+    <mergeCell ref="PIU21:PIZ21"/>
+    <mergeCell ref="PJA21:PJF21"/>
+    <mergeCell ref="PJG21:PJL21"/>
+    <mergeCell ref="PJM21:PJR21"/>
+    <mergeCell ref="PQQ21:PQV21"/>
+    <mergeCell ref="PQW21:PRB21"/>
+    <mergeCell ref="PRC21:PRH21"/>
+    <mergeCell ref="PRI21:PRN21"/>
+    <mergeCell ref="PRO21:PRT21"/>
+    <mergeCell ref="PPM21:PPR21"/>
+    <mergeCell ref="PPS21:PPX21"/>
+    <mergeCell ref="PPY21:PQD21"/>
+    <mergeCell ref="PQE21:PQJ21"/>
+    <mergeCell ref="PQK21:PQP21"/>
+    <mergeCell ref="POI21:PON21"/>
+    <mergeCell ref="POO21:POT21"/>
+    <mergeCell ref="POU21:POZ21"/>
+    <mergeCell ref="PPA21:PPF21"/>
+    <mergeCell ref="PPG21:PPL21"/>
+    <mergeCell ref="PNE21:PNJ21"/>
+    <mergeCell ref="PNK21:PNP21"/>
+    <mergeCell ref="PNQ21:PNV21"/>
+    <mergeCell ref="PNW21:POB21"/>
+    <mergeCell ref="POC21:POH21"/>
+    <mergeCell ref="PVG21:PVL21"/>
+    <mergeCell ref="PVM21:PVR21"/>
+    <mergeCell ref="PVS21:PVX21"/>
+    <mergeCell ref="PVY21:PWD21"/>
+    <mergeCell ref="PWE21:PWJ21"/>
+    <mergeCell ref="PUC21:PUH21"/>
+    <mergeCell ref="PUI21:PUN21"/>
+    <mergeCell ref="PUO21:PUT21"/>
+    <mergeCell ref="PUU21:PUZ21"/>
+    <mergeCell ref="PVA21:PVF21"/>
+    <mergeCell ref="PSY21:PTD21"/>
+    <mergeCell ref="PTE21:PTJ21"/>
+    <mergeCell ref="PTK21:PTP21"/>
+    <mergeCell ref="PTQ21:PTV21"/>
+    <mergeCell ref="PTW21:PUB21"/>
+    <mergeCell ref="PRU21:PRZ21"/>
+    <mergeCell ref="PSA21:PSF21"/>
+    <mergeCell ref="PSG21:PSL21"/>
+    <mergeCell ref="PSM21:PSR21"/>
+    <mergeCell ref="PSS21:PSX21"/>
+    <mergeCell ref="PZW21:QAB21"/>
+    <mergeCell ref="QAC21:QAH21"/>
+    <mergeCell ref="QAI21:QAN21"/>
+    <mergeCell ref="QAO21:QAT21"/>
+    <mergeCell ref="QAU21:QAZ21"/>
+    <mergeCell ref="PYS21:PYX21"/>
+    <mergeCell ref="PYY21:PZD21"/>
+    <mergeCell ref="PZE21:PZJ21"/>
+    <mergeCell ref="PZK21:PZP21"/>
+    <mergeCell ref="PZQ21:PZV21"/>
+    <mergeCell ref="PXO21:PXT21"/>
+    <mergeCell ref="PXU21:PXZ21"/>
+    <mergeCell ref="PYA21:PYF21"/>
+    <mergeCell ref="PYG21:PYL21"/>
+    <mergeCell ref="PYM21:PYR21"/>
+    <mergeCell ref="PWK21:PWP21"/>
+    <mergeCell ref="PWQ21:PWV21"/>
+    <mergeCell ref="PWW21:PXB21"/>
+    <mergeCell ref="PXC21:PXH21"/>
+    <mergeCell ref="PXI21:PXN21"/>
+    <mergeCell ref="QEM21:QER21"/>
+    <mergeCell ref="QES21:QEX21"/>
+    <mergeCell ref="QEY21:QFD21"/>
+    <mergeCell ref="QFE21:QFJ21"/>
+    <mergeCell ref="QFK21:QFP21"/>
+    <mergeCell ref="QDI21:QDN21"/>
+    <mergeCell ref="QDO21:QDT21"/>
+    <mergeCell ref="QDU21:QDZ21"/>
+    <mergeCell ref="QEA21:QEF21"/>
+    <mergeCell ref="QEG21:QEL21"/>
+    <mergeCell ref="QCE21:QCJ21"/>
+    <mergeCell ref="QCK21:QCP21"/>
+    <mergeCell ref="QCQ21:QCV21"/>
+    <mergeCell ref="QCW21:QDB21"/>
+    <mergeCell ref="QDC21:QDH21"/>
+    <mergeCell ref="QBA21:QBF21"/>
+    <mergeCell ref="QBG21:QBL21"/>
+    <mergeCell ref="QBM21:QBR21"/>
+    <mergeCell ref="QBS21:QBX21"/>
+    <mergeCell ref="QBY21:QCD21"/>
+    <mergeCell ref="QJC21:QJH21"/>
+    <mergeCell ref="QJI21:QJN21"/>
+    <mergeCell ref="QJO21:QJT21"/>
+    <mergeCell ref="QJU21:QJZ21"/>
+    <mergeCell ref="QKA21:QKF21"/>
+    <mergeCell ref="QHY21:QID21"/>
+    <mergeCell ref="QIE21:QIJ21"/>
+    <mergeCell ref="QIK21:QIP21"/>
+    <mergeCell ref="QIQ21:QIV21"/>
+    <mergeCell ref="QIW21:QJB21"/>
+    <mergeCell ref="QGU21:QGZ21"/>
+    <mergeCell ref="QHA21:QHF21"/>
+    <mergeCell ref="QHG21:QHL21"/>
+    <mergeCell ref="QHM21:QHR21"/>
+    <mergeCell ref="QHS21:QHX21"/>
+    <mergeCell ref="QFQ21:QFV21"/>
+    <mergeCell ref="QFW21:QGB21"/>
+    <mergeCell ref="QGC21:QGH21"/>
+    <mergeCell ref="QGI21:QGN21"/>
+    <mergeCell ref="QGO21:QGT21"/>
+    <mergeCell ref="QNS21:QNX21"/>
+    <mergeCell ref="QNY21:QOD21"/>
+    <mergeCell ref="QOE21:QOJ21"/>
+    <mergeCell ref="QOK21:QOP21"/>
+    <mergeCell ref="QOQ21:QOV21"/>
+    <mergeCell ref="QMO21:QMT21"/>
+    <mergeCell ref="QMU21:QMZ21"/>
+    <mergeCell ref="QNA21:QNF21"/>
+    <mergeCell ref="QNG21:QNL21"/>
+    <mergeCell ref="QNM21:QNR21"/>
+    <mergeCell ref="QLK21:QLP21"/>
+    <mergeCell ref="QLQ21:QLV21"/>
+    <mergeCell ref="QLW21:QMB21"/>
+    <mergeCell ref="QMC21:QMH21"/>
+    <mergeCell ref="QMI21:QMN21"/>
+    <mergeCell ref="QKG21:QKL21"/>
+    <mergeCell ref="QKM21:QKR21"/>
+    <mergeCell ref="QKS21:QKX21"/>
+    <mergeCell ref="QKY21:QLD21"/>
+    <mergeCell ref="QLE21:QLJ21"/>
+    <mergeCell ref="QSI21:QSN21"/>
+    <mergeCell ref="QSO21:QST21"/>
+    <mergeCell ref="QSU21:QSZ21"/>
+    <mergeCell ref="QTA21:QTF21"/>
+    <mergeCell ref="QTG21:QTL21"/>
+    <mergeCell ref="QRE21:QRJ21"/>
+    <mergeCell ref="QRK21:QRP21"/>
+    <mergeCell ref="QRQ21:QRV21"/>
+    <mergeCell ref="QRW21:QSB21"/>
+    <mergeCell ref="QSC21:QSH21"/>
+    <mergeCell ref="QQA21:QQF21"/>
+    <mergeCell ref="QQG21:QQL21"/>
+    <mergeCell ref="QQM21:QQR21"/>
+    <mergeCell ref="QQS21:QQX21"/>
+    <mergeCell ref="QQY21:QRD21"/>
+    <mergeCell ref="QOW21:QPB21"/>
+    <mergeCell ref="QPC21:QPH21"/>
+    <mergeCell ref="QPI21:QPN21"/>
+    <mergeCell ref="QPO21:QPT21"/>
+    <mergeCell ref="QPU21:QPZ21"/>
+    <mergeCell ref="QWY21:QXD21"/>
+    <mergeCell ref="QXE21:QXJ21"/>
+    <mergeCell ref="QXK21:QXP21"/>
+    <mergeCell ref="QXQ21:QXV21"/>
+    <mergeCell ref="QXW21:QYB21"/>
+    <mergeCell ref="QVU21:QVZ21"/>
+    <mergeCell ref="QWA21:QWF21"/>
+    <mergeCell ref="QWG21:QWL21"/>
+    <mergeCell ref="QWM21:QWR21"/>
+    <mergeCell ref="QWS21:QWX21"/>
+    <mergeCell ref="QUQ21:QUV21"/>
+    <mergeCell ref="QUW21:QVB21"/>
+    <mergeCell ref="QVC21:QVH21"/>
+    <mergeCell ref="QVI21:QVN21"/>
+    <mergeCell ref="QVO21:QVT21"/>
+    <mergeCell ref="QTM21:QTR21"/>
+    <mergeCell ref="QTS21:QTX21"/>
+    <mergeCell ref="QTY21:QUD21"/>
+    <mergeCell ref="QUE21:QUJ21"/>
+    <mergeCell ref="QUK21:QUP21"/>
+    <mergeCell ref="RBO21:RBT21"/>
+    <mergeCell ref="RBU21:RBZ21"/>
+    <mergeCell ref="RCA21:RCF21"/>
+    <mergeCell ref="RCG21:RCL21"/>
+    <mergeCell ref="RCM21:RCR21"/>
+    <mergeCell ref="RAK21:RAP21"/>
+    <mergeCell ref="RAQ21:RAV21"/>
+    <mergeCell ref="RAW21:RBB21"/>
+    <mergeCell ref="RBC21:RBH21"/>
+    <mergeCell ref="RBI21:RBN21"/>
+    <mergeCell ref="QZG21:QZL21"/>
+    <mergeCell ref="QZM21:QZR21"/>
+    <mergeCell ref="QZS21:QZX21"/>
+    <mergeCell ref="QZY21:RAD21"/>
+    <mergeCell ref="RAE21:RAJ21"/>
+    <mergeCell ref="QYC21:QYH21"/>
+    <mergeCell ref="QYI21:QYN21"/>
+    <mergeCell ref="QYO21:QYT21"/>
+    <mergeCell ref="QYU21:QYZ21"/>
+    <mergeCell ref="QZA21:QZF21"/>
+    <mergeCell ref="RGE21:RGJ21"/>
+    <mergeCell ref="RGK21:RGP21"/>
+    <mergeCell ref="RGQ21:RGV21"/>
+    <mergeCell ref="RGW21:RHB21"/>
+    <mergeCell ref="RHC21:RHH21"/>
+    <mergeCell ref="RFA21:RFF21"/>
+    <mergeCell ref="RFG21:RFL21"/>
+    <mergeCell ref="RFM21:RFR21"/>
+    <mergeCell ref="RFS21:RFX21"/>
+    <mergeCell ref="RFY21:RGD21"/>
+    <mergeCell ref="RDW21:REB21"/>
+    <mergeCell ref="REC21:REH21"/>
+    <mergeCell ref="REI21:REN21"/>
+    <mergeCell ref="REO21:RET21"/>
+    <mergeCell ref="REU21:REZ21"/>
+    <mergeCell ref="RCS21:RCX21"/>
+    <mergeCell ref="RCY21:RDD21"/>
+    <mergeCell ref="RDE21:RDJ21"/>
+    <mergeCell ref="RDK21:RDP21"/>
+    <mergeCell ref="RDQ21:RDV21"/>
+    <mergeCell ref="RKU21:RKZ21"/>
+    <mergeCell ref="RLA21:RLF21"/>
+    <mergeCell ref="RLG21:RLL21"/>
+    <mergeCell ref="RLM21:RLR21"/>
+    <mergeCell ref="RLS21:RLX21"/>
+    <mergeCell ref="RJQ21:RJV21"/>
+    <mergeCell ref="RJW21:RKB21"/>
+    <mergeCell ref="RKC21:RKH21"/>
+    <mergeCell ref="RKI21:RKN21"/>
+    <mergeCell ref="RKO21:RKT21"/>
+    <mergeCell ref="RIM21:RIR21"/>
+    <mergeCell ref="RIS21:RIX21"/>
+    <mergeCell ref="RIY21:RJD21"/>
+    <mergeCell ref="RJE21:RJJ21"/>
+    <mergeCell ref="RJK21:RJP21"/>
+    <mergeCell ref="RHI21:RHN21"/>
+    <mergeCell ref="RHO21:RHT21"/>
+    <mergeCell ref="RHU21:RHZ21"/>
+    <mergeCell ref="RIA21:RIF21"/>
+    <mergeCell ref="RIG21:RIL21"/>
+    <mergeCell ref="RPK21:RPP21"/>
+    <mergeCell ref="RPQ21:RPV21"/>
+    <mergeCell ref="RPW21:RQB21"/>
+    <mergeCell ref="RQC21:RQH21"/>
+    <mergeCell ref="RQI21:RQN21"/>
+    <mergeCell ref="ROG21:ROL21"/>
+    <mergeCell ref="ROM21:ROR21"/>
+    <mergeCell ref="ROS21:ROX21"/>
+    <mergeCell ref="ROY21:RPD21"/>
+    <mergeCell ref="RPE21:RPJ21"/>
+    <mergeCell ref="RNC21:RNH21"/>
+    <mergeCell ref="RNI21:RNN21"/>
+    <mergeCell ref="RNO21:RNT21"/>
+    <mergeCell ref="RNU21:RNZ21"/>
+    <mergeCell ref="ROA21:ROF21"/>
+    <mergeCell ref="RLY21:RMD21"/>
+    <mergeCell ref="RME21:RMJ21"/>
+    <mergeCell ref="RMK21:RMP21"/>
+    <mergeCell ref="RMQ21:RMV21"/>
+    <mergeCell ref="RMW21:RNB21"/>
+    <mergeCell ref="RUA21:RUF21"/>
+    <mergeCell ref="RUG21:RUL21"/>
+    <mergeCell ref="RUM21:RUR21"/>
+    <mergeCell ref="RUS21:RUX21"/>
+    <mergeCell ref="RUY21:RVD21"/>
+    <mergeCell ref="RSW21:RTB21"/>
+    <mergeCell ref="RTC21:RTH21"/>
+    <mergeCell ref="RTI21:RTN21"/>
+    <mergeCell ref="RTO21:RTT21"/>
+    <mergeCell ref="RTU21:RTZ21"/>
+    <mergeCell ref="RRS21:RRX21"/>
+    <mergeCell ref="RRY21:RSD21"/>
+    <mergeCell ref="RSE21:RSJ21"/>
+    <mergeCell ref="RSK21:RSP21"/>
+    <mergeCell ref="RSQ21:RSV21"/>
+    <mergeCell ref="RQO21:RQT21"/>
+    <mergeCell ref="RQU21:RQZ21"/>
+    <mergeCell ref="RRA21:RRF21"/>
+    <mergeCell ref="RRG21:RRL21"/>
+    <mergeCell ref="RRM21:RRR21"/>
+    <mergeCell ref="RYQ21:RYV21"/>
+    <mergeCell ref="RYW21:RZB21"/>
+    <mergeCell ref="RZC21:RZH21"/>
+    <mergeCell ref="RZI21:RZN21"/>
+    <mergeCell ref="RZO21:RZT21"/>
+    <mergeCell ref="RXM21:RXR21"/>
+    <mergeCell ref="RXS21:RXX21"/>
+    <mergeCell ref="RXY21:RYD21"/>
+    <mergeCell ref="RYE21:RYJ21"/>
+    <mergeCell ref="RYK21:RYP21"/>
+    <mergeCell ref="RWI21:RWN21"/>
+    <mergeCell ref="RWO21:RWT21"/>
+    <mergeCell ref="RWU21:RWZ21"/>
+    <mergeCell ref="RXA21:RXF21"/>
+    <mergeCell ref="RXG21:RXL21"/>
+    <mergeCell ref="RVE21:RVJ21"/>
+    <mergeCell ref="RVK21:RVP21"/>
+    <mergeCell ref="RVQ21:RVV21"/>
+    <mergeCell ref="RVW21:RWB21"/>
+    <mergeCell ref="RWC21:RWH21"/>
+    <mergeCell ref="SDG21:SDL21"/>
+    <mergeCell ref="SDM21:SDR21"/>
+    <mergeCell ref="SDS21:SDX21"/>
+    <mergeCell ref="SDY21:SED21"/>
+    <mergeCell ref="SEE21:SEJ21"/>
+    <mergeCell ref="SCC21:SCH21"/>
+    <mergeCell ref="SCI21:SCN21"/>
+    <mergeCell ref="SCO21:SCT21"/>
+    <mergeCell ref="SCU21:SCZ21"/>
+    <mergeCell ref="SDA21:SDF21"/>
+    <mergeCell ref="SAY21:SBD21"/>
+    <mergeCell ref="SBE21:SBJ21"/>
+    <mergeCell ref="SBK21:SBP21"/>
+    <mergeCell ref="SBQ21:SBV21"/>
+    <mergeCell ref="SBW21:SCB21"/>
+    <mergeCell ref="RZU21:RZZ21"/>
+    <mergeCell ref="SAA21:SAF21"/>
+    <mergeCell ref="SAG21:SAL21"/>
+    <mergeCell ref="SAM21:SAR21"/>
+    <mergeCell ref="SAS21:SAX21"/>
+    <mergeCell ref="SHW21:SIB21"/>
+    <mergeCell ref="SIC21:SIH21"/>
+    <mergeCell ref="SII21:SIN21"/>
+    <mergeCell ref="SIO21:SIT21"/>
+    <mergeCell ref="SIU21:SIZ21"/>
+    <mergeCell ref="SGS21:SGX21"/>
+    <mergeCell ref="SGY21:SHD21"/>
+    <mergeCell ref="SHE21:SHJ21"/>
+    <mergeCell ref="SHK21:SHP21"/>
+    <mergeCell ref="SHQ21:SHV21"/>
+    <mergeCell ref="SFO21:SFT21"/>
+    <mergeCell ref="SFU21:SFZ21"/>
+    <mergeCell ref="SGA21:SGF21"/>
+    <mergeCell ref="SGG21:SGL21"/>
+    <mergeCell ref="SGM21:SGR21"/>
+    <mergeCell ref="SEK21:SEP21"/>
+    <mergeCell ref="SEQ21:SEV21"/>
+    <mergeCell ref="SEW21:SFB21"/>
+    <mergeCell ref="SFC21:SFH21"/>
+    <mergeCell ref="SFI21:SFN21"/>
+    <mergeCell ref="SMM21:SMR21"/>
+    <mergeCell ref="SMS21:SMX21"/>
+    <mergeCell ref="SMY21:SND21"/>
+    <mergeCell ref="SNE21:SNJ21"/>
+    <mergeCell ref="SNK21:SNP21"/>
+    <mergeCell ref="SLI21:SLN21"/>
+    <mergeCell ref="SLO21:SLT21"/>
+    <mergeCell ref="SLU21:SLZ21"/>
+    <mergeCell ref="SMA21:SMF21"/>
+    <mergeCell ref="SMG21:SML21"/>
+    <mergeCell ref="SKE21:SKJ21"/>
+    <mergeCell ref="SKK21:SKP21"/>
+    <mergeCell ref="SKQ21:SKV21"/>
+    <mergeCell ref="SKW21:SLB21"/>
+    <mergeCell ref="SLC21:SLH21"/>
+    <mergeCell ref="SJA21:SJF21"/>
+    <mergeCell ref="SJG21:SJL21"/>
+    <mergeCell ref="SJM21:SJR21"/>
+    <mergeCell ref="SJS21:SJX21"/>
+    <mergeCell ref="SJY21:SKD21"/>
+    <mergeCell ref="SRC21:SRH21"/>
+    <mergeCell ref="SRI21:SRN21"/>
+    <mergeCell ref="SRO21:SRT21"/>
+    <mergeCell ref="SRU21:SRZ21"/>
+    <mergeCell ref="SSA21:SSF21"/>
+    <mergeCell ref="SPY21:SQD21"/>
+    <mergeCell ref="SQE21:SQJ21"/>
+    <mergeCell ref="SQK21:SQP21"/>
+    <mergeCell ref="SQQ21:SQV21"/>
+    <mergeCell ref="SQW21:SRB21"/>
+    <mergeCell ref="SOU21:SOZ21"/>
+    <mergeCell ref="SPA21:SPF21"/>
+    <mergeCell ref="SPG21:SPL21"/>
+    <mergeCell ref="SPM21:SPR21"/>
+    <mergeCell ref="SPS21:SPX21"/>
+    <mergeCell ref="SNQ21:SNV21"/>
+    <mergeCell ref="SNW21:SOB21"/>
+    <mergeCell ref="SOC21:SOH21"/>
+    <mergeCell ref="SOI21:SON21"/>
+    <mergeCell ref="SOO21:SOT21"/>
+    <mergeCell ref="SVS21:SVX21"/>
+    <mergeCell ref="SVY21:SWD21"/>
+    <mergeCell ref="SWE21:SWJ21"/>
+    <mergeCell ref="SWK21:SWP21"/>
+    <mergeCell ref="SWQ21:SWV21"/>
+    <mergeCell ref="SUO21:SUT21"/>
+    <mergeCell ref="SUU21:SUZ21"/>
+    <mergeCell ref="SVA21:SVF21"/>
+    <mergeCell ref="SVG21:SVL21"/>
+    <mergeCell ref="SVM21:SVR21"/>
+    <mergeCell ref="STK21:STP21"/>
+    <mergeCell ref="STQ21:STV21"/>
+    <mergeCell ref="STW21:SUB21"/>
+    <mergeCell ref="SUC21:SUH21"/>
+    <mergeCell ref="SUI21:SUN21"/>
+    <mergeCell ref="SSG21:SSL21"/>
+    <mergeCell ref="SSM21:SSR21"/>
+    <mergeCell ref="SSS21:SSX21"/>
+    <mergeCell ref="SSY21:STD21"/>
+    <mergeCell ref="STE21:STJ21"/>
+    <mergeCell ref="TAI21:TAN21"/>
+    <mergeCell ref="TAO21:TAT21"/>
+    <mergeCell ref="TAU21:TAZ21"/>
+    <mergeCell ref="TBA21:TBF21"/>
+    <mergeCell ref="TBG21:TBL21"/>
+    <mergeCell ref="SZE21:SZJ21"/>
+    <mergeCell ref="SZK21:SZP21"/>
+    <mergeCell ref="SZQ21:SZV21"/>
+    <mergeCell ref="SZW21:TAB21"/>
+    <mergeCell ref="TAC21:TAH21"/>
+    <mergeCell ref="SYA21:SYF21"/>
+    <mergeCell ref="SYG21:SYL21"/>
+    <mergeCell ref="SYM21:SYR21"/>
+    <mergeCell ref="SYS21:SYX21"/>
+    <mergeCell ref="SYY21:SZD21"/>
+    <mergeCell ref="SWW21:SXB21"/>
+    <mergeCell ref="SXC21:SXH21"/>
+    <mergeCell ref="SXI21:SXN21"/>
+    <mergeCell ref="SXO21:SXT21"/>
+    <mergeCell ref="SXU21:SXZ21"/>
+    <mergeCell ref="TEY21:TFD21"/>
+    <mergeCell ref="TFE21:TFJ21"/>
+    <mergeCell ref="TFK21:TFP21"/>
+    <mergeCell ref="TFQ21:TFV21"/>
+    <mergeCell ref="TFW21:TGB21"/>
+    <mergeCell ref="TDU21:TDZ21"/>
+    <mergeCell ref="TEA21:TEF21"/>
+    <mergeCell ref="TEG21:TEL21"/>
+    <mergeCell ref="TEM21:TER21"/>
+    <mergeCell ref="TES21:TEX21"/>
+    <mergeCell ref="TCQ21:TCV21"/>
+    <mergeCell ref="TCW21:TDB21"/>
+    <mergeCell ref="TDC21:TDH21"/>
+    <mergeCell ref="TDI21:TDN21"/>
+    <mergeCell ref="TDO21:TDT21"/>
+    <mergeCell ref="TBM21:TBR21"/>
+    <mergeCell ref="TBS21:TBX21"/>
+    <mergeCell ref="TBY21:TCD21"/>
+    <mergeCell ref="TCE21:TCJ21"/>
+    <mergeCell ref="TCK21:TCP21"/>
+    <mergeCell ref="TJO21:TJT21"/>
+    <mergeCell ref="TJU21:TJZ21"/>
+    <mergeCell ref="TKA21:TKF21"/>
+    <mergeCell ref="TKG21:TKL21"/>
+    <mergeCell ref="TKM21:TKR21"/>
+    <mergeCell ref="TIK21:TIP21"/>
+    <mergeCell ref="TIQ21:TIV21"/>
+    <mergeCell ref="TIW21:TJB21"/>
+    <mergeCell ref="TJC21:TJH21"/>
+    <mergeCell ref="TJI21:TJN21"/>
+    <mergeCell ref="THG21:THL21"/>
+    <mergeCell ref="THM21:THR21"/>
+    <mergeCell ref="THS21:THX21"/>
+    <mergeCell ref="THY21:TID21"/>
+    <mergeCell ref="TIE21:TIJ21"/>
+    <mergeCell ref="TGC21:TGH21"/>
+    <mergeCell ref="TGI21:TGN21"/>
+    <mergeCell ref="TGO21:TGT21"/>
+    <mergeCell ref="TGU21:TGZ21"/>
+    <mergeCell ref="THA21:THF21"/>
+    <mergeCell ref="TOE21:TOJ21"/>
+    <mergeCell ref="TOK21:TOP21"/>
+    <mergeCell ref="TOQ21:TOV21"/>
+    <mergeCell ref="TOW21:TPB21"/>
+    <mergeCell ref="TPC21:TPH21"/>
+    <mergeCell ref="TNA21:TNF21"/>
+    <mergeCell ref="TNG21:TNL21"/>
+    <mergeCell ref="TNM21:TNR21"/>
+    <mergeCell ref="TNS21:TNX21"/>
+    <mergeCell ref="TNY21:TOD21"/>
+    <mergeCell ref="TLW21:TMB21"/>
+    <mergeCell ref="TMC21:TMH21"/>
+    <mergeCell ref="TMI21:TMN21"/>
+    <mergeCell ref="TMO21:TMT21"/>
+    <mergeCell ref="TMU21:TMZ21"/>
+    <mergeCell ref="TKS21:TKX21"/>
+    <mergeCell ref="TKY21:TLD21"/>
+    <mergeCell ref="TLE21:TLJ21"/>
+    <mergeCell ref="TLK21:TLP21"/>
+    <mergeCell ref="TLQ21:TLV21"/>
+    <mergeCell ref="TSU21:TSZ21"/>
+    <mergeCell ref="TTA21:TTF21"/>
+    <mergeCell ref="TTG21:TTL21"/>
+    <mergeCell ref="TTM21:TTR21"/>
+    <mergeCell ref="TTS21:TTX21"/>
+    <mergeCell ref="TRQ21:TRV21"/>
+    <mergeCell ref="TRW21:TSB21"/>
+    <mergeCell ref="TSC21:TSH21"/>
+    <mergeCell ref="TSI21:TSN21"/>
+    <mergeCell ref="TSO21:TST21"/>
+    <mergeCell ref="TQM21:TQR21"/>
+    <mergeCell ref="TQS21:TQX21"/>
+    <mergeCell ref="TQY21:TRD21"/>
+    <mergeCell ref="TRE21:TRJ21"/>
+    <mergeCell ref="TRK21:TRP21"/>
+    <mergeCell ref="TPI21:TPN21"/>
+    <mergeCell ref="TPO21:TPT21"/>
+    <mergeCell ref="TPU21:TPZ21"/>
+    <mergeCell ref="TQA21:TQF21"/>
+    <mergeCell ref="TQG21:TQL21"/>
+    <mergeCell ref="TXK21:TXP21"/>
+    <mergeCell ref="TXQ21:TXV21"/>
+    <mergeCell ref="TXW21:TYB21"/>
+    <mergeCell ref="TYC21:TYH21"/>
+    <mergeCell ref="TYI21:TYN21"/>
+    <mergeCell ref="TWG21:TWL21"/>
+    <mergeCell ref="TWM21:TWR21"/>
+    <mergeCell ref="TWS21:TWX21"/>
+    <mergeCell ref="TWY21:TXD21"/>
+    <mergeCell ref="TXE21:TXJ21"/>
+    <mergeCell ref="TVC21:TVH21"/>
+    <mergeCell ref="TVI21:TVN21"/>
+    <mergeCell ref="TVO21:TVT21"/>
+    <mergeCell ref="TVU21:TVZ21"/>
+    <mergeCell ref="TWA21:TWF21"/>
+    <mergeCell ref="TTY21:TUD21"/>
+    <mergeCell ref="TUE21:TUJ21"/>
+    <mergeCell ref="TUK21:TUP21"/>
+    <mergeCell ref="TUQ21:TUV21"/>
+    <mergeCell ref="TUW21:TVB21"/>
+    <mergeCell ref="UCA21:UCF21"/>
+    <mergeCell ref="UCG21:UCL21"/>
+    <mergeCell ref="UCM21:UCR21"/>
+    <mergeCell ref="UCS21:UCX21"/>
+    <mergeCell ref="UCY21:UDD21"/>
+    <mergeCell ref="UAW21:UBB21"/>
+    <mergeCell ref="UBC21:UBH21"/>
+    <mergeCell ref="UBI21:UBN21"/>
+    <mergeCell ref="UBO21:UBT21"/>
+    <mergeCell ref="UBU21:UBZ21"/>
+    <mergeCell ref="TZS21:TZX21"/>
+    <mergeCell ref="TZY21:UAD21"/>
+    <mergeCell ref="UAE21:UAJ21"/>
+    <mergeCell ref="UAK21:UAP21"/>
+    <mergeCell ref="UAQ21:UAV21"/>
+    <mergeCell ref="TYO21:TYT21"/>
+    <mergeCell ref="TYU21:TYZ21"/>
+    <mergeCell ref="TZA21:TZF21"/>
+    <mergeCell ref="TZG21:TZL21"/>
+    <mergeCell ref="TZM21:TZR21"/>
+    <mergeCell ref="UGQ21:UGV21"/>
+    <mergeCell ref="UGW21:UHB21"/>
+    <mergeCell ref="UHC21:UHH21"/>
+    <mergeCell ref="UHI21:UHN21"/>
+    <mergeCell ref="UHO21:UHT21"/>
+    <mergeCell ref="UFM21:UFR21"/>
+    <mergeCell ref="UFS21:UFX21"/>
+    <mergeCell ref="UFY21:UGD21"/>
+    <mergeCell ref="UGE21:UGJ21"/>
+    <mergeCell ref="UGK21:UGP21"/>
+    <mergeCell ref="UEI21:UEN21"/>
+    <mergeCell ref="UEO21:UET21"/>
+    <mergeCell ref="UEU21:UEZ21"/>
+    <mergeCell ref="UFA21:UFF21"/>
+    <mergeCell ref="UFG21:UFL21"/>
+    <mergeCell ref="UDE21:UDJ21"/>
+    <mergeCell ref="UDK21:UDP21"/>
+    <mergeCell ref="UDQ21:UDV21"/>
+    <mergeCell ref="UDW21:UEB21"/>
+    <mergeCell ref="UEC21:UEH21"/>
+    <mergeCell ref="ULG21:ULL21"/>
+    <mergeCell ref="ULM21:ULR21"/>
+    <mergeCell ref="ULS21:ULX21"/>
+    <mergeCell ref="ULY21:UMD21"/>
+    <mergeCell ref="UME21:UMJ21"/>
+    <mergeCell ref="UKC21:UKH21"/>
+    <mergeCell ref="UKI21:UKN21"/>
+    <mergeCell ref="UKO21:UKT21"/>
+    <mergeCell ref="UKU21:UKZ21"/>
+    <mergeCell ref="ULA21:ULF21"/>
+    <mergeCell ref="UIY21:UJD21"/>
+    <mergeCell ref="UJE21:UJJ21"/>
+    <mergeCell ref="UJK21:UJP21"/>
+    <mergeCell ref="UJQ21:UJV21"/>
+    <mergeCell ref="UJW21:UKB21"/>
+    <mergeCell ref="UHU21:UHZ21"/>
+    <mergeCell ref="UIA21:UIF21"/>
+    <mergeCell ref="UIG21:UIL21"/>
+    <mergeCell ref="UIM21:UIR21"/>
+    <mergeCell ref="UIS21:UIX21"/>
+    <mergeCell ref="UPW21:UQB21"/>
+    <mergeCell ref="UQC21:UQH21"/>
+    <mergeCell ref="UQI21:UQN21"/>
+    <mergeCell ref="UQO21:UQT21"/>
+    <mergeCell ref="UQU21:UQZ21"/>
+    <mergeCell ref="UOS21:UOX21"/>
+    <mergeCell ref="UOY21:UPD21"/>
+    <mergeCell ref="UPE21:UPJ21"/>
+    <mergeCell ref="UPK21:UPP21"/>
+    <mergeCell ref="UPQ21:UPV21"/>
+    <mergeCell ref="UNO21:UNT21"/>
+    <mergeCell ref="UNU21:UNZ21"/>
+    <mergeCell ref="UOA21:UOF21"/>
+    <mergeCell ref="UOG21:UOL21"/>
+    <mergeCell ref="UOM21:UOR21"/>
+    <mergeCell ref="UMK21:UMP21"/>
+    <mergeCell ref="UMQ21:UMV21"/>
+    <mergeCell ref="UMW21:UNB21"/>
+    <mergeCell ref="UNC21:UNH21"/>
+    <mergeCell ref="UNI21:UNN21"/>
+    <mergeCell ref="UUM21:UUR21"/>
+    <mergeCell ref="UUS21:UUX21"/>
+    <mergeCell ref="UUY21:UVD21"/>
+    <mergeCell ref="UVE21:UVJ21"/>
+    <mergeCell ref="UVK21:UVP21"/>
+    <mergeCell ref="UTI21:UTN21"/>
+    <mergeCell ref="UTO21:UTT21"/>
+    <mergeCell ref="UTU21:UTZ21"/>
+    <mergeCell ref="UUA21:UUF21"/>
+    <mergeCell ref="UUG21:UUL21"/>
+    <mergeCell ref="USE21:USJ21"/>
+    <mergeCell ref="USK21:USP21"/>
+    <mergeCell ref="USQ21:USV21"/>
+    <mergeCell ref="USW21:UTB21"/>
+    <mergeCell ref="UTC21:UTH21"/>
+    <mergeCell ref="URA21:URF21"/>
+    <mergeCell ref="URG21:URL21"/>
+    <mergeCell ref="URM21:URR21"/>
+    <mergeCell ref="URS21:URX21"/>
+    <mergeCell ref="URY21:USD21"/>
+    <mergeCell ref="UZC21:UZH21"/>
+    <mergeCell ref="UZI21:UZN21"/>
+    <mergeCell ref="UZO21:UZT21"/>
+    <mergeCell ref="UZU21:UZZ21"/>
+    <mergeCell ref="VAA21:VAF21"/>
+    <mergeCell ref="UXY21:UYD21"/>
+    <mergeCell ref="UYE21:UYJ21"/>
+    <mergeCell ref="UYK21:UYP21"/>
+    <mergeCell ref="UYQ21:UYV21"/>
+    <mergeCell ref="UYW21:UZB21"/>
+    <mergeCell ref="UWU21:UWZ21"/>
+    <mergeCell ref="UXA21:UXF21"/>
+    <mergeCell ref="UXG21:UXL21"/>
+    <mergeCell ref="UXM21:UXR21"/>
+    <mergeCell ref="UXS21:UXX21"/>
+    <mergeCell ref="UVQ21:UVV21"/>
+    <mergeCell ref="UVW21:UWB21"/>
+    <mergeCell ref="UWC21:UWH21"/>
+    <mergeCell ref="UWI21:UWN21"/>
+    <mergeCell ref="UWO21:UWT21"/>
+    <mergeCell ref="VDS21:VDX21"/>
+    <mergeCell ref="VDY21:VED21"/>
+    <mergeCell ref="VEE21:VEJ21"/>
+    <mergeCell ref="VEK21:VEP21"/>
+    <mergeCell ref="VEQ21:VEV21"/>
+    <mergeCell ref="VCO21:VCT21"/>
+    <mergeCell ref="VCU21:VCZ21"/>
+    <mergeCell ref="VDA21:VDF21"/>
+    <mergeCell ref="VDG21:VDL21"/>
+    <mergeCell ref="VDM21:VDR21"/>
+    <mergeCell ref="VBK21:VBP21"/>
+    <mergeCell ref="VBQ21:VBV21"/>
+    <mergeCell ref="VBW21:VCB21"/>
+    <mergeCell ref="VCC21:VCH21"/>
+    <mergeCell ref="VCI21:VCN21"/>
+    <mergeCell ref="VAG21:VAL21"/>
+    <mergeCell ref="VAM21:VAR21"/>
+    <mergeCell ref="VAS21:VAX21"/>
+    <mergeCell ref="VAY21:VBD21"/>
+    <mergeCell ref="VBE21:VBJ21"/>
+    <mergeCell ref="VII21:VIN21"/>
+    <mergeCell ref="VIO21:VIT21"/>
+    <mergeCell ref="VIU21:VIZ21"/>
+    <mergeCell ref="VJA21:VJF21"/>
+    <mergeCell ref="VJG21:VJL21"/>
+    <mergeCell ref="VHE21:VHJ21"/>
+    <mergeCell ref="VHK21:VHP21"/>
+    <mergeCell ref="VHQ21:VHV21"/>
+    <mergeCell ref="VHW21:VIB21"/>
+    <mergeCell ref="VIC21:VIH21"/>
+    <mergeCell ref="VGA21:VGF21"/>
+    <mergeCell ref="VGG21:VGL21"/>
+    <mergeCell ref="VGM21:VGR21"/>
+    <mergeCell ref="VGS21:VGX21"/>
+    <mergeCell ref="VGY21:VHD21"/>
+    <mergeCell ref="VEW21:VFB21"/>
+    <mergeCell ref="VFC21:VFH21"/>
+    <mergeCell ref="VFI21:VFN21"/>
+    <mergeCell ref="VFO21:VFT21"/>
+    <mergeCell ref="VFU21:VFZ21"/>
+    <mergeCell ref="VMY21:VND21"/>
+    <mergeCell ref="VNE21:VNJ21"/>
+    <mergeCell ref="VNK21:VNP21"/>
+    <mergeCell ref="VNQ21:VNV21"/>
+    <mergeCell ref="VNW21:VOB21"/>
+    <mergeCell ref="VLU21:VLZ21"/>
+    <mergeCell ref="VMA21:VMF21"/>
+    <mergeCell ref="VMG21:VML21"/>
+    <mergeCell ref="VMM21:VMR21"/>
+    <mergeCell ref="VMS21:VMX21"/>
+    <mergeCell ref="VKQ21:VKV21"/>
+    <mergeCell ref="VKW21:VLB21"/>
+    <mergeCell ref="VLC21:VLH21"/>
+    <mergeCell ref="VLI21:VLN21"/>
+    <mergeCell ref="VLO21:VLT21"/>
+    <mergeCell ref="VJM21:VJR21"/>
+    <mergeCell ref="VJS21:VJX21"/>
+    <mergeCell ref="VJY21:VKD21"/>
+    <mergeCell ref="VKE21:VKJ21"/>
+    <mergeCell ref="VKK21:VKP21"/>
+    <mergeCell ref="VRO21:VRT21"/>
+    <mergeCell ref="VRU21:VRZ21"/>
+    <mergeCell ref="VSA21:VSF21"/>
+    <mergeCell ref="VSG21:VSL21"/>
+    <mergeCell ref="VSM21:VSR21"/>
+    <mergeCell ref="VQK21:VQP21"/>
+    <mergeCell ref="VQQ21:VQV21"/>
+    <mergeCell ref="VQW21:VRB21"/>
+    <mergeCell ref="VRC21:VRH21"/>
+    <mergeCell ref="VRI21:VRN21"/>
+    <mergeCell ref="VPG21:VPL21"/>
+    <mergeCell ref="VPM21:VPR21"/>
+    <mergeCell ref="VPS21:VPX21"/>
+    <mergeCell ref="VPY21:VQD21"/>
+    <mergeCell ref="VQE21:VQJ21"/>
+    <mergeCell ref="VOC21:VOH21"/>
+    <mergeCell ref="VOI21:VON21"/>
+    <mergeCell ref="VOO21:VOT21"/>
+    <mergeCell ref="VOU21:VOZ21"/>
+    <mergeCell ref="VPA21:VPF21"/>
+    <mergeCell ref="VWE21:VWJ21"/>
+    <mergeCell ref="VWK21:VWP21"/>
+    <mergeCell ref="VWQ21:VWV21"/>
+    <mergeCell ref="VWW21:VXB21"/>
+    <mergeCell ref="VXC21:VXH21"/>
+    <mergeCell ref="VVA21:VVF21"/>
+    <mergeCell ref="VVG21:VVL21"/>
+    <mergeCell ref="VVM21:VVR21"/>
+    <mergeCell ref="VVS21:VVX21"/>
+    <mergeCell ref="VVY21:VWD21"/>
+    <mergeCell ref="VTW21:VUB21"/>
+    <mergeCell ref="VUC21:VUH21"/>
+    <mergeCell ref="VUI21:VUN21"/>
+    <mergeCell ref="VUO21:VUT21"/>
+    <mergeCell ref="VUU21:VUZ21"/>
+    <mergeCell ref="VSS21:VSX21"/>
+    <mergeCell ref="VSY21:VTD21"/>
+    <mergeCell ref="VTE21:VTJ21"/>
+    <mergeCell ref="VTK21:VTP21"/>
+    <mergeCell ref="VTQ21:VTV21"/>
+    <mergeCell ref="WAU21:WAZ21"/>
+    <mergeCell ref="WBA21:WBF21"/>
+    <mergeCell ref="WBG21:WBL21"/>
+    <mergeCell ref="WBM21:WBR21"/>
+    <mergeCell ref="WBS21:WBX21"/>
+    <mergeCell ref="VZQ21:VZV21"/>
+    <mergeCell ref="VZW21:WAB21"/>
+    <mergeCell ref="WAC21:WAH21"/>
+    <mergeCell ref="WAI21:WAN21"/>
+    <mergeCell ref="WAO21:WAT21"/>
+    <mergeCell ref="VYM21:VYR21"/>
+    <mergeCell ref="VYS21:VYX21"/>
+    <mergeCell ref="VYY21:VZD21"/>
+    <mergeCell ref="VZE21:VZJ21"/>
+    <mergeCell ref="VZK21:VZP21"/>
+    <mergeCell ref="VXI21:VXN21"/>
+    <mergeCell ref="VXO21:VXT21"/>
+    <mergeCell ref="VXU21:VXZ21"/>
+    <mergeCell ref="VYA21:VYF21"/>
+    <mergeCell ref="VYG21:VYL21"/>
+    <mergeCell ref="WFK21:WFP21"/>
+    <mergeCell ref="WFQ21:WFV21"/>
+    <mergeCell ref="WFW21:WGB21"/>
+    <mergeCell ref="WGC21:WGH21"/>
+    <mergeCell ref="WGI21:WGN21"/>
+    <mergeCell ref="WEG21:WEL21"/>
+    <mergeCell ref="WEM21:WER21"/>
+    <mergeCell ref="WES21:WEX21"/>
+    <mergeCell ref="WEY21:WFD21"/>
+    <mergeCell ref="WFE21:WFJ21"/>
+    <mergeCell ref="WDC21:WDH21"/>
+    <mergeCell ref="WDI21:WDN21"/>
+    <mergeCell ref="WDO21:WDT21"/>
+    <mergeCell ref="WDU21:WDZ21"/>
+    <mergeCell ref="WEA21:WEF21"/>
+    <mergeCell ref="WBY21:WCD21"/>
+    <mergeCell ref="WCE21:WCJ21"/>
+    <mergeCell ref="WCK21:WCP21"/>
+    <mergeCell ref="WCQ21:WCV21"/>
+    <mergeCell ref="WCW21:WDB21"/>
+    <mergeCell ref="WKA21:WKF21"/>
+    <mergeCell ref="WKG21:WKL21"/>
+    <mergeCell ref="WKM21:WKR21"/>
+    <mergeCell ref="WKS21:WKX21"/>
+    <mergeCell ref="WKY21:WLD21"/>
+    <mergeCell ref="WIW21:WJB21"/>
+    <mergeCell ref="WJC21:WJH21"/>
+    <mergeCell ref="WJI21:WJN21"/>
+    <mergeCell ref="WJO21:WJT21"/>
+    <mergeCell ref="WJU21:WJZ21"/>
+    <mergeCell ref="WHS21:WHX21"/>
+    <mergeCell ref="WHY21:WID21"/>
+    <mergeCell ref="WIE21:WIJ21"/>
+    <mergeCell ref="WIK21:WIP21"/>
+    <mergeCell ref="WIQ21:WIV21"/>
+    <mergeCell ref="WGO21:WGT21"/>
+    <mergeCell ref="WGU21:WGZ21"/>
+    <mergeCell ref="WHA21:WHF21"/>
+    <mergeCell ref="WHG21:WHL21"/>
+    <mergeCell ref="WHM21:WHR21"/>
+    <mergeCell ref="WOQ21:WOV21"/>
+    <mergeCell ref="WOW21:WPB21"/>
+    <mergeCell ref="WPC21:WPH21"/>
+    <mergeCell ref="WPI21:WPN21"/>
+    <mergeCell ref="WPO21:WPT21"/>
+    <mergeCell ref="WNM21:WNR21"/>
+    <mergeCell ref="WNS21:WNX21"/>
+    <mergeCell ref="WNY21:WOD21"/>
+    <mergeCell ref="WOE21:WOJ21"/>
+    <mergeCell ref="WOK21:WOP21"/>
+    <mergeCell ref="WMI21:WMN21"/>
+    <mergeCell ref="WMO21:WMT21"/>
+    <mergeCell ref="WMU21:WMZ21"/>
+    <mergeCell ref="WNA21:WNF21"/>
+    <mergeCell ref="WNG21:WNL21"/>
+    <mergeCell ref="WLE21:WLJ21"/>
+    <mergeCell ref="WLK21:WLP21"/>
+    <mergeCell ref="WLQ21:WLV21"/>
+    <mergeCell ref="WLW21:WMB21"/>
+    <mergeCell ref="WMC21:WMH21"/>
+    <mergeCell ref="WTG21:WTL21"/>
+    <mergeCell ref="WTM21:WTR21"/>
+    <mergeCell ref="WTS21:WTX21"/>
+    <mergeCell ref="WTY21:WUD21"/>
+    <mergeCell ref="WUE21:WUJ21"/>
+    <mergeCell ref="WSC21:WSH21"/>
+    <mergeCell ref="WSI21:WSN21"/>
+    <mergeCell ref="WSO21:WST21"/>
+    <mergeCell ref="WSU21:WSZ21"/>
+    <mergeCell ref="WTA21:WTF21"/>
+    <mergeCell ref="WQY21:WRD21"/>
+    <mergeCell ref="WRE21:WRJ21"/>
+    <mergeCell ref="WRK21:WRP21"/>
+    <mergeCell ref="WRQ21:WRV21"/>
+    <mergeCell ref="WRW21:WSB21"/>
+    <mergeCell ref="WPU21:WPZ21"/>
+    <mergeCell ref="WQA21:WQF21"/>
+    <mergeCell ref="WQG21:WQL21"/>
+    <mergeCell ref="WQM21:WQR21"/>
+    <mergeCell ref="WQS21:WQX21"/>
+    <mergeCell ref="WYI21:WYN21"/>
+    <mergeCell ref="WYO21:WYT21"/>
+    <mergeCell ref="WYU21:WYZ21"/>
+    <mergeCell ref="WWS21:WWX21"/>
+    <mergeCell ref="WWY21:WXD21"/>
+    <mergeCell ref="WXE21:WXJ21"/>
+    <mergeCell ref="WXK21:WXP21"/>
+    <mergeCell ref="WXQ21:WXV21"/>
+    <mergeCell ref="WVO21:WVT21"/>
+    <mergeCell ref="WVU21:WVZ21"/>
+    <mergeCell ref="WWA21:WWF21"/>
+    <mergeCell ref="WWG21:WWL21"/>
+    <mergeCell ref="WWM21:WWR21"/>
+    <mergeCell ref="WUK21:WUP21"/>
+    <mergeCell ref="WUQ21:WUV21"/>
+    <mergeCell ref="WUW21:WVB21"/>
+    <mergeCell ref="WVC21:WVH21"/>
+    <mergeCell ref="WVI21:WVN21"/>
     <mergeCell ref="XEU21:XEZ21"/>
     <mergeCell ref="XFA21:XFD21"/>
     <mergeCell ref="A28:F28"/>
@@ -18138,2715 +20847,6 @@
     <mergeCell ref="WZY21:XAD21"/>
     <mergeCell ref="WXW21:WYB21"/>
     <mergeCell ref="WYC21:WYH21"/>
-    <mergeCell ref="WYI21:WYN21"/>
-    <mergeCell ref="WYO21:WYT21"/>
-    <mergeCell ref="WYU21:WYZ21"/>
-    <mergeCell ref="WWS21:WWX21"/>
-    <mergeCell ref="WWY21:WXD21"/>
-    <mergeCell ref="WXE21:WXJ21"/>
-    <mergeCell ref="WXK21:WXP21"/>
-    <mergeCell ref="WXQ21:WXV21"/>
-    <mergeCell ref="WVO21:WVT21"/>
-    <mergeCell ref="WVU21:WVZ21"/>
-    <mergeCell ref="WWA21:WWF21"/>
-    <mergeCell ref="WWG21:WWL21"/>
-    <mergeCell ref="WWM21:WWR21"/>
-    <mergeCell ref="WUK21:WUP21"/>
-    <mergeCell ref="WUQ21:WUV21"/>
-    <mergeCell ref="WUW21:WVB21"/>
-    <mergeCell ref="WVC21:WVH21"/>
-    <mergeCell ref="WVI21:WVN21"/>
-    <mergeCell ref="WTG21:WTL21"/>
-    <mergeCell ref="WTM21:WTR21"/>
-    <mergeCell ref="WTS21:WTX21"/>
-    <mergeCell ref="WTY21:WUD21"/>
-    <mergeCell ref="WUE21:WUJ21"/>
-    <mergeCell ref="WSC21:WSH21"/>
-    <mergeCell ref="WSI21:WSN21"/>
-    <mergeCell ref="WSO21:WST21"/>
-    <mergeCell ref="WSU21:WSZ21"/>
-    <mergeCell ref="WTA21:WTF21"/>
-    <mergeCell ref="WQY21:WRD21"/>
-    <mergeCell ref="WRE21:WRJ21"/>
-    <mergeCell ref="WRK21:WRP21"/>
-    <mergeCell ref="WRQ21:WRV21"/>
-    <mergeCell ref="WRW21:WSB21"/>
-    <mergeCell ref="WPU21:WPZ21"/>
-    <mergeCell ref="WQA21:WQF21"/>
-    <mergeCell ref="WQG21:WQL21"/>
-    <mergeCell ref="WQM21:WQR21"/>
-    <mergeCell ref="WQS21:WQX21"/>
-    <mergeCell ref="WOQ21:WOV21"/>
-    <mergeCell ref="WOW21:WPB21"/>
-    <mergeCell ref="WPC21:WPH21"/>
-    <mergeCell ref="WPI21:WPN21"/>
-    <mergeCell ref="WPO21:WPT21"/>
-    <mergeCell ref="WNM21:WNR21"/>
-    <mergeCell ref="WNS21:WNX21"/>
-    <mergeCell ref="WNY21:WOD21"/>
-    <mergeCell ref="WOE21:WOJ21"/>
-    <mergeCell ref="WOK21:WOP21"/>
-    <mergeCell ref="WMI21:WMN21"/>
-    <mergeCell ref="WMO21:WMT21"/>
-    <mergeCell ref="WMU21:WMZ21"/>
-    <mergeCell ref="WNA21:WNF21"/>
-    <mergeCell ref="WNG21:WNL21"/>
-    <mergeCell ref="WLE21:WLJ21"/>
-    <mergeCell ref="WLK21:WLP21"/>
-    <mergeCell ref="WLQ21:WLV21"/>
-    <mergeCell ref="WLW21:WMB21"/>
-    <mergeCell ref="WMC21:WMH21"/>
-    <mergeCell ref="WKA21:WKF21"/>
-    <mergeCell ref="WKG21:WKL21"/>
-    <mergeCell ref="WKM21:WKR21"/>
-    <mergeCell ref="WKS21:WKX21"/>
-    <mergeCell ref="WKY21:WLD21"/>
-    <mergeCell ref="WIW21:WJB21"/>
-    <mergeCell ref="WJC21:WJH21"/>
-    <mergeCell ref="WJI21:WJN21"/>
-    <mergeCell ref="WJO21:WJT21"/>
-    <mergeCell ref="WJU21:WJZ21"/>
-    <mergeCell ref="WHS21:WHX21"/>
-    <mergeCell ref="WHY21:WID21"/>
-    <mergeCell ref="WIE21:WIJ21"/>
-    <mergeCell ref="WIK21:WIP21"/>
-    <mergeCell ref="WIQ21:WIV21"/>
-    <mergeCell ref="WGO21:WGT21"/>
-    <mergeCell ref="WGU21:WGZ21"/>
-    <mergeCell ref="WHA21:WHF21"/>
-    <mergeCell ref="WHG21:WHL21"/>
-    <mergeCell ref="WHM21:WHR21"/>
-    <mergeCell ref="WFK21:WFP21"/>
-    <mergeCell ref="WFQ21:WFV21"/>
-    <mergeCell ref="WFW21:WGB21"/>
-    <mergeCell ref="WGC21:WGH21"/>
-    <mergeCell ref="WGI21:WGN21"/>
-    <mergeCell ref="WEG21:WEL21"/>
-    <mergeCell ref="WEM21:WER21"/>
-    <mergeCell ref="WES21:WEX21"/>
-    <mergeCell ref="WEY21:WFD21"/>
-    <mergeCell ref="WFE21:WFJ21"/>
-    <mergeCell ref="WDC21:WDH21"/>
-    <mergeCell ref="WDI21:WDN21"/>
-    <mergeCell ref="WDO21:WDT21"/>
-    <mergeCell ref="WDU21:WDZ21"/>
-    <mergeCell ref="WEA21:WEF21"/>
-    <mergeCell ref="WBY21:WCD21"/>
-    <mergeCell ref="WCE21:WCJ21"/>
-    <mergeCell ref="WCK21:WCP21"/>
-    <mergeCell ref="WCQ21:WCV21"/>
-    <mergeCell ref="WCW21:WDB21"/>
-    <mergeCell ref="WAU21:WAZ21"/>
-    <mergeCell ref="WBA21:WBF21"/>
-    <mergeCell ref="WBG21:WBL21"/>
-    <mergeCell ref="WBM21:WBR21"/>
-    <mergeCell ref="WBS21:WBX21"/>
-    <mergeCell ref="VZQ21:VZV21"/>
-    <mergeCell ref="VZW21:WAB21"/>
-    <mergeCell ref="WAC21:WAH21"/>
-    <mergeCell ref="WAI21:WAN21"/>
-    <mergeCell ref="WAO21:WAT21"/>
-    <mergeCell ref="VYM21:VYR21"/>
-    <mergeCell ref="VYS21:VYX21"/>
-    <mergeCell ref="VYY21:VZD21"/>
-    <mergeCell ref="VZE21:VZJ21"/>
-    <mergeCell ref="VZK21:VZP21"/>
-    <mergeCell ref="VXI21:VXN21"/>
-    <mergeCell ref="VXO21:VXT21"/>
-    <mergeCell ref="VXU21:VXZ21"/>
-    <mergeCell ref="VYA21:VYF21"/>
-    <mergeCell ref="VYG21:VYL21"/>
-    <mergeCell ref="VWE21:VWJ21"/>
-    <mergeCell ref="VWK21:VWP21"/>
-    <mergeCell ref="VWQ21:VWV21"/>
-    <mergeCell ref="VWW21:VXB21"/>
-    <mergeCell ref="VXC21:VXH21"/>
-    <mergeCell ref="VVA21:VVF21"/>
-    <mergeCell ref="VVG21:VVL21"/>
-    <mergeCell ref="VVM21:VVR21"/>
-    <mergeCell ref="VVS21:VVX21"/>
-    <mergeCell ref="VVY21:VWD21"/>
-    <mergeCell ref="VTW21:VUB21"/>
-    <mergeCell ref="VUC21:VUH21"/>
-    <mergeCell ref="VUI21:VUN21"/>
-    <mergeCell ref="VUO21:VUT21"/>
-    <mergeCell ref="VUU21:VUZ21"/>
-    <mergeCell ref="VSS21:VSX21"/>
-    <mergeCell ref="VSY21:VTD21"/>
-    <mergeCell ref="VTE21:VTJ21"/>
-    <mergeCell ref="VTK21:VTP21"/>
-    <mergeCell ref="VTQ21:VTV21"/>
-    <mergeCell ref="VRO21:VRT21"/>
-    <mergeCell ref="VRU21:VRZ21"/>
-    <mergeCell ref="VSA21:VSF21"/>
-    <mergeCell ref="VSG21:VSL21"/>
-    <mergeCell ref="VSM21:VSR21"/>
-    <mergeCell ref="VQK21:VQP21"/>
-    <mergeCell ref="VQQ21:VQV21"/>
-    <mergeCell ref="VQW21:VRB21"/>
-    <mergeCell ref="VRC21:VRH21"/>
-    <mergeCell ref="VRI21:VRN21"/>
-    <mergeCell ref="VPG21:VPL21"/>
-    <mergeCell ref="VPM21:VPR21"/>
-    <mergeCell ref="VPS21:VPX21"/>
-    <mergeCell ref="VPY21:VQD21"/>
-    <mergeCell ref="VQE21:VQJ21"/>
-    <mergeCell ref="VOC21:VOH21"/>
-    <mergeCell ref="VOI21:VON21"/>
-    <mergeCell ref="VOO21:VOT21"/>
-    <mergeCell ref="VOU21:VOZ21"/>
-    <mergeCell ref="VPA21:VPF21"/>
-    <mergeCell ref="VMY21:VND21"/>
-    <mergeCell ref="VNE21:VNJ21"/>
-    <mergeCell ref="VNK21:VNP21"/>
-    <mergeCell ref="VNQ21:VNV21"/>
-    <mergeCell ref="VNW21:VOB21"/>
-    <mergeCell ref="VLU21:VLZ21"/>
-    <mergeCell ref="VMA21:VMF21"/>
-    <mergeCell ref="VMG21:VML21"/>
-    <mergeCell ref="VMM21:VMR21"/>
-    <mergeCell ref="VMS21:VMX21"/>
-    <mergeCell ref="VKQ21:VKV21"/>
-    <mergeCell ref="VKW21:VLB21"/>
-    <mergeCell ref="VLC21:VLH21"/>
-    <mergeCell ref="VLI21:VLN21"/>
-    <mergeCell ref="VLO21:VLT21"/>
-    <mergeCell ref="VJM21:VJR21"/>
-    <mergeCell ref="VJS21:VJX21"/>
-    <mergeCell ref="VJY21:VKD21"/>
-    <mergeCell ref="VKE21:VKJ21"/>
-    <mergeCell ref="VKK21:VKP21"/>
-    <mergeCell ref="VII21:VIN21"/>
-    <mergeCell ref="VIO21:VIT21"/>
-    <mergeCell ref="VIU21:VIZ21"/>
-    <mergeCell ref="VJA21:VJF21"/>
-    <mergeCell ref="VJG21:VJL21"/>
-    <mergeCell ref="VHE21:VHJ21"/>
-    <mergeCell ref="VHK21:VHP21"/>
-    <mergeCell ref="VHQ21:VHV21"/>
-    <mergeCell ref="VHW21:VIB21"/>
-    <mergeCell ref="VIC21:VIH21"/>
-    <mergeCell ref="VGA21:VGF21"/>
-    <mergeCell ref="VGG21:VGL21"/>
-    <mergeCell ref="VGM21:VGR21"/>
-    <mergeCell ref="VGS21:VGX21"/>
-    <mergeCell ref="VGY21:VHD21"/>
-    <mergeCell ref="VEW21:VFB21"/>
-    <mergeCell ref="VFC21:VFH21"/>
-    <mergeCell ref="VFI21:VFN21"/>
-    <mergeCell ref="VFO21:VFT21"/>
-    <mergeCell ref="VFU21:VFZ21"/>
-    <mergeCell ref="VDS21:VDX21"/>
-    <mergeCell ref="VDY21:VED21"/>
-    <mergeCell ref="VEE21:VEJ21"/>
-    <mergeCell ref="VEK21:VEP21"/>
-    <mergeCell ref="VEQ21:VEV21"/>
-    <mergeCell ref="VCO21:VCT21"/>
-    <mergeCell ref="VCU21:VCZ21"/>
-    <mergeCell ref="VDA21:VDF21"/>
-    <mergeCell ref="VDG21:VDL21"/>
-    <mergeCell ref="VDM21:VDR21"/>
-    <mergeCell ref="VBK21:VBP21"/>
-    <mergeCell ref="VBQ21:VBV21"/>
-    <mergeCell ref="VBW21:VCB21"/>
-    <mergeCell ref="VCC21:VCH21"/>
-    <mergeCell ref="VCI21:VCN21"/>
-    <mergeCell ref="VAG21:VAL21"/>
-    <mergeCell ref="VAM21:VAR21"/>
-    <mergeCell ref="VAS21:VAX21"/>
-    <mergeCell ref="VAY21:VBD21"/>
-    <mergeCell ref="VBE21:VBJ21"/>
-    <mergeCell ref="UZC21:UZH21"/>
-    <mergeCell ref="UZI21:UZN21"/>
-    <mergeCell ref="UZO21:UZT21"/>
-    <mergeCell ref="UZU21:UZZ21"/>
-    <mergeCell ref="VAA21:VAF21"/>
-    <mergeCell ref="UXY21:UYD21"/>
-    <mergeCell ref="UYE21:UYJ21"/>
-    <mergeCell ref="UYK21:UYP21"/>
-    <mergeCell ref="UYQ21:UYV21"/>
-    <mergeCell ref="UYW21:UZB21"/>
-    <mergeCell ref="UWU21:UWZ21"/>
-    <mergeCell ref="UXA21:UXF21"/>
-    <mergeCell ref="UXG21:UXL21"/>
-    <mergeCell ref="UXM21:UXR21"/>
-    <mergeCell ref="UXS21:UXX21"/>
-    <mergeCell ref="UVQ21:UVV21"/>
-    <mergeCell ref="UVW21:UWB21"/>
-    <mergeCell ref="UWC21:UWH21"/>
-    <mergeCell ref="UWI21:UWN21"/>
-    <mergeCell ref="UWO21:UWT21"/>
-    <mergeCell ref="UUM21:UUR21"/>
-    <mergeCell ref="UUS21:UUX21"/>
-    <mergeCell ref="UUY21:UVD21"/>
-    <mergeCell ref="UVE21:UVJ21"/>
-    <mergeCell ref="UVK21:UVP21"/>
-    <mergeCell ref="UTI21:UTN21"/>
-    <mergeCell ref="UTO21:UTT21"/>
-    <mergeCell ref="UTU21:UTZ21"/>
-    <mergeCell ref="UUA21:UUF21"/>
-    <mergeCell ref="UUG21:UUL21"/>
-    <mergeCell ref="USE21:USJ21"/>
-    <mergeCell ref="USK21:USP21"/>
-    <mergeCell ref="USQ21:USV21"/>
-    <mergeCell ref="USW21:UTB21"/>
-    <mergeCell ref="UTC21:UTH21"/>
-    <mergeCell ref="URA21:URF21"/>
-    <mergeCell ref="URG21:URL21"/>
-    <mergeCell ref="URM21:URR21"/>
-    <mergeCell ref="URS21:URX21"/>
-    <mergeCell ref="URY21:USD21"/>
-    <mergeCell ref="UPW21:UQB21"/>
-    <mergeCell ref="UQC21:UQH21"/>
-    <mergeCell ref="UQI21:UQN21"/>
-    <mergeCell ref="UQO21:UQT21"/>
-    <mergeCell ref="UQU21:UQZ21"/>
-    <mergeCell ref="UOS21:UOX21"/>
-    <mergeCell ref="UOY21:UPD21"/>
-    <mergeCell ref="UPE21:UPJ21"/>
-    <mergeCell ref="UPK21:UPP21"/>
-    <mergeCell ref="UPQ21:UPV21"/>
-    <mergeCell ref="UNO21:UNT21"/>
-    <mergeCell ref="UNU21:UNZ21"/>
-    <mergeCell ref="UOA21:UOF21"/>
-    <mergeCell ref="UOG21:UOL21"/>
-    <mergeCell ref="UOM21:UOR21"/>
-    <mergeCell ref="UMK21:UMP21"/>
-    <mergeCell ref="UMQ21:UMV21"/>
-    <mergeCell ref="UMW21:UNB21"/>
-    <mergeCell ref="UNC21:UNH21"/>
-    <mergeCell ref="UNI21:UNN21"/>
-    <mergeCell ref="ULG21:ULL21"/>
-    <mergeCell ref="ULM21:ULR21"/>
-    <mergeCell ref="ULS21:ULX21"/>
-    <mergeCell ref="ULY21:UMD21"/>
-    <mergeCell ref="UME21:UMJ21"/>
-    <mergeCell ref="UKC21:UKH21"/>
-    <mergeCell ref="UKI21:UKN21"/>
-    <mergeCell ref="UKO21:UKT21"/>
-    <mergeCell ref="UKU21:UKZ21"/>
-    <mergeCell ref="ULA21:ULF21"/>
-    <mergeCell ref="UIY21:UJD21"/>
-    <mergeCell ref="UJE21:UJJ21"/>
-    <mergeCell ref="UJK21:UJP21"/>
-    <mergeCell ref="UJQ21:UJV21"/>
-    <mergeCell ref="UJW21:UKB21"/>
-    <mergeCell ref="UHU21:UHZ21"/>
-    <mergeCell ref="UIA21:UIF21"/>
-    <mergeCell ref="UIG21:UIL21"/>
-    <mergeCell ref="UIM21:UIR21"/>
-    <mergeCell ref="UIS21:UIX21"/>
-    <mergeCell ref="UGQ21:UGV21"/>
-    <mergeCell ref="UGW21:UHB21"/>
-    <mergeCell ref="UHC21:UHH21"/>
-    <mergeCell ref="UHI21:UHN21"/>
-    <mergeCell ref="UHO21:UHT21"/>
-    <mergeCell ref="UFM21:UFR21"/>
-    <mergeCell ref="UFS21:UFX21"/>
-    <mergeCell ref="UFY21:UGD21"/>
-    <mergeCell ref="UGE21:UGJ21"/>
-    <mergeCell ref="UGK21:UGP21"/>
-    <mergeCell ref="UEI21:UEN21"/>
-    <mergeCell ref="UEO21:UET21"/>
-    <mergeCell ref="UEU21:UEZ21"/>
-    <mergeCell ref="UFA21:UFF21"/>
-    <mergeCell ref="UFG21:UFL21"/>
-    <mergeCell ref="UDE21:UDJ21"/>
-    <mergeCell ref="UDK21:UDP21"/>
-    <mergeCell ref="UDQ21:UDV21"/>
-    <mergeCell ref="UDW21:UEB21"/>
-    <mergeCell ref="UEC21:UEH21"/>
-    <mergeCell ref="UCA21:UCF21"/>
-    <mergeCell ref="UCG21:UCL21"/>
-    <mergeCell ref="UCM21:UCR21"/>
-    <mergeCell ref="UCS21:UCX21"/>
-    <mergeCell ref="UCY21:UDD21"/>
-    <mergeCell ref="UAW21:UBB21"/>
-    <mergeCell ref="UBC21:UBH21"/>
-    <mergeCell ref="UBI21:UBN21"/>
-    <mergeCell ref="UBO21:UBT21"/>
-    <mergeCell ref="UBU21:UBZ21"/>
-    <mergeCell ref="TZS21:TZX21"/>
-    <mergeCell ref="TZY21:UAD21"/>
-    <mergeCell ref="UAE21:UAJ21"/>
-    <mergeCell ref="UAK21:UAP21"/>
-    <mergeCell ref="UAQ21:UAV21"/>
-    <mergeCell ref="TYO21:TYT21"/>
-    <mergeCell ref="TYU21:TYZ21"/>
-    <mergeCell ref="TZA21:TZF21"/>
-    <mergeCell ref="TZG21:TZL21"/>
-    <mergeCell ref="TZM21:TZR21"/>
-    <mergeCell ref="TXK21:TXP21"/>
-    <mergeCell ref="TXQ21:TXV21"/>
-    <mergeCell ref="TXW21:TYB21"/>
-    <mergeCell ref="TYC21:TYH21"/>
-    <mergeCell ref="TYI21:TYN21"/>
-    <mergeCell ref="TWG21:TWL21"/>
-    <mergeCell ref="TWM21:TWR21"/>
-    <mergeCell ref="TWS21:TWX21"/>
-    <mergeCell ref="TWY21:TXD21"/>
-    <mergeCell ref="TXE21:TXJ21"/>
-    <mergeCell ref="TVC21:TVH21"/>
-    <mergeCell ref="TVI21:TVN21"/>
-    <mergeCell ref="TVO21:TVT21"/>
-    <mergeCell ref="TVU21:TVZ21"/>
-    <mergeCell ref="TWA21:TWF21"/>
-    <mergeCell ref="TTY21:TUD21"/>
-    <mergeCell ref="TUE21:TUJ21"/>
-    <mergeCell ref="TUK21:TUP21"/>
-    <mergeCell ref="TUQ21:TUV21"/>
-    <mergeCell ref="TUW21:TVB21"/>
-    <mergeCell ref="TSU21:TSZ21"/>
-    <mergeCell ref="TTA21:TTF21"/>
-    <mergeCell ref="TTG21:TTL21"/>
-    <mergeCell ref="TTM21:TTR21"/>
-    <mergeCell ref="TTS21:TTX21"/>
-    <mergeCell ref="TRQ21:TRV21"/>
-    <mergeCell ref="TRW21:TSB21"/>
-    <mergeCell ref="TSC21:TSH21"/>
-    <mergeCell ref="TSI21:TSN21"/>
-    <mergeCell ref="TSO21:TST21"/>
-    <mergeCell ref="TQM21:TQR21"/>
-    <mergeCell ref="TQS21:TQX21"/>
-    <mergeCell ref="TQY21:TRD21"/>
-    <mergeCell ref="TRE21:TRJ21"/>
-    <mergeCell ref="TRK21:TRP21"/>
-    <mergeCell ref="TPI21:TPN21"/>
-    <mergeCell ref="TPO21:TPT21"/>
-    <mergeCell ref="TPU21:TPZ21"/>
-    <mergeCell ref="TQA21:TQF21"/>
-    <mergeCell ref="TQG21:TQL21"/>
-    <mergeCell ref="TOE21:TOJ21"/>
-    <mergeCell ref="TOK21:TOP21"/>
-    <mergeCell ref="TOQ21:TOV21"/>
-    <mergeCell ref="TOW21:TPB21"/>
-    <mergeCell ref="TPC21:TPH21"/>
-    <mergeCell ref="TNA21:TNF21"/>
-    <mergeCell ref="TNG21:TNL21"/>
-    <mergeCell ref="TNM21:TNR21"/>
-    <mergeCell ref="TNS21:TNX21"/>
-    <mergeCell ref="TNY21:TOD21"/>
-    <mergeCell ref="TLW21:TMB21"/>
-    <mergeCell ref="TMC21:TMH21"/>
-    <mergeCell ref="TMI21:TMN21"/>
-    <mergeCell ref="TMO21:TMT21"/>
-    <mergeCell ref="TMU21:TMZ21"/>
-    <mergeCell ref="TKS21:TKX21"/>
-    <mergeCell ref="TKY21:TLD21"/>
-    <mergeCell ref="TLE21:TLJ21"/>
-    <mergeCell ref="TLK21:TLP21"/>
-    <mergeCell ref="TLQ21:TLV21"/>
-    <mergeCell ref="TJO21:TJT21"/>
-    <mergeCell ref="TJU21:TJZ21"/>
-    <mergeCell ref="TKA21:TKF21"/>
-    <mergeCell ref="TKG21:TKL21"/>
-    <mergeCell ref="TKM21:TKR21"/>
-    <mergeCell ref="TIK21:TIP21"/>
-    <mergeCell ref="TIQ21:TIV21"/>
-    <mergeCell ref="TIW21:TJB21"/>
-    <mergeCell ref="TJC21:TJH21"/>
-    <mergeCell ref="TJI21:TJN21"/>
-    <mergeCell ref="THG21:THL21"/>
-    <mergeCell ref="THM21:THR21"/>
-    <mergeCell ref="THS21:THX21"/>
-    <mergeCell ref="THY21:TID21"/>
-    <mergeCell ref="TIE21:TIJ21"/>
-    <mergeCell ref="TGC21:TGH21"/>
-    <mergeCell ref="TGI21:TGN21"/>
-    <mergeCell ref="TGO21:TGT21"/>
-    <mergeCell ref="TGU21:TGZ21"/>
-    <mergeCell ref="THA21:THF21"/>
-    <mergeCell ref="TEY21:TFD21"/>
-    <mergeCell ref="TFE21:TFJ21"/>
-    <mergeCell ref="TFK21:TFP21"/>
-    <mergeCell ref="TFQ21:TFV21"/>
-    <mergeCell ref="TFW21:TGB21"/>
-    <mergeCell ref="TDU21:TDZ21"/>
-    <mergeCell ref="TEA21:TEF21"/>
-    <mergeCell ref="TEG21:TEL21"/>
-    <mergeCell ref="TEM21:TER21"/>
-    <mergeCell ref="TES21:TEX21"/>
-    <mergeCell ref="TCQ21:TCV21"/>
-    <mergeCell ref="TCW21:TDB21"/>
-    <mergeCell ref="TDC21:TDH21"/>
-    <mergeCell ref="TDI21:TDN21"/>
-    <mergeCell ref="TDO21:TDT21"/>
-    <mergeCell ref="TBM21:TBR21"/>
-    <mergeCell ref="TBS21:TBX21"/>
-    <mergeCell ref="TBY21:TCD21"/>
-    <mergeCell ref="TCE21:TCJ21"/>
-    <mergeCell ref="TCK21:TCP21"/>
-    <mergeCell ref="TAI21:TAN21"/>
-    <mergeCell ref="TAO21:TAT21"/>
-    <mergeCell ref="TAU21:TAZ21"/>
-    <mergeCell ref="TBA21:TBF21"/>
-    <mergeCell ref="TBG21:TBL21"/>
-    <mergeCell ref="SZE21:SZJ21"/>
-    <mergeCell ref="SZK21:SZP21"/>
-    <mergeCell ref="SZQ21:SZV21"/>
-    <mergeCell ref="SZW21:TAB21"/>
-    <mergeCell ref="TAC21:TAH21"/>
-    <mergeCell ref="SYA21:SYF21"/>
-    <mergeCell ref="SYG21:SYL21"/>
-    <mergeCell ref="SYM21:SYR21"/>
-    <mergeCell ref="SYS21:SYX21"/>
-    <mergeCell ref="SYY21:SZD21"/>
-    <mergeCell ref="SWW21:SXB21"/>
-    <mergeCell ref="SXC21:SXH21"/>
-    <mergeCell ref="SXI21:SXN21"/>
-    <mergeCell ref="SXO21:SXT21"/>
-    <mergeCell ref="SXU21:SXZ21"/>
-    <mergeCell ref="SVS21:SVX21"/>
-    <mergeCell ref="SVY21:SWD21"/>
-    <mergeCell ref="SWE21:SWJ21"/>
-    <mergeCell ref="SWK21:SWP21"/>
-    <mergeCell ref="SWQ21:SWV21"/>
-    <mergeCell ref="SUO21:SUT21"/>
-    <mergeCell ref="SUU21:SUZ21"/>
-    <mergeCell ref="SVA21:SVF21"/>
-    <mergeCell ref="SVG21:SVL21"/>
-    <mergeCell ref="SVM21:SVR21"/>
-    <mergeCell ref="STK21:STP21"/>
-    <mergeCell ref="STQ21:STV21"/>
-    <mergeCell ref="STW21:SUB21"/>
-    <mergeCell ref="SUC21:SUH21"/>
-    <mergeCell ref="SUI21:SUN21"/>
-    <mergeCell ref="SSG21:SSL21"/>
-    <mergeCell ref="SSM21:SSR21"/>
-    <mergeCell ref="SSS21:SSX21"/>
-    <mergeCell ref="SSY21:STD21"/>
-    <mergeCell ref="STE21:STJ21"/>
-    <mergeCell ref="SRC21:SRH21"/>
-    <mergeCell ref="SRI21:SRN21"/>
-    <mergeCell ref="SRO21:SRT21"/>
-    <mergeCell ref="SRU21:SRZ21"/>
-    <mergeCell ref="SSA21:SSF21"/>
-    <mergeCell ref="SPY21:SQD21"/>
-    <mergeCell ref="SQE21:SQJ21"/>
-    <mergeCell ref="SQK21:SQP21"/>
-    <mergeCell ref="SQQ21:SQV21"/>
-    <mergeCell ref="SQW21:SRB21"/>
-    <mergeCell ref="SOU21:SOZ21"/>
-    <mergeCell ref="SPA21:SPF21"/>
-    <mergeCell ref="SPG21:SPL21"/>
-    <mergeCell ref="SPM21:SPR21"/>
-    <mergeCell ref="SPS21:SPX21"/>
-    <mergeCell ref="SNQ21:SNV21"/>
-    <mergeCell ref="SNW21:SOB21"/>
-    <mergeCell ref="SOC21:SOH21"/>
-    <mergeCell ref="SOI21:SON21"/>
-    <mergeCell ref="SOO21:SOT21"/>
-    <mergeCell ref="SMM21:SMR21"/>
-    <mergeCell ref="SMS21:SMX21"/>
-    <mergeCell ref="SMY21:SND21"/>
-    <mergeCell ref="SNE21:SNJ21"/>
-    <mergeCell ref="SNK21:SNP21"/>
-    <mergeCell ref="SLI21:SLN21"/>
-    <mergeCell ref="SLO21:SLT21"/>
-    <mergeCell ref="SLU21:SLZ21"/>
-    <mergeCell ref="SMA21:SMF21"/>
-    <mergeCell ref="SMG21:SML21"/>
-    <mergeCell ref="SKE21:SKJ21"/>
-    <mergeCell ref="SKK21:SKP21"/>
-    <mergeCell ref="SKQ21:SKV21"/>
-    <mergeCell ref="SKW21:SLB21"/>
-    <mergeCell ref="SLC21:SLH21"/>
-    <mergeCell ref="SJA21:SJF21"/>
-    <mergeCell ref="SJG21:SJL21"/>
-    <mergeCell ref="SJM21:SJR21"/>
-    <mergeCell ref="SJS21:SJX21"/>
-    <mergeCell ref="SJY21:SKD21"/>
-    <mergeCell ref="SHW21:SIB21"/>
-    <mergeCell ref="SIC21:SIH21"/>
-    <mergeCell ref="SII21:SIN21"/>
-    <mergeCell ref="SIO21:SIT21"/>
-    <mergeCell ref="SIU21:SIZ21"/>
-    <mergeCell ref="SGS21:SGX21"/>
-    <mergeCell ref="SGY21:SHD21"/>
-    <mergeCell ref="SHE21:SHJ21"/>
-    <mergeCell ref="SHK21:SHP21"/>
-    <mergeCell ref="SHQ21:SHV21"/>
-    <mergeCell ref="SFO21:SFT21"/>
-    <mergeCell ref="SFU21:SFZ21"/>
-    <mergeCell ref="SGA21:SGF21"/>
-    <mergeCell ref="SGG21:SGL21"/>
-    <mergeCell ref="SGM21:SGR21"/>
-    <mergeCell ref="SEK21:SEP21"/>
-    <mergeCell ref="SEQ21:SEV21"/>
-    <mergeCell ref="SEW21:SFB21"/>
-    <mergeCell ref="SFC21:SFH21"/>
-    <mergeCell ref="SFI21:SFN21"/>
-    <mergeCell ref="SDG21:SDL21"/>
-    <mergeCell ref="SDM21:SDR21"/>
-    <mergeCell ref="SDS21:SDX21"/>
-    <mergeCell ref="SDY21:SED21"/>
-    <mergeCell ref="SEE21:SEJ21"/>
-    <mergeCell ref="SCC21:SCH21"/>
-    <mergeCell ref="SCI21:SCN21"/>
-    <mergeCell ref="SCO21:SCT21"/>
-    <mergeCell ref="SCU21:SCZ21"/>
-    <mergeCell ref="SDA21:SDF21"/>
-    <mergeCell ref="SAY21:SBD21"/>
-    <mergeCell ref="SBE21:SBJ21"/>
-    <mergeCell ref="SBK21:SBP21"/>
-    <mergeCell ref="SBQ21:SBV21"/>
-    <mergeCell ref="SBW21:SCB21"/>
-    <mergeCell ref="RZU21:RZZ21"/>
-    <mergeCell ref="SAA21:SAF21"/>
-    <mergeCell ref="SAG21:SAL21"/>
-    <mergeCell ref="SAM21:SAR21"/>
-    <mergeCell ref="SAS21:SAX21"/>
-    <mergeCell ref="RYQ21:RYV21"/>
-    <mergeCell ref="RYW21:RZB21"/>
-    <mergeCell ref="RZC21:RZH21"/>
-    <mergeCell ref="RZI21:RZN21"/>
-    <mergeCell ref="RZO21:RZT21"/>
-    <mergeCell ref="RXM21:RXR21"/>
-    <mergeCell ref="RXS21:RXX21"/>
-    <mergeCell ref="RXY21:RYD21"/>
-    <mergeCell ref="RYE21:RYJ21"/>
-    <mergeCell ref="RYK21:RYP21"/>
-    <mergeCell ref="RWI21:RWN21"/>
-    <mergeCell ref="RWO21:RWT21"/>
-    <mergeCell ref="RWU21:RWZ21"/>
-    <mergeCell ref="RXA21:RXF21"/>
-    <mergeCell ref="RXG21:RXL21"/>
-    <mergeCell ref="RVE21:RVJ21"/>
-    <mergeCell ref="RVK21:RVP21"/>
-    <mergeCell ref="RVQ21:RVV21"/>
-    <mergeCell ref="RVW21:RWB21"/>
-    <mergeCell ref="RWC21:RWH21"/>
-    <mergeCell ref="RUA21:RUF21"/>
-    <mergeCell ref="RUG21:RUL21"/>
-    <mergeCell ref="RUM21:RUR21"/>
-    <mergeCell ref="RUS21:RUX21"/>
-    <mergeCell ref="RUY21:RVD21"/>
-    <mergeCell ref="RSW21:RTB21"/>
-    <mergeCell ref="RTC21:RTH21"/>
-    <mergeCell ref="RTI21:RTN21"/>
-    <mergeCell ref="RTO21:RTT21"/>
-    <mergeCell ref="RTU21:RTZ21"/>
-    <mergeCell ref="RRS21:RRX21"/>
-    <mergeCell ref="RRY21:RSD21"/>
-    <mergeCell ref="RSE21:RSJ21"/>
-    <mergeCell ref="RSK21:RSP21"/>
-    <mergeCell ref="RSQ21:RSV21"/>
-    <mergeCell ref="RQO21:RQT21"/>
-    <mergeCell ref="RQU21:RQZ21"/>
-    <mergeCell ref="RRA21:RRF21"/>
-    <mergeCell ref="RRG21:RRL21"/>
-    <mergeCell ref="RRM21:RRR21"/>
-    <mergeCell ref="RPK21:RPP21"/>
-    <mergeCell ref="RPQ21:RPV21"/>
-    <mergeCell ref="RPW21:RQB21"/>
-    <mergeCell ref="RQC21:RQH21"/>
-    <mergeCell ref="RQI21:RQN21"/>
-    <mergeCell ref="ROG21:ROL21"/>
-    <mergeCell ref="ROM21:ROR21"/>
-    <mergeCell ref="ROS21:ROX21"/>
-    <mergeCell ref="ROY21:RPD21"/>
-    <mergeCell ref="RPE21:RPJ21"/>
-    <mergeCell ref="RNC21:RNH21"/>
-    <mergeCell ref="RNI21:RNN21"/>
-    <mergeCell ref="RNO21:RNT21"/>
-    <mergeCell ref="RNU21:RNZ21"/>
-    <mergeCell ref="ROA21:ROF21"/>
-    <mergeCell ref="RLY21:RMD21"/>
-    <mergeCell ref="RME21:RMJ21"/>
-    <mergeCell ref="RMK21:RMP21"/>
-    <mergeCell ref="RMQ21:RMV21"/>
-    <mergeCell ref="RMW21:RNB21"/>
-    <mergeCell ref="RKU21:RKZ21"/>
-    <mergeCell ref="RLA21:RLF21"/>
-    <mergeCell ref="RLG21:RLL21"/>
-    <mergeCell ref="RLM21:RLR21"/>
-    <mergeCell ref="RLS21:RLX21"/>
-    <mergeCell ref="RJQ21:RJV21"/>
-    <mergeCell ref="RJW21:RKB21"/>
-    <mergeCell ref="RKC21:RKH21"/>
-    <mergeCell ref="RKI21:RKN21"/>
-    <mergeCell ref="RKO21:RKT21"/>
-    <mergeCell ref="RIM21:RIR21"/>
-    <mergeCell ref="RIS21:RIX21"/>
-    <mergeCell ref="RIY21:RJD21"/>
-    <mergeCell ref="RJE21:RJJ21"/>
-    <mergeCell ref="RJK21:RJP21"/>
-    <mergeCell ref="RHI21:RHN21"/>
-    <mergeCell ref="RHO21:RHT21"/>
-    <mergeCell ref="RHU21:RHZ21"/>
-    <mergeCell ref="RIA21:RIF21"/>
-    <mergeCell ref="RIG21:RIL21"/>
-    <mergeCell ref="RGE21:RGJ21"/>
-    <mergeCell ref="RGK21:RGP21"/>
-    <mergeCell ref="RGQ21:RGV21"/>
-    <mergeCell ref="RGW21:RHB21"/>
-    <mergeCell ref="RHC21:RHH21"/>
-    <mergeCell ref="RFA21:RFF21"/>
-    <mergeCell ref="RFG21:RFL21"/>
-    <mergeCell ref="RFM21:RFR21"/>
-    <mergeCell ref="RFS21:RFX21"/>
-    <mergeCell ref="RFY21:RGD21"/>
-    <mergeCell ref="RDW21:REB21"/>
-    <mergeCell ref="REC21:REH21"/>
-    <mergeCell ref="REI21:REN21"/>
-    <mergeCell ref="REO21:RET21"/>
-    <mergeCell ref="REU21:REZ21"/>
-    <mergeCell ref="RCS21:RCX21"/>
-    <mergeCell ref="RCY21:RDD21"/>
-    <mergeCell ref="RDE21:RDJ21"/>
-    <mergeCell ref="RDK21:RDP21"/>
-    <mergeCell ref="RDQ21:RDV21"/>
-    <mergeCell ref="RBO21:RBT21"/>
-    <mergeCell ref="RBU21:RBZ21"/>
-    <mergeCell ref="RCA21:RCF21"/>
-    <mergeCell ref="RCG21:RCL21"/>
-    <mergeCell ref="RCM21:RCR21"/>
-    <mergeCell ref="RAK21:RAP21"/>
-    <mergeCell ref="RAQ21:RAV21"/>
-    <mergeCell ref="RAW21:RBB21"/>
-    <mergeCell ref="RBC21:RBH21"/>
-    <mergeCell ref="RBI21:RBN21"/>
-    <mergeCell ref="QZG21:QZL21"/>
-    <mergeCell ref="QZM21:QZR21"/>
-    <mergeCell ref="QZS21:QZX21"/>
-    <mergeCell ref="QZY21:RAD21"/>
-    <mergeCell ref="RAE21:RAJ21"/>
-    <mergeCell ref="QYC21:QYH21"/>
-    <mergeCell ref="QYI21:QYN21"/>
-    <mergeCell ref="QYO21:QYT21"/>
-    <mergeCell ref="QYU21:QYZ21"/>
-    <mergeCell ref="QZA21:QZF21"/>
-    <mergeCell ref="QWY21:QXD21"/>
-    <mergeCell ref="QXE21:QXJ21"/>
-    <mergeCell ref="QXK21:QXP21"/>
-    <mergeCell ref="QXQ21:QXV21"/>
-    <mergeCell ref="QXW21:QYB21"/>
-    <mergeCell ref="QVU21:QVZ21"/>
-    <mergeCell ref="QWA21:QWF21"/>
-    <mergeCell ref="QWG21:QWL21"/>
-    <mergeCell ref="QWM21:QWR21"/>
-    <mergeCell ref="QWS21:QWX21"/>
-    <mergeCell ref="QUQ21:QUV21"/>
-    <mergeCell ref="QUW21:QVB21"/>
-    <mergeCell ref="QVC21:QVH21"/>
-    <mergeCell ref="QVI21:QVN21"/>
-    <mergeCell ref="QVO21:QVT21"/>
-    <mergeCell ref="QTM21:QTR21"/>
-    <mergeCell ref="QTS21:QTX21"/>
-    <mergeCell ref="QTY21:QUD21"/>
-    <mergeCell ref="QUE21:QUJ21"/>
-    <mergeCell ref="QUK21:QUP21"/>
-    <mergeCell ref="QSI21:QSN21"/>
-    <mergeCell ref="QSO21:QST21"/>
-    <mergeCell ref="QSU21:QSZ21"/>
-    <mergeCell ref="QTA21:QTF21"/>
-    <mergeCell ref="QTG21:QTL21"/>
-    <mergeCell ref="QRE21:QRJ21"/>
-    <mergeCell ref="QRK21:QRP21"/>
-    <mergeCell ref="QRQ21:QRV21"/>
-    <mergeCell ref="QRW21:QSB21"/>
-    <mergeCell ref="QSC21:QSH21"/>
-    <mergeCell ref="QQA21:QQF21"/>
-    <mergeCell ref="QQG21:QQL21"/>
-    <mergeCell ref="QQM21:QQR21"/>
-    <mergeCell ref="QQS21:QQX21"/>
-    <mergeCell ref="QQY21:QRD21"/>
-    <mergeCell ref="QOW21:QPB21"/>
-    <mergeCell ref="QPC21:QPH21"/>
-    <mergeCell ref="QPI21:QPN21"/>
-    <mergeCell ref="QPO21:QPT21"/>
-    <mergeCell ref="QPU21:QPZ21"/>
-    <mergeCell ref="QNS21:QNX21"/>
-    <mergeCell ref="QNY21:QOD21"/>
-    <mergeCell ref="QOE21:QOJ21"/>
-    <mergeCell ref="QOK21:QOP21"/>
-    <mergeCell ref="QOQ21:QOV21"/>
-    <mergeCell ref="QMO21:QMT21"/>
-    <mergeCell ref="QMU21:QMZ21"/>
-    <mergeCell ref="QNA21:QNF21"/>
-    <mergeCell ref="QNG21:QNL21"/>
-    <mergeCell ref="QNM21:QNR21"/>
-    <mergeCell ref="QLK21:QLP21"/>
-    <mergeCell ref="QLQ21:QLV21"/>
-    <mergeCell ref="QLW21:QMB21"/>
-    <mergeCell ref="QMC21:QMH21"/>
-    <mergeCell ref="QMI21:QMN21"/>
-    <mergeCell ref="QKG21:QKL21"/>
-    <mergeCell ref="QKM21:QKR21"/>
-    <mergeCell ref="QKS21:QKX21"/>
-    <mergeCell ref="QKY21:QLD21"/>
-    <mergeCell ref="QLE21:QLJ21"/>
-    <mergeCell ref="QJC21:QJH21"/>
-    <mergeCell ref="QJI21:QJN21"/>
-    <mergeCell ref="QJO21:QJT21"/>
-    <mergeCell ref="QJU21:QJZ21"/>
-    <mergeCell ref="QKA21:QKF21"/>
-    <mergeCell ref="QHY21:QID21"/>
-    <mergeCell ref="QIE21:QIJ21"/>
-    <mergeCell ref="QIK21:QIP21"/>
-    <mergeCell ref="QIQ21:QIV21"/>
-    <mergeCell ref="QIW21:QJB21"/>
-    <mergeCell ref="QGU21:QGZ21"/>
-    <mergeCell ref="QHA21:QHF21"/>
-    <mergeCell ref="QHG21:QHL21"/>
-    <mergeCell ref="QHM21:QHR21"/>
-    <mergeCell ref="QHS21:QHX21"/>
-    <mergeCell ref="QFQ21:QFV21"/>
-    <mergeCell ref="QFW21:QGB21"/>
-    <mergeCell ref="QGC21:QGH21"/>
-    <mergeCell ref="QGI21:QGN21"/>
-    <mergeCell ref="QGO21:QGT21"/>
-    <mergeCell ref="QEM21:QER21"/>
-    <mergeCell ref="QES21:QEX21"/>
-    <mergeCell ref="QEY21:QFD21"/>
-    <mergeCell ref="QFE21:QFJ21"/>
-    <mergeCell ref="QFK21:QFP21"/>
-    <mergeCell ref="QDI21:QDN21"/>
-    <mergeCell ref="QDO21:QDT21"/>
-    <mergeCell ref="QDU21:QDZ21"/>
-    <mergeCell ref="QEA21:QEF21"/>
-    <mergeCell ref="QEG21:QEL21"/>
-    <mergeCell ref="QCE21:QCJ21"/>
-    <mergeCell ref="QCK21:QCP21"/>
-    <mergeCell ref="QCQ21:QCV21"/>
-    <mergeCell ref="QCW21:QDB21"/>
-    <mergeCell ref="QDC21:QDH21"/>
-    <mergeCell ref="QBA21:QBF21"/>
-    <mergeCell ref="QBG21:QBL21"/>
-    <mergeCell ref="QBM21:QBR21"/>
-    <mergeCell ref="QBS21:QBX21"/>
-    <mergeCell ref="QBY21:QCD21"/>
-    <mergeCell ref="PZW21:QAB21"/>
-    <mergeCell ref="QAC21:QAH21"/>
-    <mergeCell ref="QAI21:QAN21"/>
-    <mergeCell ref="QAO21:QAT21"/>
-    <mergeCell ref="QAU21:QAZ21"/>
-    <mergeCell ref="PYS21:PYX21"/>
-    <mergeCell ref="PYY21:PZD21"/>
-    <mergeCell ref="PZE21:PZJ21"/>
-    <mergeCell ref="PZK21:PZP21"/>
-    <mergeCell ref="PZQ21:PZV21"/>
-    <mergeCell ref="PXO21:PXT21"/>
-    <mergeCell ref="PXU21:PXZ21"/>
-    <mergeCell ref="PYA21:PYF21"/>
-    <mergeCell ref="PYG21:PYL21"/>
-    <mergeCell ref="PYM21:PYR21"/>
-    <mergeCell ref="PWK21:PWP21"/>
-    <mergeCell ref="PWQ21:PWV21"/>
-    <mergeCell ref="PWW21:PXB21"/>
-    <mergeCell ref="PXC21:PXH21"/>
-    <mergeCell ref="PXI21:PXN21"/>
-    <mergeCell ref="PVG21:PVL21"/>
-    <mergeCell ref="PVM21:PVR21"/>
-    <mergeCell ref="PVS21:PVX21"/>
-    <mergeCell ref="PVY21:PWD21"/>
-    <mergeCell ref="PWE21:PWJ21"/>
-    <mergeCell ref="PUC21:PUH21"/>
-    <mergeCell ref="PUI21:PUN21"/>
-    <mergeCell ref="PUO21:PUT21"/>
-    <mergeCell ref="PUU21:PUZ21"/>
-    <mergeCell ref="PVA21:PVF21"/>
-    <mergeCell ref="PSY21:PTD21"/>
-    <mergeCell ref="PTE21:PTJ21"/>
-    <mergeCell ref="PTK21:PTP21"/>
-    <mergeCell ref="PTQ21:PTV21"/>
-    <mergeCell ref="PTW21:PUB21"/>
-    <mergeCell ref="PRU21:PRZ21"/>
-    <mergeCell ref="PSA21:PSF21"/>
-    <mergeCell ref="PSG21:PSL21"/>
-    <mergeCell ref="PSM21:PSR21"/>
-    <mergeCell ref="PSS21:PSX21"/>
-    <mergeCell ref="PQQ21:PQV21"/>
-    <mergeCell ref="PQW21:PRB21"/>
-    <mergeCell ref="PRC21:PRH21"/>
-    <mergeCell ref="PRI21:PRN21"/>
-    <mergeCell ref="PRO21:PRT21"/>
-    <mergeCell ref="PPM21:PPR21"/>
-    <mergeCell ref="PPS21:PPX21"/>
-    <mergeCell ref="PPY21:PQD21"/>
-    <mergeCell ref="PQE21:PQJ21"/>
-    <mergeCell ref="PQK21:PQP21"/>
-    <mergeCell ref="POI21:PON21"/>
-    <mergeCell ref="POO21:POT21"/>
-    <mergeCell ref="POU21:POZ21"/>
-    <mergeCell ref="PPA21:PPF21"/>
-    <mergeCell ref="PPG21:PPL21"/>
-    <mergeCell ref="PNE21:PNJ21"/>
-    <mergeCell ref="PNK21:PNP21"/>
-    <mergeCell ref="PNQ21:PNV21"/>
-    <mergeCell ref="PNW21:POB21"/>
-    <mergeCell ref="POC21:POH21"/>
-    <mergeCell ref="PMA21:PMF21"/>
-    <mergeCell ref="PMG21:PML21"/>
-    <mergeCell ref="PMM21:PMR21"/>
-    <mergeCell ref="PMS21:PMX21"/>
-    <mergeCell ref="PMY21:PND21"/>
-    <mergeCell ref="PKW21:PLB21"/>
-    <mergeCell ref="PLC21:PLH21"/>
-    <mergeCell ref="PLI21:PLN21"/>
-    <mergeCell ref="PLO21:PLT21"/>
-    <mergeCell ref="PLU21:PLZ21"/>
-    <mergeCell ref="PJS21:PJX21"/>
-    <mergeCell ref="PJY21:PKD21"/>
-    <mergeCell ref="PKE21:PKJ21"/>
-    <mergeCell ref="PKK21:PKP21"/>
-    <mergeCell ref="PKQ21:PKV21"/>
-    <mergeCell ref="PIO21:PIT21"/>
-    <mergeCell ref="PIU21:PIZ21"/>
-    <mergeCell ref="PJA21:PJF21"/>
-    <mergeCell ref="PJG21:PJL21"/>
-    <mergeCell ref="PJM21:PJR21"/>
-    <mergeCell ref="PHK21:PHP21"/>
-    <mergeCell ref="PHQ21:PHV21"/>
-    <mergeCell ref="PHW21:PIB21"/>
-    <mergeCell ref="PIC21:PIH21"/>
-    <mergeCell ref="PII21:PIN21"/>
-    <mergeCell ref="PGG21:PGL21"/>
-    <mergeCell ref="PGM21:PGR21"/>
-    <mergeCell ref="PGS21:PGX21"/>
-    <mergeCell ref="PGY21:PHD21"/>
-    <mergeCell ref="PHE21:PHJ21"/>
-    <mergeCell ref="PFC21:PFH21"/>
-    <mergeCell ref="PFI21:PFN21"/>
-    <mergeCell ref="PFO21:PFT21"/>
-    <mergeCell ref="PFU21:PFZ21"/>
-    <mergeCell ref="PGA21:PGF21"/>
-    <mergeCell ref="PDY21:PED21"/>
-    <mergeCell ref="PEE21:PEJ21"/>
-    <mergeCell ref="PEK21:PEP21"/>
-    <mergeCell ref="PEQ21:PEV21"/>
-    <mergeCell ref="PEW21:PFB21"/>
-    <mergeCell ref="PCU21:PCZ21"/>
-    <mergeCell ref="PDA21:PDF21"/>
-    <mergeCell ref="PDG21:PDL21"/>
-    <mergeCell ref="PDM21:PDR21"/>
-    <mergeCell ref="PDS21:PDX21"/>
-    <mergeCell ref="PBQ21:PBV21"/>
-    <mergeCell ref="PBW21:PCB21"/>
-    <mergeCell ref="PCC21:PCH21"/>
-    <mergeCell ref="PCI21:PCN21"/>
-    <mergeCell ref="PCO21:PCT21"/>
-    <mergeCell ref="PAM21:PAR21"/>
-    <mergeCell ref="PAS21:PAX21"/>
-    <mergeCell ref="PAY21:PBD21"/>
-    <mergeCell ref="PBE21:PBJ21"/>
-    <mergeCell ref="PBK21:PBP21"/>
-    <mergeCell ref="OZI21:OZN21"/>
-    <mergeCell ref="OZO21:OZT21"/>
-    <mergeCell ref="OZU21:OZZ21"/>
-    <mergeCell ref="PAA21:PAF21"/>
-    <mergeCell ref="PAG21:PAL21"/>
-    <mergeCell ref="OYE21:OYJ21"/>
-    <mergeCell ref="OYK21:OYP21"/>
-    <mergeCell ref="OYQ21:OYV21"/>
-    <mergeCell ref="OYW21:OZB21"/>
-    <mergeCell ref="OZC21:OZH21"/>
-    <mergeCell ref="OXA21:OXF21"/>
-    <mergeCell ref="OXG21:OXL21"/>
-    <mergeCell ref="OXM21:OXR21"/>
-    <mergeCell ref="OXS21:OXX21"/>
-    <mergeCell ref="OXY21:OYD21"/>
-    <mergeCell ref="OVW21:OWB21"/>
-    <mergeCell ref="OWC21:OWH21"/>
-    <mergeCell ref="OWI21:OWN21"/>
-    <mergeCell ref="OWO21:OWT21"/>
-    <mergeCell ref="OWU21:OWZ21"/>
-    <mergeCell ref="OUS21:OUX21"/>
-    <mergeCell ref="OUY21:OVD21"/>
-    <mergeCell ref="OVE21:OVJ21"/>
-    <mergeCell ref="OVK21:OVP21"/>
-    <mergeCell ref="OVQ21:OVV21"/>
-    <mergeCell ref="OTO21:OTT21"/>
-    <mergeCell ref="OTU21:OTZ21"/>
-    <mergeCell ref="OUA21:OUF21"/>
-    <mergeCell ref="OUG21:OUL21"/>
-    <mergeCell ref="OUM21:OUR21"/>
-    <mergeCell ref="OSK21:OSP21"/>
-    <mergeCell ref="OSQ21:OSV21"/>
-    <mergeCell ref="OSW21:OTB21"/>
-    <mergeCell ref="OTC21:OTH21"/>
-    <mergeCell ref="OTI21:OTN21"/>
-    <mergeCell ref="ORG21:ORL21"/>
-    <mergeCell ref="ORM21:ORR21"/>
-    <mergeCell ref="ORS21:ORX21"/>
-    <mergeCell ref="ORY21:OSD21"/>
-    <mergeCell ref="OSE21:OSJ21"/>
-    <mergeCell ref="OQC21:OQH21"/>
-    <mergeCell ref="OQI21:OQN21"/>
-    <mergeCell ref="OQO21:OQT21"/>
-    <mergeCell ref="OQU21:OQZ21"/>
-    <mergeCell ref="ORA21:ORF21"/>
-    <mergeCell ref="OOY21:OPD21"/>
-    <mergeCell ref="OPE21:OPJ21"/>
-    <mergeCell ref="OPK21:OPP21"/>
-    <mergeCell ref="OPQ21:OPV21"/>
-    <mergeCell ref="OPW21:OQB21"/>
-    <mergeCell ref="ONU21:ONZ21"/>
-    <mergeCell ref="OOA21:OOF21"/>
-    <mergeCell ref="OOG21:OOL21"/>
-    <mergeCell ref="OOM21:OOR21"/>
-    <mergeCell ref="OOS21:OOX21"/>
-    <mergeCell ref="OMQ21:OMV21"/>
-    <mergeCell ref="OMW21:ONB21"/>
-    <mergeCell ref="ONC21:ONH21"/>
-    <mergeCell ref="ONI21:ONN21"/>
-    <mergeCell ref="ONO21:ONT21"/>
-    <mergeCell ref="OLM21:OLR21"/>
-    <mergeCell ref="OLS21:OLX21"/>
-    <mergeCell ref="OLY21:OMD21"/>
-    <mergeCell ref="OME21:OMJ21"/>
-    <mergeCell ref="OMK21:OMP21"/>
-    <mergeCell ref="OKI21:OKN21"/>
-    <mergeCell ref="OKO21:OKT21"/>
-    <mergeCell ref="OKU21:OKZ21"/>
-    <mergeCell ref="OLA21:OLF21"/>
-    <mergeCell ref="OLG21:OLL21"/>
-    <mergeCell ref="OJE21:OJJ21"/>
-    <mergeCell ref="OJK21:OJP21"/>
-    <mergeCell ref="OJQ21:OJV21"/>
-    <mergeCell ref="OJW21:OKB21"/>
-    <mergeCell ref="OKC21:OKH21"/>
-    <mergeCell ref="OIA21:OIF21"/>
-    <mergeCell ref="OIG21:OIL21"/>
-    <mergeCell ref="OIM21:OIR21"/>
-    <mergeCell ref="OIS21:OIX21"/>
-    <mergeCell ref="OIY21:OJD21"/>
-    <mergeCell ref="OGW21:OHB21"/>
-    <mergeCell ref="OHC21:OHH21"/>
-    <mergeCell ref="OHI21:OHN21"/>
-    <mergeCell ref="OHO21:OHT21"/>
-    <mergeCell ref="OHU21:OHZ21"/>
-    <mergeCell ref="OFS21:OFX21"/>
-    <mergeCell ref="OFY21:OGD21"/>
-    <mergeCell ref="OGE21:OGJ21"/>
-    <mergeCell ref="OGK21:OGP21"/>
-    <mergeCell ref="OGQ21:OGV21"/>
-    <mergeCell ref="OEO21:OET21"/>
-    <mergeCell ref="OEU21:OEZ21"/>
-    <mergeCell ref="OFA21:OFF21"/>
-    <mergeCell ref="OFG21:OFL21"/>
-    <mergeCell ref="OFM21:OFR21"/>
-    <mergeCell ref="ODK21:ODP21"/>
-    <mergeCell ref="ODQ21:ODV21"/>
-    <mergeCell ref="ODW21:OEB21"/>
-    <mergeCell ref="OEC21:OEH21"/>
-    <mergeCell ref="OEI21:OEN21"/>
-    <mergeCell ref="OCG21:OCL21"/>
-    <mergeCell ref="OCM21:OCR21"/>
-    <mergeCell ref="OCS21:OCX21"/>
-    <mergeCell ref="OCY21:ODD21"/>
-    <mergeCell ref="ODE21:ODJ21"/>
-    <mergeCell ref="OBC21:OBH21"/>
-    <mergeCell ref="OBI21:OBN21"/>
-    <mergeCell ref="OBO21:OBT21"/>
-    <mergeCell ref="OBU21:OBZ21"/>
-    <mergeCell ref="OCA21:OCF21"/>
-    <mergeCell ref="NZY21:OAD21"/>
-    <mergeCell ref="OAE21:OAJ21"/>
-    <mergeCell ref="OAK21:OAP21"/>
-    <mergeCell ref="OAQ21:OAV21"/>
-    <mergeCell ref="OAW21:OBB21"/>
-    <mergeCell ref="NYU21:NYZ21"/>
-    <mergeCell ref="NZA21:NZF21"/>
-    <mergeCell ref="NZG21:NZL21"/>
-    <mergeCell ref="NZM21:NZR21"/>
-    <mergeCell ref="NZS21:NZX21"/>
-    <mergeCell ref="NXQ21:NXV21"/>
-    <mergeCell ref="NXW21:NYB21"/>
-    <mergeCell ref="NYC21:NYH21"/>
-    <mergeCell ref="NYI21:NYN21"/>
-    <mergeCell ref="NYO21:NYT21"/>
-    <mergeCell ref="NWM21:NWR21"/>
-    <mergeCell ref="NWS21:NWX21"/>
-    <mergeCell ref="NWY21:NXD21"/>
-    <mergeCell ref="NXE21:NXJ21"/>
-    <mergeCell ref="NXK21:NXP21"/>
-    <mergeCell ref="NVI21:NVN21"/>
-    <mergeCell ref="NVO21:NVT21"/>
-    <mergeCell ref="NVU21:NVZ21"/>
-    <mergeCell ref="NWA21:NWF21"/>
-    <mergeCell ref="NWG21:NWL21"/>
-    <mergeCell ref="NUE21:NUJ21"/>
-    <mergeCell ref="NUK21:NUP21"/>
-    <mergeCell ref="NUQ21:NUV21"/>
-    <mergeCell ref="NUW21:NVB21"/>
-    <mergeCell ref="NVC21:NVH21"/>
-    <mergeCell ref="NTA21:NTF21"/>
-    <mergeCell ref="NTG21:NTL21"/>
-    <mergeCell ref="NTM21:NTR21"/>
-    <mergeCell ref="NTS21:NTX21"/>
-    <mergeCell ref="NTY21:NUD21"/>
-    <mergeCell ref="NRW21:NSB21"/>
-    <mergeCell ref="NSC21:NSH21"/>
-    <mergeCell ref="NSI21:NSN21"/>
-    <mergeCell ref="NSO21:NST21"/>
-    <mergeCell ref="NSU21:NSZ21"/>
-    <mergeCell ref="NQS21:NQX21"/>
-    <mergeCell ref="NQY21:NRD21"/>
-    <mergeCell ref="NRE21:NRJ21"/>
-    <mergeCell ref="NRK21:NRP21"/>
-    <mergeCell ref="NRQ21:NRV21"/>
-    <mergeCell ref="NPO21:NPT21"/>
-    <mergeCell ref="NPU21:NPZ21"/>
-    <mergeCell ref="NQA21:NQF21"/>
-    <mergeCell ref="NQG21:NQL21"/>
-    <mergeCell ref="NQM21:NQR21"/>
-    <mergeCell ref="NOK21:NOP21"/>
-    <mergeCell ref="NOQ21:NOV21"/>
-    <mergeCell ref="NOW21:NPB21"/>
-    <mergeCell ref="NPC21:NPH21"/>
-    <mergeCell ref="NPI21:NPN21"/>
-    <mergeCell ref="NNG21:NNL21"/>
-    <mergeCell ref="NNM21:NNR21"/>
-    <mergeCell ref="NNS21:NNX21"/>
-    <mergeCell ref="NNY21:NOD21"/>
-    <mergeCell ref="NOE21:NOJ21"/>
-    <mergeCell ref="NMC21:NMH21"/>
-    <mergeCell ref="NMI21:NMN21"/>
-    <mergeCell ref="NMO21:NMT21"/>
-    <mergeCell ref="NMU21:NMZ21"/>
-    <mergeCell ref="NNA21:NNF21"/>
-    <mergeCell ref="NKY21:NLD21"/>
-    <mergeCell ref="NLE21:NLJ21"/>
-    <mergeCell ref="NLK21:NLP21"/>
-    <mergeCell ref="NLQ21:NLV21"/>
-    <mergeCell ref="NLW21:NMB21"/>
-    <mergeCell ref="NJU21:NJZ21"/>
-    <mergeCell ref="NKA21:NKF21"/>
-    <mergeCell ref="NKG21:NKL21"/>
-    <mergeCell ref="NKM21:NKR21"/>
-    <mergeCell ref="NKS21:NKX21"/>
-    <mergeCell ref="NIQ21:NIV21"/>
-    <mergeCell ref="NIW21:NJB21"/>
-    <mergeCell ref="NJC21:NJH21"/>
-    <mergeCell ref="NJI21:NJN21"/>
-    <mergeCell ref="NJO21:NJT21"/>
-    <mergeCell ref="NHM21:NHR21"/>
-    <mergeCell ref="NHS21:NHX21"/>
-    <mergeCell ref="NHY21:NID21"/>
-    <mergeCell ref="NIE21:NIJ21"/>
-    <mergeCell ref="NIK21:NIP21"/>
-    <mergeCell ref="NGI21:NGN21"/>
-    <mergeCell ref="NGO21:NGT21"/>
-    <mergeCell ref="NGU21:NGZ21"/>
-    <mergeCell ref="NHA21:NHF21"/>
-    <mergeCell ref="NHG21:NHL21"/>
-    <mergeCell ref="NFE21:NFJ21"/>
-    <mergeCell ref="NFK21:NFP21"/>
-    <mergeCell ref="NFQ21:NFV21"/>
-    <mergeCell ref="NFW21:NGB21"/>
-    <mergeCell ref="NGC21:NGH21"/>
-    <mergeCell ref="NEA21:NEF21"/>
-    <mergeCell ref="NEG21:NEL21"/>
-    <mergeCell ref="NEM21:NER21"/>
-    <mergeCell ref="NES21:NEX21"/>
-    <mergeCell ref="NEY21:NFD21"/>
-    <mergeCell ref="NCW21:NDB21"/>
-    <mergeCell ref="NDC21:NDH21"/>
-    <mergeCell ref="NDI21:NDN21"/>
-    <mergeCell ref="NDO21:NDT21"/>
-    <mergeCell ref="NDU21:NDZ21"/>
-    <mergeCell ref="NBS21:NBX21"/>
-    <mergeCell ref="NBY21:NCD21"/>
-    <mergeCell ref="NCE21:NCJ21"/>
-    <mergeCell ref="NCK21:NCP21"/>
-    <mergeCell ref="NCQ21:NCV21"/>
-    <mergeCell ref="NAO21:NAT21"/>
-    <mergeCell ref="NAU21:NAZ21"/>
-    <mergeCell ref="NBA21:NBF21"/>
-    <mergeCell ref="NBG21:NBL21"/>
-    <mergeCell ref="NBM21:NBR21"/>
-    <mergeCell ref="MZK21:MZP21"/>
-    <mergeCell ref="MZQ21:MZV21"/>
-    <mergeCell ref="MZW21:NAB21"/>
-    <mergeCell ref="NAC21:NAH21"/>
-    <mergeCell ref="NAI21:NAN21"/>
-    <mergeCell ref="MYG21:MYL21"/>
-    <mergeCell ref="MYM21:MYR21"/>
-    <mergeCell ref="MYS21:MYX21"/>
-    <mergeCell ref="MYY21:MZD21"/>
-    <mergeCell ref="MZE21:MZJ21"/>
-    <mergeCell ref="MXC21:MXH21"/>
-    <mergeCell ref="MXI21:MXN21"/>
-    <mergeCell ref="MXO21:MXT21"/>
-    <mergeCell ref="MXU21:MXZ21"/>
-    <mergeCell ref="MYA21:MYF21"/>
-    <mergeCell ref="MVY21:MWD21"/>
-    <mergeCell ref="MWE21:MWJ21"/>
-    <mergeCell ref="MWK21:MWP21"/>
-    <mergeCell ref="MWQ21:MWV21"/>
-    <mergeCell ref="MWW21:MXB21"/>
-    <mergeCell ref="MUU21:MUZ21"/>
-    <mergeCell ref="MVA21:MVF21"/>
-    <mergeCell ref="MVG21:MVL21"/>
-    <mergeCell ref="MVM21:MVR21"/>
-    <mergeCell ref="MVS21:MVX21"/>
-    <mergeCell ref="MTQ21:MTV21"/>
-    <mergeCell ref="MTW21:MUB21"/>
-    <mergeCell ref="MUC21:MUH21"/>
-    <mergeCell ref="MUI21:MUN21"/>
-    <mergeCell ref="MUO21:MUT21"/>
-    <mergeCell ref="MSM21:MSR21"/>
-    <mergeCell ref="MSS21:MSX21"/>
-    <mergeCell ref="MSY21:MTD21"/>
-    <mergeCell ref="MTE21:MTJ21"/>
-    <mergeCell ref="MTK21:MTP21"/>
-    <mergeCell ref="MRI21:MRN21"/>
-    <mergeCell ref="MRO21:MRT21"/>
-    <mergeCell ref="MRU21:MRZ21"/>
-    <mergeCell ref="MSA21:MSF21"/>
-    <mergeCell ref="MSG21:MSL21"/>
-    <mergeCell ref="MQE21:MQJ21"/>
-    <mergeCell ref="MQK21:MQP21"/>
-    <mergeCell ref="MQQ21:MQV21"/>
-    <mergeCell ref="MQW21:MRB21"/>
-    <mergeCell ref="MRC21:MRH21"/>
-    <mergeCell ref="MPA21:MPF21"/>
-    <mergeCell ref="MPG21:MPL21"/>
-    <mergeCell ref="MPM21:MPR21"/>
-    <mergeCell ref="MPS21:MPX21"/>
-    <mergeCell ref="MPY21:MQD21"/>
-    <mergeCell ref="MNW21:MOB21"/>
-    <mergeCell ref="MOC21:MOH21"/>
-    <mergeCell ref="MOI21:MON21"/>
-    <mergeCell ref="MOO21:MOT21"/>
-    <mergeCell ref="MOU21:MOZ21"/>
-    <mergeCell ref="MMS21:MMX21"/>
-    <mergeCell ref="MMY21:MND21"/>
-    <mergeCell ref="MNE21:MNJ21"/>
-    <mergeCell ref="MNK21:MNP21"/>
-    <mergeCell ref="MNQ21:MNV21"/>
-    <mergeCell ref="MLO21:MLT21"/>
-    <mergeCell ref="MLU21:MLZ21"/>
-    <mergeCell ref="MMA21:MMF21"/>
-    <mergeCell ref="MMG21:MML21"/>
-    <mergeCell ref="MMM21:MMR21"/>
-    <mergeCell ref="MKK21:MKP21"/>
-    <mergeCell ref="MKQ21:MKV21"/>
-    <mergeCell ref="MKW21:MLB21"/>
-    <mergeCell ref="MLC21:MLH21"/>
-    <mergeCell ref="MLI21:MLN21"/>
-    <mergeCell ref="MJG21:MJL21"/>
-    <mergeCell ref="MJM21:MJR21"/>
-    <mergeCell ref="MJS21:MJX21"/>
-    <mergeCell ref="MJY21:MKD21"/>
-    <mergeCell ref="MKE21:MKJ21"/>
-    <mergeCell ref="MIC21:MIH21"/>
-    <mergeCell ref="MII21:MIN21"/>
-    <mergeCell ref="MIO21:MIT21"/>
-    <mergeCell ref="MIU21:MIZ21"/>
-    <mergeCell ref="MJA21:MJF21"/>
-    <mergeCell ref="MGY21:MHD21"/>
-    <mergeCell ref="MHE21:MHJ21"/>
-    <mergeCell ref="MHK21:MHP21"/>
-    <mergeCell ref="MHQ21:MHV21"/>
-    <mergeCell ref="MHW21:MIB21"/>
-    <mergeCell ref="MFU21:MFZ21"/>
-    <mergeCell ref="MGA21:MGF21"/>
-    <mergeCell ref="MGG21:MGL21"/>
-    <mergeCell ref="MGM21:MGR21"/>
-    <mergeCell ref="MGS21:MGX21"/>
-    <mergeCell ref="MEQ21:MEV21"/>
-    <mergeCell ref="MEW21:MFB21"/>
-    <mergeCell ref="MFC21:MFH21"/>
-    <mergeCell ref="MFI21:MFN21"/>
-    <mergeCell ref="MFO21:MFT21"/>
-    <mergeCell ref="MDM21:MDR21"/>
-    <mergeCell ref="MDS21:MDX21"/>
-    <mergeCell ref="MDY21:MED21"/>
-    <mergeCell ref="MEE21:MEJ21"/>
-    <mergeCell ref="MEK21:MEP21"/>
-    <mergeCell ref="MCI21:MCN21"/>
-    <mergeCell ref="MCO21:MCT21"/>
-    <mergeCell ref="MCU21:MCZ21"/>
-    <mergeCell ref="MDA21:MDF21"/>
-    <mergeCell ref="MDG21:MDL21"/>
-    <mergeCell ref="MBE21:MBJ21"/>
-    <mergeCell ref="MBK21:MBP21"/>
-    <mergeCell ref="MBQ21:MBV21"/>
-    <mergeCell ref="MBW21:MCB21"/>
-    <mergeCell ref="MCC21:MCH21"/>
-    <mergeCell ref="MAA21:MAF21"/>
-    <mergeCell ref="MAG21:MAL21"/>
-    <mergeCell ref="MAM21:MAR21"/>
-    <mergeCell ref="MAS21:MAX21"/>
-    <mergeCell ref="MAY21:MBD21"/>
-    <mergeCell ref="LYW21:LZB21"/>
-    <mergeCell ref="LZC21:LZH21"/>
-    <mergeCell ref="LZI21:LZN21"/>
-    <mergeCell ref="LZO21:LZT21"/>
-    <mergeCell ref="LZU21:LZZ21"/>
-    <mergeCell ref="LXS21:LXX21"/>
-    <mergeCell ref="LXY21:LYD21"/>
-    <mergeCell ref="LYE21:LYJ21"/>
-    <mergeCell ref="LYK21:LYP21"/>
-    <mergeCell ref="LYQ21:LYV21"/>
-    <mergeCell ref="LWO21:LWT21"/>
-    <mergeCell ref="LWU21:LWZ21"/>
-    <mergeCell ref="LXA21:LXF21"/>
-    <mergeCell ref="LXG21:LXL21"/>
-    <mergeCell ref="LXM21:LXR21"/>
-    <mergeCell ref="LVK21:LVP21"/>
-    <mergeCell ref="LVQ21:LVV21"/>
-    <mergeCell ref="LVW21:LWB21"/>
-    <mergeCell ref="LWC21:LWH21"/>
-    <mergeCell ref="LWI21:LWN21"/>
-    <mergeCell ref="LUG21:LUL21"/>
-    <mergeCell ref="LUM21:LUR21"/>
-    <mergeCell ref="LUS21:LUX21"/>
-    <mergeCell ref="LUY21:LVD21"/>
-    <mergeCell ref="LVE21:LVJ21"/>
-    <mergeCell ref="LTC21:LTH21"/>
-    <mergeCell ref="LTI21:LTN21"/>
-    <mergeCell ref="LTO21:LTT21"/>
-    <mergeCell ref="LTU21:LTZ21"/>
-    <mergeCell ref="LUA21:LUF21"/>
-    <mergeCell ref="LRY21:LSD21"/>
-    <mergeCell ref="LSE21:LSJ21"/>
-    <mergeCell ref="LSK21:LSP21"/>
-    <mergeCell ref="LSQ21:LSV21"/>
-    <mergeCell ref="LSW21:LTB21"/>
-    <mergeCell ref="LQU21:LQZ21"/>
-    <mergeCell ref="LRA21:LRF21"/>
-    <mergeCell ref="LRG21:LRL21"/>
-    <mergeCell ref="LRM21:LRR21"/>
-    <mergeCell ref="LRS21:LRX21"/>
-    <mergeCell ref="LPQ21:LPV21"/>
-    <mergeCell ref="LPW21:LQB21"/>
-    <mergeCell ref="LQC21:LQH21"/>
-    <mergeCell ref="LQI21:LQN21"/>
-    <mergeCell ref="LQO21:LQT21"/>
-    <mergeCell ref="LOM21:LOR21"/>
-    <mergeCell ref="LOS21:LOX21"/>
-    <mergeCell ref="LOY21:LPD21"/>
-    <mergeCell ref="LPE21:LPJ21"/>
-    <mergeCell ref="LPK21:LPP21"/>
-    <mergeCell ref="LNI21:LNN21"/>
-    <mergeCell ref="LNO21:LNT21"/>
-    <mergeCell ref="LNU21:LNZ21"/>
-    <mergeCell ref="LOA21:LOF21"/>
-    <mergeCell ref="LOG21:LOL21"/>
-    <mergeCell ref="LME21:LMJ21"/>
-    <mergeCell ref="LMK21:LMP21"/>
-    <mergeCell ref="LMQ21:LMV21"/>
-    <mergeCell ref="LMW21:LNB21"/>
-    <mergeCell ref="LNC21:LNH21"/>
-    <mergeCell ref="LLA21:LLF21"/>
-    <mergeCell ref="LLG21:LLL21"/>
-    <mergeCell ref="LLM21:LLR21"/>
-    <mergeCell ref="LLS21:LLX21"/>
-    <mergeCell ref="LLY21:LMD21"/>
-    <mergeCell ref="LJW21:LKB21"/>
-    <mergeCell ref="LKC21:LKH21"/>
-    <mergeCell ref="LKI21:LKN21"/>
-    <mergeCell ref="LKO21:LKT21"/>
-    <mergeCell ref="LKU21:LKZ21"/>
-    <mergeCell ref="LIS21:LIX21"/>
-    <mergeCell ref="LIY21:LJD21"/>
-    <mergeCell ref="LJE21:LJJ21"/>
-    <mergeCell ref="LJK21:LJP21"/>
-    <mergeCell ref="LJQ21:LJV21"/>
-    <mergeCell ref="LHO21:LHT21"/>
-    <mergeCell ref="LHU21:LHZ21"/>
-    <mergeCell ref="LIA21:LIF21"/>
-    <mergeCell ref="LIG21:LIL21"/>
-    <mergeCell ref="LIM21:LIR21"/>
-    <mergeCell ref="LGK21:LGP21"/>
-    <mergeCell ref="LGQ21:LGV21"/>
-    <mergeCell ref="LGW21:LHB21"/>
-    <mergeCell ref="LHC21:LHH21"/>
-    <mergeCell ref="LHI21:LHN21"/>
-    <mergeCell ref="LFG21:LFL21"/>
-    <mergeCell ref="LFM21:LFR21"/>
-    <mergeCell ref="LFS21:LFX21"/>
-    <mergeCell ref="LFY21:LGD21"/>
-    <mergeCell ref="LGE21:LGJ21"/>
-    <mergeCell ref="LEC21:LEH21"/>
-    <mergeCell ref="LEI21:LEN21"/>
-    <mergeCell ref="LEO21:LET21"/>
-    <mergeCell ref="LEU21:LEZ21"/>
-    <mergeCell ref="LFA21:LFF21"/>
-    <mergeCell ref="LCY21:LDD21"/>
-    <mergeCell ref="LDE21:LDJ21"/>
-    <mergeCell ref="LDK21:LDP21"/>
-    <mergeCell ref="LDQ21:LDV21"/>
-    <mergeCell ref="LDW21:LEB21"/>
-    <mergeCell ref="LBU21:LBZ21"/>
-    <mergeCell ref="LCA21:LCF21"/>
-    <mergeCell ref="LCG21:LCL21"/>
-    <mergeCell ref="LCM21:LCR21"/>
-    <mergeCell ref="LCS21:LCX21"/>
-    <mergeCell ref="LAQ21:LAV21"/>
-    <mergeCell ref="LAW21:LBB21"/>
-    <mergeCell ref="LBC21:LBH21"/>
-    <mergeCell ref="LBI21:LBN21"/>
-    <mergeCell ref="LBO21:LBT21"/>
-    <mergeCell ref="KZM21:KZR21"/>
-    <mergeCell ref="KZS21:KZX21"/>
-    <mergeCell ref="KZY21:LAD21"/>
-    <mergeCell ref="LAE21:LAJ21"/>
-    <mergeCell ref="LAK21:LAP21"/>
-    <mergeCell ref="KYI21:KYN21"/>
-    <mergeCell ref="KYO21:KYT21"/>
-    <mergeCell ref="KYU21:KYZ21"/>
-    <mergeCell ref="KZA21:KZF21"/>
-    <mergeCell ref="KZG21:KZL21"/>
-    <mergeCell ref="KXE21:KXJ21"/>
-    <mergeCell ref="KXK21:KXP21"/>
-    <mergeCell ref="KXQ21:KXV21"/>
-    <mergeCell ref="KXW21:KYB21"/>
-    <mergeCell ref="KYC21:KYH21"/>
-    <mergeCell ref="KWA21:KWF21"/>
-    <mergeCell ref="KWG21:KWL21"/>
-    <mergeCell ref="KWM21:KWR21"/>
-    <mergeCell ref="KWS21:KWX21"/>
-    <mergeCell ref="KWY21:KXD21"/>
-    <mergeCell ref="KUW21:KVB21"/>
-    <mergeCell ref="KVC21:KVH21"/>
-    <mergeCell ref="KVI21:KVN21"/>
-    <mergeCell ref="KVO21:KVT21"/>
-    <mergeCell ref="KVU21:KVZ21"/>
-    <mergeCell ref="KTS21:KTX21"/>
-    <mergeCell ref="KTY21:KUD21"/>
-    <mergeCell ref="KUE21:KUJ21"/>
-    <mergeCell ref="KUK21:KUP21"/>
-    <mergeCell ref="KUQ21:KUV21"/>
-    <mergeCell ref="KSO21:KST21"/>
-    <mergeCell ref="KSU21:KSZ21"/>
-    <mergeCell ref="KTA21:KTF21"/>
-    <mergeCell ref="KTG21:KTL21"/>
-    <mergeCell ref="KTM21:KTR21"/>
-    <mergeCell ref="KRK21:KRP21"/>
-    <mergeCell ref="KRQ21:KRV21"/>
-    <mergeCell ref="KRW21:KSB21"/>
-    <mergeCell ref="KSC21:KSH21"/>
-    <mergeCell ref="KSI21:KSN21"/>
-    <mergeCell ref="KQG21:KQL21"/>
-    <mergeCell ref="KQM21:KQR21"/>
-    <mergeCell ref="KQS21:KQX21"/>
-    <mergeCell ref="KQY21:KRD21"/>
-    <mergeCell ref="KRE21:KRJ21"/>
-    <mergeCell ref="KPC21:KPH21"/>
-    <mergeCell ref="KPI21:KPN21"/>
-    <mergeCell ref="KPO21:KPT21"/>
-    <mergeCell ref="KPU21:KPZ21"/>
-    <mergeCell ref="KQA21:KQF21"/>
-    <mergeCell ref="KNY21:KOD21"/>
-    <mergeCell ref="KOE21:KOJ21"/>
-    <mergeCell ref="KOK21:KOP21"/>
-    <mergeCell ref="KOQ21:KOV21"/>
-    <mergeCell ref="KOW21:KPB21"/>
-    <mergeCell ref="KMU21:KMZ21"/>
-    <mergeCell ref="KNA21:KNF21"/>
-    <mergeCell ref="KNG21:KNL21"/>
-    <mergeCell ref="KNM21:KNR21"/>
-    <mergeCell ref="KNS21:KNX21"/>
-    <mergeCell ref="KLQ21:KLV21"/>
-    <mergeCell ref="KLW21:KMB21"/>
-    <mergeCell ref="KMC21:KMH21"/>
-    <mergeCell ref="KMI21:KMN21"/>
-    <mergeCell ref="KMO21:KMT21"/>
-    <mergeCell ref="KKM21:KKR21"/>
-    <mergeCell ref="KKS21:KKX21"/>
-    <mergeCell ref="KKY21:KLD21"/>
-    <mergeCell ref="KLE21:KLJ21"/>
-    <mergeCell ref="KLK21:KLP21"/>
-    <mergeCell ref="KJI21:KJN21"/>
-    <mergeCell ref="KJO21:KJT21"/>
-    <mergeCell ref="KJU21:KJZ21"/>
-    <mergeCell ref="KKA21:KKF21"/>
-    <mergeCell ref="KKG21:KKL21"/>
-    <mergeCell ref="KIE21:KIJ21"/>
-    <mergeCell ref="KIK21:KIP21"/>
-    <mergeCell ref="KIQ21:KIV21"/>
-    <mergeCell ref="KIW21:KJB21"/>
-    <mergeCell ref="KJC21:KJH21"/>
-    <mergeCell ref="KHA21:KHF21"/>
-    <mergeCell ref="KHG21:KHL21"/>
-    <mergeCell ref="KHM21:KHR21"/>
-    <mergeCell ref="KHS21:KHX21"/>
-    <mergeCell ref="KHY21:KID21"/>
-    <mergeCell ref="KFW21:KGB21"/>
-    <mergeCell ref="KGC21:KGH21"/>
-    <mergeCell ref="KGI21:KGN21"/>
-    <mergeCell ref="KGO21:KGT21"/>
-    <mergeCell ref="KGU21:KGZ21"/>
-    <mergeCell ref="KES21:KEX21"/>
-    <mergeCell ref="KEY21:KFD21"/>
-    <mergeCell ref="KFE21:KFJ21"/>
-    <mergeCell ref="KFK21:KFP21"/>
-    <mergeCell ref="KFQ21:KFV21"/>
-    <mergeCell ref="KDO21:KDT21"/>
-    <mergeCell ref="KDU21:KDZ21"/>
-    <mergeCell ref="KEA21:KEF21"/>
-    <mergeCell ref="KEG21:KEL21"/>
-    <mergeCell ref="KEM21:KER21"/>
-    <mergeCell ref="KCK21:KCP21"/>
-    <mergeCell ref="KCQ21:KCV21"/>
-    <mergeCell ref="KCW21:KDB21"/>
-    <mergeCell ref="KDC21:KDH21"/>
-    <mergeCell ref="KDI21:KDN21"/>
-    <mergeCell ref="KBG21:KBL21"/>
-    <mergeCell ref="KBM21:KBR21"/>
-    <mergeCell ref="KBS21:KBX21"/>
-    <mergeCell ref="KBY21:KCD21"/>
-    <mergeCell ref="KCE21:KCJ21"/>
-    <mergeCell ref="KAC21:KAH21"/>
-    <mergeCell ref="KAI21:KAN21"/>
-    <mergeCell ref="KAO21:KAT21"/>
-    <mergeCell ref="KAU21:KAZ21"/>
-    <mergeCell ref="KBA21:KBF21"/>
-    <mergeCell ref="JYY21:JZD21"/>
-    <mergeCell ref="JZE21:JZJ21"/>
-    <mergeCell ref="JZK21:JZP21"/>
-    <mergeCell ref="JZQ21:JZV21"/>
-    <mergeCell ref="JZW21:KAB21"/>
-    <mergeCell ref="JXU21:JXZ21"/>
-    <mergeCell ref="JYA21:JYF21"/>
-    <mergeCell ref="JYG21:JYL21"/>
-    <mergeCell ref="JYM21:JYR21"/>
-    <mergeCell ref="JYS21:JYX21"/>
-    <mergeCell ref="JWQ21:JWV21"/>
-    <mergeCell ref="JWW21:JXB21"/>
-    <mergeCell ref="JXC21:JXH21"/>
-    <mergeCell ref="JXI21:JXN21"/>
-    <mergeCell ref="JXO21:JXT21"/>
-    <mergeCell ref="JVM21:JVR21"/>
-    <mergeCell ref="JVS21:JVX21"/>
-    <mergeCell ref="JVY21:JWD21"/>
-    <mergeCell ref="JWE21:JWJ21"/>
-    <mergeCell ref="JWK21:JWP21"/>
-    <mergeCell ref="JUI21:JUN21"/>
-    <mergeCell ref="JUO21:JUT21"/>
-    <mergeCell ref="JUU21:JUZ21"/>
-    <mergeCell ref="JVA21:JVF21"/>
-    <mergeCell ref="JVG21:JVL21"/>
-    <mergeCell ref="JTE21:JTJ21"/>
-    <mergeCell ref="JTK21:JTP21"/>
-    <mergeCell ref="JTQ21:JTV21"/>
-    <mergeCell ref="JTW21:JUB21"/>
-    <mergeCell ref="JUC21:JUH21"/>
-    <mergeCell ref="JSA21:JSF21"/>
-    <mergeCell ref="JSG21:JSL21"/>
-    <mergeCell ref="JSM21:JSR21"/>
-    <mergeCell ref="JSS21:JSX21"/>
-    <mergeCell ref="JSY21:JTD21"/>
-    <mergeCell ref="JQW21:JRB21"/>
-    <mergeCell ref="JRC21:JRH21"/>
-    <mergeCell ref="JRI21:JRN21"/>
-    <mergeCell ref="JRO21:JRT21"/>
-    <mergeCell ref="JRU21:JRZ21"/>
-    <mergeCell ref="JPS21:JPX21"/>
-    <mergeCell ref="JPY21:JQD21"/>
-    <mergeCell ref="JQE21:JQJ21"/>
-    <mergeCell ref="JQK21:JQP21"/>
-    <mergeCell ref="JQQ21:JQV21"/>
-    <mergeCell ref="JOO21:JOT21"/>
-    <mergeCell ref="JOU21:JOZ21"/>
-    <mergeCell ref="JPA21:JPF21"/>
-    <mergeCell ref="JPG21:JPL21"/>
-    <mergeCell ref="JPM21:JPR21"/>
-    <mergeCell ref="JNK21:JNP21"/>
-    <mergeCell ref="JNQ21:JNV21"/>
-    <mergeCell ref="JNW21:JOB21"/>
-    <mergeCell ref="JOC21:JOH21"/>
-    <mergeCell ref="JOI21:JON21"/>
-    <mergeCell ref="JMG21:JML21"/>
-    <mergeCell ref="JMM21:JMR21"/>
-    <mergeCell ref="JMS21:JMX21"/>
-    <mergeCell ref="JMY21:JND21"/>
-    <mergeCell ref="JNE21:JNJ21"/>
-    <mergeCell ref="JLC21:JLH21"/>
-    <mergeCell ref="JLI21:JLN21"/>
-    <mergeCell ref="JLO21:JLT21"/>
-    <mergeCell ref="JLU21:JLZ21"/>
-    <mergeCell ref="JMA21:JMF21"/>
-    <mergeCell ref="JJY21:JKD21"/>
-    <mergeCell ref="JKE21:JKJ21"/>
-    <mergeCell ref="JKK21:JKP21"/>
-    <mergeCell ref="JKQ21:JKV21"/>
-    <mergeCell ref="JKW21:JLB21"/>
-    <mergeCell ref="JIU21:JIZ21"/>
-    <mergeCell ref="JJA21:JJF21"/>
-    <mergeCell ref="JJG21:JJL21"/>
-    <mergeCell ref="JJM21:JJR21"/>
-    <mergeCell ref="JJS21:JJX21"/>
-    <mergeCell ref="JHQ21:JHV21"/>
-    <mergeCell ref="JHW21:JIB21"/>
-    <mergeCell ref="JIC21:JIH21"/>
-    <mergeCell ref="JII21:JIN21"/>
-    <mergeCell ref="JIO21:JIT21"/>
-    <mergeCell ref="JGM21:JGR21"/>
-    <mergeCell ref="JGS21:JGX21"/>
-    <mergeCell ref="JGY21:JHD21"/>
-    <mergeCell ref="JHE21:JHJ21"/>
-    <mergeCell ref="JHK21:JHP21"/>
-    <mergeCell ref="JFI21:JFN21"/>
-    <mergeCell ref="JFO21:JFT21"/>
-    <mergeCell ref="JFU21:JFZ21"/>
-    <mergeCell ref="JGA21:JGF21"/>
-    <mergeCell ref="JGG21:JGL21"/>
-    <mergeCell ref="JEE21:JEJ21"/>
-    <mergeCell ref="JEK21:JEP21"/>
-    <mergeCell ref="JEQ21:JEV21"/>
-    <mergeCell ref="JEW21:JFB21"/>
-    <mergeCell ref="JFC21:JFH21"/>
-    <mergeCell ref="JDA21:JDF21"/>
-    <mergeCell ref="JDG21:JDL21"/>
-    <mergeCell ref="JDM21:JDR21"/>
-    <mergeCell ref="JDS21:JDX21"/>
-    <mergeCell ref="JDY21:JED21"/>
-    <mergeCell ref="JBW21:JCB21"/>
-    <mergeCell ref="JCC21:JCH21"/>
-    <mergeCell ref="JCI21:JCN21"/>
-    <mergeCell ref="JCO21:JCT21"/>
-    <mergeCell ref="JCU21:JCZ21"/>
-    <mergeCell ref="JAS21:JAX21"/>
-    <mergeCell ref="JAY21:JBD21"/>
-    <mergeCell ref="JBE21:JBJ21"/>
-    <mergeCell ref="JBK21:JBP21"/>
-    <mergeCell ref="JBQ21:JBV21"/>
-    <mergeCell ref="IZO21:IZT21"/>
-    <mergeCell ref="IZU21:IZZ21"/>
-    <mergeCell ref="JAA21:JAF21"/>
-    <mergeCell ref="JAG21:JAL21"/>
-    <mergeCell ref="JAM21:JAR21"/>
-    <mergeCell ref="IYK21:IYP21"/>
-    <mergeCell ref="IYQ21:IYV21"/>
-    <mergeCell ref="IYW21:IZB21"/>
-    <mergeCell ref="IZC21:IZH21"/>
-    <mergeCell ref="IZI21:IZN21"/>
-    <mergeCell ref="IXG21:IXL21"/>
-    <mergeCell ref="IXM21:IXR21"/>
-    <mergeCell ref="IXS21:IXX21"/>
-    <mergeCell ref="IXY21:IYD21"/>
-    <mergeCell ref="IYE21:IYJ21"/>
-    <mergeCell ref="IWC21:IWH21"/>
-    <mergeCell ref="IWI21:IWN21"/>
-    <mergeCell ref="IWO21:IWT21"/>
-    <mergeCell ref="IWU21:IWZ21"/>
-    <mergeCell ref="IXA21:IXF21"/>
-    <mergeCell ref="IUY21:IVD21"/>
-    <mergeCell ref="IVE21:IVJ21"/>
-    <mergeCell ref="IVK21:IVP21"/>
-    <mergeCell ref="IVQ21:IVV21"/>
-    <mergeCell ref="IVW21:IWB21"/>
-    <mergeCell ref="ITU21:ITZ21"/>
-    <mergeCell ref="IUA21:IUF21"/>
-    <mergeCell ref="IUG21:IUL21"/>
-    <mergeCell ref="IUM21:IUR21"/>
-    <mergeCell ref="IUS21:IUX21"/>
-    <mergeCell ref="ISQ21:ISV21"/>
-    <mergeCell ref="ISW21:ITB21"/>
-    <mergeCell ref="ITC21:ITH21"/>
-    <mergeCell ref="ITI21:ITN21"/>
-    <mergeCell ref="ITO21:ITT21"/>
-    <mergeCell ref="IRM21:IRR21"/>
-    <mergeCell ref="IRS21:IRX21"/>
-    <mergeCell ref="IRY21:ISD21"/>
-    <mergeCell ref="ISE21:ISJ21"/>
-    <mergeCell ref="ISK21:ISP21"/>
-    <mergeCell ref="IQI21:IQN21"/>
-    <mergeCell ref="IQO21:IQT21"/>
-    <mergeCell ref="IQU21:IQZ21"/>
-    <mergeCell ref="IRA21:IRF21"/>
-    <mergeCell ref="IRG21:IRL21"/>
-    <mergeCell ref="IPE21:IPJ21"/>
-    <mergeCell ref="IPK21:IPP21"/>
-    <mergeCell ref="IPQ21:IPV21"/>
-    <mergeCell ref="IPW21:IQB21"/>
-    <mergeCell ref="IQC21:IQH21"/>
-    <mergeCell ref="IOA21:IOF21"/>
-    <mergeCell ref="IOG21:IOL21"/>
-    <mergeCell ref="IOM21:IOR21"/>
-    <mergeCell ref="IOS21:IOX21"/>
-    <mergeCell ref="IOY21:IPD21"/>
-    <mergeCell ref="IMW21:INB21"/>
-    <mergeCell ref="INC21:INH21"/>
-    <mergeCell ref="INI21:INN21"/>
-    <mergeCell ref="INO21:INT21"/>
-    <mergeCell ref="INU21:INZ21"/>
-    <mergeCell ref="ILS21:ILX21"/>
-    <mergeCell ref="ILY21:IMD21"/>
-    <mergeCell ref="IME21:IMJ21"/>
-    <mergeCell ref="IMK21:IMP21"/>
-    <mergeCell ref="IMQ21:IMV21"/>
-    <mergeCell ref="IKO21:IKT21"/>
-    <mergeCell ref="IKU21:IKZ21"/>
-    <mergeCell ref="ILA21:ILF21"/>
-    <mergeCell ref="ILG21:ILL21"/>
-    <mergeCell ref="ILM21:ILR21"/>
-    <mergeCell ref="IJK21:IJP21"/>
-    <mergeCell ref="IJQ21:IJV21"/>
-    <mergeCell ref="IJW21:IKB21"/>
-    <mergeCell ref="IKC21:IKH21"/>
-    <mergeCell ref="IKI21:IKN21"/>
-    <mergeCell ref="IIG21:IIL21"/>
-    <mergeCell ref="IIM21:IIR21"/>
-    <mergeCell ref="IIS21:IIX21"/>
-    <mergeCell ref="IIY21:IJD21"/>
-    <mergeCell ref="IJE21:IJJ21"/>
-    <mergeCell ref="IHC21:IHH21"/>
-    <mergeCell ref="IHI21:IHN21"/>
-    <mergeCell ref="IHO21:IHT21"/>
-    <mergeCell ref="IHU21:IHZ21"/>
-    <mergeCell ref="IIA21:IIF21"/>
-    <mergeCell ref="IFY21:IGD21"/>
-    <mergeCell ref="IGE21:IGJ21"/>
-    <mergeCell ref="IGK21:IGP21"/>
-    <mergeCell ref="IGQ21:IGV21"/>
-    <mergeCell ref="IGW21:IHB21"/>
-    <mergeCell ref="IEU21:IEZ21"/>
-    <mergeCell ref="IFA21:IFF21"/>
-    <mergeCell ref="IFG21:IFL21"/>
-    <mergeCell ref="IFM21:IFR21"/>
-    <mergeCell ref="IFS21:IFX21"/>
-    <mergeCell ref="IDQ21:IDV21"/>
-    <mergeCell ref="IDW21:IEB21"/>
-    <mergeCell ref="IEC21:IEH21"/>
-    <mergeCell ref="IEI21:IEN21"/>
-    <mergeCell ref="IEO21:IET21"/>
-    <mergeCell ref="ICM21:ICR21"/>
-    <mergeCell ref="ICS21:ICX21"/>
-    <mergeCell ref="ICY21:IDD21"/>
-    <mergeCell ref="IDE21:IDJ21"/>
-    <mergeCell ref="IDK21:IDP21"/>
-    <mergeCell ref="IBI21:IBN21"/>
-    <mergeCell ref="IBO21:IBT21"/>
-    <mergeCell ref="IBU21:IBZ21"/>
-    <mergeCell ref="ICA21:ICF21"/>
-    <mergeCell ref="ICG21:ICL21"/>
-    <mergeCell ref="IAE21:IAJ21"/>
-    <mergeCell ref="IAK21:IAP21"/>
-    <mergeCell ref="IAQ21:IAV21"/>
-    <mergeCell ref="IAW21:IBB21"/>
-    <mergeCell ref="IBC21:IBH21"/>
-    <mergeCell ref="HZA21:HZF21"/>
-    <mergeCell ref="HZG21:HZL21"/>
-    <mergeCell ref="HZM21:HZR21"/>
-    <mergeCell ref="HZS21:HZX21"/>
-    <mergeCell ref="HZY21:IAD21"/>
-    <mergeCell ref="HXW21:HYB21"/>
-    <mergeCell ref="HYC21:HYH21"/>
-    <mergeCell ref="HYI21:HYN21"/>
-    <mergeCell ref="HYO21:HYT21"/>
-    <mergeCell ref="HYU21:HYZ21"/>
-    <mergeCell ref="HWS21:HWX21"/>
-    <mergeCell ref="HWY21:HXD21"/>
-    <mergeCell ref="HXE21:HXJ21"/>
-    <mergeCell ref="HXK21:HXP21"/>
-    <mergeCell ref="HXQ21:HXV21"/>
-    <mergeCell ref="HVO21:HVT21"/>
-    <mergeCell ref="HVU21:HVZ21"/>
-    <mergeCell ref="HWA21:HWF21"/>
-    <mergeCell ref="HWG21:HWL21"/>
-    <mergeCell ref="HWM21:HWR21"/>
-    <mergeCell ref="HUK21:HUP21"/>
-    <mergeCell ref="HUQ21:HUV21"/>
-    <mergeCell ref="HUW21:HVB21"/>
-    <mergeCell ref="HVC21:HVH21"/>
-    <mergeCell ref="HVI21:HVN21"/>
-    <mergeCell ref="HTG21:HTL21"/>
-    <mergeCell ref="HTM21:HTR21"/>
-    <mergeCell ref="HTS21:HTX21"/>
-    <mergeCell ref="HTY21:HUD21"/>
-    <mergeCell ref="HUE21:HUJ21"/>
-    <mergeCell ref="HSC21:HSH21"/>
-    <mergeCell ref="HSI21:HSN21"/>
-    <mergeCell ref="HSO21:HST21"/>
-    <mergeCell ref="HSU21:HSZ21"/>
-    <mergeCell ref="HTA21:HTF21"/>
-    <mergeCell ref="HQY21:HRD21"/>
-    <mergeCell ref="HRE21:HRJ21"/>
-    <mergeCell ref="HRK21:HRP21"/>
-    <mergeCell ref="HRQ21:HRV21"/>
-    <mergeCell ref="HRW21:HSB21"/>
-    <mergeCell ref="HPU21:HPZ21"/>
-    <mergeCell ref="HQA21:HQF21"/>
-    <mergeCell ref="HQG21:HQL21"/>
-    <mergeCell ref="HQM21:HQR21"/>
-    <mergeCell ref="HQS21:HQX21"/>
-    <mergeCell ref="HOQ21:HOV21"/>
-    <mergeCell ref="HOW21:HPB21"/>
-    <mergeCell ref="HPC21:HPH21"/>
-    <mergeCell ref="HPI21:HPN21"/>
-    <mergeCell ref="HPO21:HPT21"/>
-    <mergeCell ref="HNM21:HNR21"/>
-    <mergeCell ref="HNS21:HNX21"/>
-    <mergeCell ref="HNY21:HOD21"/>
-    <mergeCell ref="HOE21:HOJ21"/>
-    <mergeCell ref="HOK21:HOP21"/>
-    <mergeCell ref="HMI21:HMN21"/>
-    <mergeCell ref="HMO21:HMT21"/>
-    <mergeCell ref="HMU21:HMZ21"/>
-    <mergeCell ref="HNA21:HNF21"/>
-    <mergeCell ref="HNG21:HNL21"/>
-    <mergeCell ref="HLE21:HLJ21"/>
-    <mergeCell ref="HLK21:HLP21"/>
-    <mergeCell ref="HLQ21:HLV21"/>
-    <mergeCell ref="HLW21:HMB21"/>
-    <mergeCell ref="HMC21:HMH21"/>
-    <mergeCell ref="HKA21:HKF21"/>
-    <mergeCell ref="HKG21:HKL21"/>
-    <mergeCell ref="HKM21:HKR21"/>
-    <mergeCell ref="HKS21:HKX21"/>
-    <mergeCell ref="HKY21:HLD21"/>
-    <mergeCell ref="HIW21:HJB21"/>
-    <mergeCell ref="HJC21:HJH21"/>
-    <mergeCell ref="HJI21:HJN21"/>
-    <mergeCell ref="HJO21:HJT21"/>
-    <mergeCell ref="HJU21:HJZ21"/>
-    <mergeCell ref="HHS21:HHX21"/>
-    <mergeCell ref="HHY21:HID21"/>
-    <mergeCell ref="HIE21:HIJ21"/>
-    <mergeCell ref="HIK21:HIP21"/>
-    <mergeCell ref="HIQ21:HIV21"/>
-    <mergeCell ref="HGO21:HGT21"/>
-    <mergeCell ref="HGU21:HGZ21"/>
-    <mergeCell ref="HHA21:HHF21"/>
-    <mergeCell ref="HHG21:HHL21"/>
-    <mergeCell ref="HHM21:HHR21"/>
-    <mergeCell ref="HFK21:HFP21"/>
-    <mergeCell ref="HFQ21:HFV21"/>
-    <mergeCell ref="HFW21:HGB21"/>
-    <mergeCell ref="HGC21:HGH21"/>
-    <mergeCell ref="HGI21:HGN21"/>
-    <mergeCell ref="HEG21:HEL21"/>
-    <mergeCell ref="HEM21:HER21"/>
-    <mergeCell ref="HES21:HEX21"/>
-    <mergeCell ref="HEY21:HFD21"/>
-    <mergeCell ref="HFE21:HFJ21"/>
-    <mergeCell ref="HDC21:HDH21"/>
-    <mergeCell ref="HDI21:HDN21"/>
-    <mergeCell ref="HDO21:HDT21"/>
-    <mergeCell ref="HDU21:HDZ21"/>
-    <mergeCell ref="HEA21:HEF21"/>
-    <mergeCell ref="HBY21:HCD21"/>
-    <mergeCell ref="HCE21:HCJ21"/>
-    <mergeCell ref="HCK21:HCP21"/>
-    <mergeCell ref="HCQ21:HCV21"/>
-    <mergeCell ref="HCW21:HDB21"/>
-    <mergeCell ref="HAU21:HAZ21"/>
-    <mergeCell ref="HBA21:HBF21"/>
-    <mergeCell ref="HBG21:HBL21"/>
-    <mergeCell ref="HBM21:HBR21"/>
-    <mergeCell ref="HBS21:HBX21"/>
-    <mergeCell ref="GZQ21:GZV21"/>
-    <mergeCell ref="GZW21:HAB21"/>
-    <mergeCell ref="HAC21:HAH21"/>
-    <mergeCell ref="HAI21:HAN21"/>
-    <mergeCell ref="HAO21:HAT21"/>
-    <mergeCell ref="GYM21:GYR21"/>
-    <mergeCell ref="GYS21:GYX21"/>
-    <mergeCell ref="GYY21:GZD21"/>
-    <mergeCell ref="GZE21:GZJ21"/>
-    <mergeCell ref="GZK21:GZP21"/>
-    <mergeCell ref="GXI21:GXN21"/>
-    <mergeCell ref="GXO21:GXT21"/>
-    <mergeCell ref="GXU21:GXZ21"/>
-    <mergeCell ref="GYA21:GYF21"/>
-    <mergeCell ref="GYG21:GYL21"/>
-    <mergeCell ref="GWE21:GWJ21"/>
-    <mergeCell ref="GWK21:GWP21"/>
-    <mergeCell ref="GWQ21:GWV21"/>
-    <mergeCell ref="GWW21:GXB21"/>
-    <mergeCell ref="GXC21:GXH21"/>
-    <mergeCell ref="GVA21:GVF21"/>
-    <mergeCell ref="GVG21:GVL21"/>
-    <mergeCell ref="GVM21:GVR21"/>
-    <mergeCell ref="GVS21:GVX21"/>
-    <mergeCell ref="GVY21:GWD21"/>
-    <mergeCell ref="GTW21:GUB21"/>
-    <mergeCell ref="GUC21:GUH21"/>
-    <mergeCell ref="GUI21:GUN21"/>
-    <mergeCell ref="GUO21:GUT21"/>
-    <mergeCell ref="GUU21:GUZ21"/>
-    <mergeCell ref="GSS21:GSX21"/>
-    <mergeCell ref="GSY21:GTD21"/>
-    <mergeCell ref="GTE21:GTJ21"/>
-    <mergeCell ref="GTK21:GTP21"/>
-    <mergeCell ref="GTQ21:GTV21"/>
-    <mergeCell ref="GRO21:GRT21"/>
-    <mergeCell ref="GRU21:GRZ21"/>
-    <mergeCell ref="GSA21:GSF21"/>
-    <mergeCell ref="GSG21:GSL21"/>
-    <mergeCell ref="GSM21:GSR21"/>
-    <mergeCell ref="GQK21:GQP21"/>
-    <mergeCell ref="GQQ21:GQV21"/>
-    <mergeCell ref="GQW21:GRB21"/>
-    <mergeCell ref="GRC21:GRH21"/>
-    <mergeCell ref="GRI21:GRN21"/>
-    <mergeCell ref="GPG21:GPL21"/>
-    <mergeCell ref="GPM21:GPR21"/>
-    <mergeCell ref="GPS21:GPX21"/>
-    <mergeCell ref="GPY21:GQD21"/>
-    <mergeCell ref="GQE21:GQJ21"/>
-    <mergeCell ref="GOC21:GOH21"/>
-    <mergeCell ref="GOI21:GON21"/>
-    <mergeCell ref="GOO21:GOT21"/>
-    <mergeCell ref="GOU21:GOZ21"/>
-    <mergeCell ref="GPA21:GPF21"/>
-    <mergeCell ref="GMY21:GND21"/>
-    <mergeCell ref="GNE21:GNJ21"/>
-    <mergeCell ref="GNK21:GNP21"/>
-    <mergeCell ref="GNQ21:GNV21"/>
-    <mergeCell ref="GNW21:GOB21"/>
-    <mergeCell ref="GLU21:GLZ21"/>
-    <mergeCell ref="GMA21:GMF21"/>
-    <mergeCell ref="GMG21:GML21"/>
-    <mergeCell ref="GMM21:GMR21"/>
-    <mergeCell ref="GMS21:GMX21"/>
-    <mergeCell ref="GKQ21:GKV21"/>
-    <mergeCell ref="GKW21:GLB21"/>
-    <mergeCell ref="GLC21:GLH21"/>
-    <mergeCell ref="GLI21:GLN21"/>
-    <mergeCell ref="GLO21:GLT21"/>
-    <mergeCell ref="GJM21:GJR21"/>
-    <mergeCell ref="GJS21:GJX21"/>
-    <mergeCell ref="GJY21:GKD21"/>
-    <mergeCell ref="GKE21:GKJ21"/>
-    <mergeCell ref="GKK21:GKP21"/>
-    <mergeCell ref="GII21:GIN21"/>
-    <mergeCell ref="GIO21:GIT21"/>
-    <mergeCell ref="GIU21:GIZ21"/>
-    <mergeCell ref="GJA21:GJF21"/>
-    <mergeCell ref="GJG21:GJL21"/>
-    <mergeCell ref="GHE21:GHJ21"/>
-    <mergeCell ref="GHK21:GHP21"/>
-    <mergeCell ref="GHQ21:GHV21"/>
-    <mergeCell ref="GHW21:GIB21"/>
-    <mergeCell ref="GIC21:GIH21"/>
-    <mergeCell ref="GGA21:GGF21"/>
-    <mergeCell ref="GGG21:GGL21"/>
-    <mergeCell ref="GGM21:GGR21"/>
-    <mergeCell ref="GGS21:GGX21"/>
-    <mergeCell ref="GGY21:GHD21"/>
-    <mergeCell ref="GEW21:GFB21"/>
-    <mergeCell ref="GFC21:GFH21"/>
-    <mergeCell ref="GFI21:GFN21"/>
-    <mergeCell ref="GFO21:GFT21"/>
-    <mergeCell ref="GFU21:GFZ21"/>
-    <mergeCell ref="GDS21:GDX21"/>
-    <mergeCell ref="GDY21:GED21"/>
-    <mergeCell ref="GEE21:GEJ21"/>
-    <mergeCell ref="GEK21:GEP21"/>
-    <mergeCell ref="GEQ21:GEV21"/>
-    <mergeCell ref="GCO21:GCT21"/>
-    <mergeCell ref="GCU21:GCZ21"/>
-    <mergeCell ref="GDA21:GDF21"/>
-    <mergeCell ref="GDG21:GDL21"/>
-    <mergeCell ref="GDM21:GDR21"/>
-    <mergeCell ref="GBK21:GBP21"/>
-    <mergeCell ref="GBQ21:GBV21"/>
-    <mergeCell ref="GBW21:GCB21"/>
-    <mergeCell ref="GCC21:GCH21"/>
-    <mergeCell ref="GCI21:GCN21"/>
-    <mergeCell ref="GAG21:GAL21"/>
-    <mergeCell ref="GAM21:GAR21"/>
-    <mergeCell ref="GAS21:GAX21"/>
-    <mergeCell ref="GAY21:GBD21"/>
-    <mergeCell ref="GBE21:GBJ21"/>
-    <mergeCell ref="FZC21:FZH21"/>
-    <mergeCell ref="FZI21:FZN21"/>
-    <mergeCell ref="FZO21:FZT21"/>
-    <mergeCell ref="FZU21:FZZ21"/>
-    <mergeCell ref="GAA21:GAF21"/>
-    <mergeCell ref="FXY21:FYD21"/>
-    <mergeCell ref="FYE21:FYJ21"/>
-    <mergeCell ref="FYK21:FYP21"/>
-    <mergeCell ref="FYQ21:FYV21"/>
-    <mergeCell ref="FYW21:FZB21"/>
-    <mergeCell ref="FWU21:FWZ21"/>
-    <mergeCell ref="FXA21:FXF21"/>
-    <mergeCell ref="FXG21:FXL21"/>
-    <mergeCell ref="FXM21:FXR21"/>
-    <mergeCell ref="FXS21:FXX21"/>
-    <mergeCell ref="FVQ21:FVV21"/>
-    <mergeCell ref="FVW21:FWB21"/>
-    <mergeCell ref="FWC21:FWH21"/>
-    <mergeCell ref="FWI21:FWN21"/>
-    <mergeCell ref="FWO21:FWT21"/>
-    <mergeCell ref="FUM21:FUR21"/>
-    <mergeCell ref="FUS21:FUX21"/>
-    <mergeCell ref="FUY21:FVD21"/>
-    <mergeCell ref="FVE21:FVJ21"/>
-    <mergeCell ref="FVK21:FVP21"/>
-    <mergeCell ref="FTI21:FTN21"/>
-    <mergeCell ref="FTO21:FTT21"/>
-    <mergeCell ref="FTU21:FTZ21"/>
-    <mergeCell ref="FUA21:FUF21"/>
-    <mergeCell ref="FUG21:FUL21"/>
-    <mergeCell ref="FSE21:FSJ21"/>
-    <mergeCell ref="FSK21:FSP21"/>
-    <mergeCell ref="FSQ21:FSV21"/>
-    <mergeCell ref="FSW21:FTB21"/>
-    <mergeCell ref="FTC21:FTH21"/>
-    <mergeCell ref="FRA21:FRF21"/>
-    <mergeCell ref="FRG21:FRL21"/>
-    <mergeCell ref="FRM21:FRR21"/>
-    <mergeCell ref="FRS21:FRX21"/>
-    <mergeCell ref="FRY21:FSD21"/>
-    <mergeCell ref="FPW21:FQB21"/>
-    <mergeCell ref="FQC21:FQH21"/>
-    <mergeCell ref="FQI21:FQN21"/>
-    <mergeCell ref="FQO21:FQT21"/>
-    <mergeCell ref="FQU21:FQZ21"/>
-    <mergeCell ref="FOS21:FOX21"/>
-    <mergeCell ref="FOY21:FPD21"/>
-    <mergeCell ref="FPE21:FPJ21"/>
-    <mergeCell ref="FPK21:FPP21"/>
-    <mergeCell ref="FPQ21:FPV21"/>
-    <mergeCell ref="FNO21:FNT21"/>
-    <mergeCell ref="FNU21:FNZ21"/>
-    <mergeCell ref="FOA21:FOF21"/>
-    <mergeCell ref="FOG21:FOL21"/>
-    <mergeCell ref="FOM21:FOR21"/>
-    <mergeCell ref="FMK21:FMP21"/>
-    <mergeCell ref="FMQ21:FMV21"/>
-    <mergeCell ref="FMW21:FNB21"/>
-    <mergeCell ref="FNC21:FNH21"/>
-    <mergeCell ref="FNI21:FNN21"/>
-    <mergeCell ref="FLG21:FLL21"/>
-    <mergeCell ref="FLM21:FLR21"/>
-    <mergeCell ref="FLS21:FLX21"/>
-    <mergeCell ref="FLY21:FMD21"/>
-    <mergeCell ref="FME21:FMJ21"/>
-    <mergeCell ref="FKC21:FKH21"/>
-    <mergeCell ref="FKI21:FKN21"/>
-    <mergeCell ref="FKO21:FKT21"/>
-    <mergeCell ref="FKU21:FKZ21"/>
-    <mergeCell ref="FLA21:FLF21"/>
-    <mergeCell ref="FIY21:FJD21"/>
-    <mergeCell ref="FJE21:FJJ21"/>
-    <mergeCell ref="FJK21:FJP21"/>
-    <mergeCell ref="FJQ21:FJV21"/>
-    <mergeCell ref="FJW21:FKB21"/>
-    <mergeCell ref="FHU21:FHZ21"/>
-    <mergeCell ref="FIA21:FIF21"/>
-    <mergeCell ref="FIG21:FIL21"/>
-    <mergeCell ref="FIM21:FIR21"/>
-    <mergeCell ref="FIS21:FIX21"/>
-    <mergeCell ref="FGQ21:FGV21"/>
-    <mergeCell ref="FGW21:FHB21"/>
-    <mergeCell ref="FHC21:FHH21"/>
-    <mergeCell ref="FHI21:FHN21"/>
-    <mergeCell ref="FHO21:FHT21"/>
-    <mergeCell ref="FFM21:FFR21"/>
-    <mergeCell ref="FFS21:FFX21"/>
-    <mergeCell ref="FFY21:FGD21"/>
-    <mergeCell ref="FGE21:FGJ21"/>
-    <mergeCell ref="FGK21:FGP21"/>
-    <mergeCell ref="FEI21:FEN21"/>
-    <mergeCell ref="FEO21:FET21"/>
-    <mergeCell ref="FEU21:FEZ21"/>
-    <mergeCell ref="FFA21:FFF21"/>
-    <mergeCell ref="FFG21:FFL21"/>
-    <mergeCell ref="FDE21:FDJ21"/>
-    <mergeCell ref="FDK21:FDP21"/>
-    <mergeCell ref="FDQ21:FDV21"/>
-    <mergeCell ref="FDW21:FEB21"/>
-    <mergeCell ref="FEC21:FEH21"/>
-    <mergeCell ref="FCA21:FCF21"/>
-    <mergeCell ref="FCG21:FCL21"/>
-    <mergeCell ref="FCM21:FCR21"/>
-    <mergeCell ref="FCS21:FCX21"/>
-    <mergeCell ref="FCY21:FDD21"/>
-    <mergeCell ref="FAW21:FBB21"/>
-    <mergeCell ref="FBC21:FBH21"/>
-    <mergeCell ref="FBI21:FBN21"/>
-    <mergeCell ref="FBO21:FBT21"/>
-    <mergeCell ref="FBU21:FBZ21"/>
-    <mergeCell ref="EZS21:EZX21"/>
-    <mergeCell ref="EZY21:FAD21"/>
-    <mergeCell ref="FAE21:FAJ21"/>
-    <mergeCell ref="FAK21:FAP21"/>
-    <mergeCell ref="FAQ21:FAV21"/>
-    <mergeCell ref="EYO21:EYT21"/>
-    <mergeCell ref="EYU21:EYZ21"/>
-    <mergeCell ref="EZA21:EZF21"/>
-    <mergeCell ref="EZG21:EZL21"/>
-    <mergeCell ref="EZM21:EZR21"/>
-    <mergeCell ref="EXK21:EXP21"/>
-    <mergeCell ref="EXQ21:EXV21"/>
-    <mergeCell ref="EXW21:EYB21"/>
-    <mergeCell ref="EYC21:EYH21"/>
-    <mergeCell ref="EYI21:EYN21"/>
-    <mergeCell ref="EWG21:EWL21"/>
-    <mergeCell ref="EWM21:EWR21"/>
-    <mergeCell ref="EWS21:EWX21"/>
-    <mergeCell ref="EWY21:EXD21"/>
-    <mergeCell ref="EXE21:EXJ21"/>
-    <mergeCell ref="EVC21:EVH21"/>
-    <mergeCell ref="EVI21:EVN21"/>
-    <mergeCell ref="EVO21:EVT21"/>
-    <mergeCell ref="EVU21:EVZ21"/>
-    <mergeCell ref="EWA21:EWF21"/>
-    <mergeCell ref="ETY21:EUD21"/>
-    <mergeCell ref="EUE21:EUJ21"/>
-    <mergeCell ref="EUK21:EUP21"/>
-    <mergeCell ref="EUQ21:EUV21"/>
-    <mergeCell ref="EUW21:EVB21"/>
-    <mergeCell ref="ESU21:ESZ21"/>
-    <mergeCell ref="ETA21:ETF21"/>
-    <mergeCell ref="ETG21:ETL21"/>
-    <mergeCell ref="ETM21:ETR21"/>
-    <mergeCell ref="ETS21:ETX21"/>
-    <mergeCell ref="ERQ21:ERV21"/>
-    <mergeCell ref="ERW21:ESB21"/>
-    <mergeCell ref="ESC21:ESH21"/>
-    <mergeCell ref="ESI21:ESN21"/>
-    <mergeCell ref="ESO21:EST21"/>
-    <mergeCell ref="EQM21:EQR21"/>
-    <mergeCell ref="EQS21:EQX21"/>
-    <mergeCell ref="EQY21:ERD21"/>
-    <mergeCell ref="ERE21:ERJ21"/>
-    <mergeCell ref="ERK21:ERP21"/>
-    <mergeCell ref="EPI21:EPN21"/>
-    <mergeCell ref="EPO21:EPT21"/>
-    <mergeCell ref="EPU21:EPZ21"/>
-    <mergeCell ref="EQA21:EQF21"/>
-    <mergeCell ref="EQG21:EQL21"/>
-    <mergeCell ref="EOE21:EOJ21"/>
-    <mergeCell ref="EOK21:EOP21"/>
-    <mergeCell ref="EOQ21:EOV21"/>
-    <mergeCell ref="EOW21:EPB21"/>
-    <mergeCell ref="EPC21:EPH21"/>
-    <mergeCell ref="ENA21:ENF21"/>
-    <mergeCell ref="ENG21:ENL21"/>
-    <mergeCell ref="ENM21:ENR21"/>
-    <mergeCell ref="ENS21:ENX21"/>
-    <mergeCell ref="ENY21:EOD21"/>
-    <mergeCell ref="ELW21:EMB21"/>
-    <mergeCell ref="EMC21:EMH21"/>
-    <mergeCell ref="EMI21:EMN21"/>
-    <mergeCell ref="EMO21:EMT21"/>
-    <mergeCell ref="EMU21:EMZ21"/>
-    <mergeCell ref="EKS21:EKX21"/>
-    <mergeCell ref="EKY21:ELD21"/>
-    <mergeCell ref="ELE21:ELJ21"/>
-    <mergeCell ref="ELK21:ELP21"/>
-    <mergeCell ref="ELQ21:ELV21"/>
-    <mergeCell ref="EJO21:EJT21"/>
-    <mergeCell ref="EJU21:EJZ21"/>
-    <mergeCell ref="EKA21:EKF21"/>
-    <mergeCell ref="EKG21:EKL21"/>
-    <mergeCell ref="EKM21:EKR21"/>
-    <mergeCell ref="EIK21:EIP21"/>
-    <mergeCell ref="EIQ21:EIV21"/>
-    <mergeCell ref="EIW21:EJB21"/>
-    <mergeCell ref="EJC21:EJH21"/>
-    <mergeCell ref="EJI21:EJN21"/>
-    <mergeCell ref="EHG21:EHL21"/>
-    <mergeCell ref="EHM21:EHR21"/>
-    <mergeCell ref="EHS21:EHX21"/>
-    <mergeCell ref="EHY21:EID21"/>
-    <mergeCell ref="EIE21:EIJ21"/>
-    <mergeCell ref="EGC21:EGH21"/>
-    <mergeCell ref="EGI21:EGN21"/>
-    <mergeCell ref="EGO21:EGT21"/>
-    <mergeCell ref="EGU21:EGZ21"/>
-    <mergeCell ref="EHA21:EHF21"/>
-    <mergeCell ref="EEY21:EFD21"/>
-    <mergeCell ref="EFE21:EFJ21"/>
-    <mergeCell ref="EFK21:EFP21"/>
-    <mergeCell ref="EFQ21:EFV21"/>
-    <mergeCell ref="EFW21:EGB21"/>
-    <mergeCell ref="EDU21:EDZ21"/>
-    <mergeCell ref="EEA21:EEF21"/>
-    <mergeCell ref="EEG21:EEL21"/>
-    <mergeCell ref="EEM21:EER21"/>
-    <mergeCell ref="EES21:EEX21"/>
-    <mergeCell ref="ECQ21:ECV21"/>
-    <mergeCell ref="ECW21:EDB21"/>
-    <mergeCell ref="EDC21:EDH21"/>
-    <mergeCell ref="EDI21:EDN21"/>
-    <mergeCell ref="EDO21:EDT21"/>
-    <mergeCell ref="EBM21:EBR21"/>
-    <mergeCell ref="EBS21:EBX21"/>
-    <mergeCell ref="EBY21:ECD21"/>
-    <mergeCell ref="ECE21:ECJ21"/>
-    <mergeCell ref="ECK21:ECP21"/>
-    <mergeCell ref="EAI21:EAN21"/>
-    <mergeCell ref="EAO21:EAT21"/>
-    <mergeCell ref="EAU21:EAZ21"/>
-    <mergeCell ref="EBA21:EBF21"/>
-    <mergeCell ref="EBG21:EBL21"/>
-    <mergeCell ref="DZE21:DZJ21"/>
-    <mergeCell ref="DZK21:DZP21"/>
-    <mergeCell ref="DZQ21:DZV21"/>
-    <mergeCell ref="DZW21:EAB21"/>
-    <mergeCell ref="EAC21:EAH21"/>
-    <mergeCell ref="DYA21:DYF21"/>
-    <mergeCell ref="DYG21:DYL21"/>
-    <mergeCell ref="DYM21:DYR21"/>
-    <mergeCell ref="DYS21:DYX21"/>
-    <mergeCell ref="DYY21:DZD21"/>
-    <mergeCell ref="DWW21:DXB21"/>
-    <mergeCell ref="DXC21:DXH21"/>
-    <mergeCell ref="DXI21:DXN21"/>
-    <mergeCell ref="DXO21:DXT21"/>
-    <mergeCell ref="DXU21:DXZ21"/>
-    <mergeCell ref="DVS21:DVX21"/>
-    <mergeCell ref="DVY21:DWD21"/>
-    <mergeCell ref="DWE21:DWJ21"/>
-    <mergeCell ref="DWK21:DWP21"/>
-    <mergeCell ref="DWQ21:DWV21"/>
-    <mergeCell ref="DUO21:DUT21"/>
-    <mergeCell ref="DUU21:DUZ21"/>
-    <mergeCell ref="DVA21:DVF21"/>
-    <mergeCell ref="DVG21:DVL21"/>
-    <mergeCell ref="DVM21:DVR21"/>
-    <mergeCell ref="DTK21:DTP21"/>
-    <mergeCell ref="DTQ21:DTV21"/>
-    <mergeCell ref="DTW21:DUB21"/>
-    <mergeCell ref="DUC21:DUH21"/>
-    <mergeCell ref="DUI21:DUN21"/>
-    <mergeCell ref="DSG21:DSL21"/>
-    <mergeCell ref="DSM21:DSR21"/>
-    <mergeCell ref="DSS21:DSX21"/>
-    <mergeCell ref="DSY21:DTD21"/>
-    <mergeCell ref="DTE21:DTJ21"/>
-    <mergeCell ref="DRC21:DRH21"/>
-    <mergeCell ref="DRI21:DRN21"/>
-    <mergeCell ref="DRO21:DRT21"/>
-    <mergeCell ref="DRU21:DRZ21"/>
-    <mergeCell ref="DSA21:DSF21"/>
-    <mergeCell ref="DPY21:DQD21"/>
-    <mergeCell ref="DQE21:DQJ21"/>
-    <mergeCell ref="DQK21:DQP21"/>
-    <mergeCell ref="DQQ21:DQV21"/>
-    <mergeCell ref="DQW21:DRB21"/>
-    <mergeCell ref="DOU21:DOZ21"/>
-    <mergeCell ref="DPA21:DPF21"/>
-    <mergeCell ref="DPG21:DPL21"/>
-    <mergeCell ref="DPM21:DPR21"/>
-    <mergeCell ref="DPS21:DPX21"/>
-    <mergeCell ref="DNQ21:DNV21"/>
-    <mergeCell ref="DNW21:DOB21"/>
-    <mergeCell ref="DOC21:DOH21"/>
-    <mergeCell ref="DOI21:DON21"/>
-    <mergeCell ref="DOO21:DOT21"/>
-    <mergeCell ref="DMM21:DMR21"/>
-    <mergeCell ref="DMS21:DMX21"/>
-    <mergeCell ref="DMY21:DND21"/>
-    <mergeCell ref="DNE21:DNJ21"/>
-    <mergeCell ref="DNK21:DNP21"/>
-    <mergeCell ref="DLI21:DLN21"/>
-    <mergeCell ref="DLO21:DLT21"/>
-    <mergeCell ref="DLU21:DLZ21"/>
-    <mergeCell ref="DMA21:DMF21"/>
-    <mergeCell ref="DMG21:DML21"/>
-    <mergeCell ref="DKE21:DKJ21"/>
-    <mergeCell ref="DKK21:DKP21"/>
-    <mergeCell ref="DKQ21:DKV21"/>
-    <mergeCell ref="DKW21:DLB21"/>
-    <mergeCell ref="DLC21:DLH21"/>
-    <mergeCell ref="DJA21:DJF21"/>
-    <mergeCell ref="DJG21:DJL21"/>
-    <mergeCell ref="DJM21:DJR21"/>
-    <mergeCell ref="DJS21:DJX21"/>
-    <mergeCell ref="DJY21:DKD21"/>
-    <mergeCell ref="DHW21:DIB21"/>
-    <mergeCell ref="DIC21:DIH21"/>
-    <mergeCell ref="DII21:DIN21"/>
-    <mergeCell ref="DIO21:DIT21"/>
-    <mergeCell ref="DIU21:DIZ21"/>
-    <mergeCell ref="DGS21:DGX21"/>
-    <mergeCell ref="DGY21:DHD21"/>
-    <mergeCell ref="DHE21:DHJ21"/>
-    <mergeCell ref="DHK21:DHP21"/>
-    <mergeCell ref="DHQ21:DHV21"/>
-    <mergeCell ref="DFO21:DFT21"/>
-    <mergeCell ref="DFU21:DFZ21"/>
-    <mergeCell ref="DGA21:DGF21"/>
-    <mergeCell ref="DGG21:DGL21"/>
-    <mergeCell ref="DGM21:DGR21"/>
-    <mergeCell ref="DEK21:DEP21"/>
-    <mergeCell ref="DEQ21:DEV21"/>
-    <mergeCell ref="DEW21:DFB21"/>
-    <mergeCell ref="DFC21:DFH21"/>
-    <mergeCell ref="DFI21:DFN21"/>
-    <mergeCell ref="DDG21:DDL21"/>
-    <mergeCell ref="DDM21:DDR21"/>
-    <mergeCell ref="DDS21:DDX21"/>
-    <mergeCell ref="DDY21:DED21"/>
-    <mergeCell ref="DEE21:DEJ21"/>
-    <mergeCell ref="DCC21:DCH21"/>
-    <mergeCell ref="DCI21:DCN21"/>
-    <mergeCell ref="DCO21:DCT21"/>
-    <mergeCell ref="DCU21:DCZ21"/>
-    <mergeCell ref="DDA21:DDF21"/>
-    <mergeCell ref="DAY21:DBD21"/>
-    <mergeCell ref="DBE21:DBJ21"/>
-    <mergeCell ref="DBK21:DBP21"/>
-    <mergeCell ref="DBQ21:DBV21"/>
-    <mergeCell ref="DBW21:DCB21"/>
-    <mergeCell ref="CZU21:CZZ21"/>
-    <mergeCell ref="DAA21:DAF21"/>
-    <mergeCell ref="DAG21:DAL21"/>
-    <mergeCell ref="DAM21:DAR21"/>
-    <mergeCell ref="DAS21:DAX21"/>
-    <mergeCell ref="CYQ21:CYV21"/>
-    <mergeCell ref="CYW21:CZB21"/>
-    <mergeCell ref="CZC21:CZH21"/>
-    <mergeCell ref="CZI21:CZN21"/>
-    <mergeCell ref="CZO21:CZT21"/>
-    <mergeCell ref="CXM21:CXR21"/>
-    <mergeCell ref="CXS21:CXX21"/>
-    <mergeCell ref="CXY21:CYD21"/>
-    <mergeCell ref="CYE21:CYJ21"/>
-    <mergeCell ref="CYK21:CYP21"/>
-    <mergeCell ref="CWI21:CWN21"/>
-    <mergeCell ref="CWO21:CWT21"/>
-    <mergeCell ref="CWU21:CWZ21"/>
-    <mergeCell ref="CXA21:CXF21"/>
-    <mergeCell ref="CXG21:CXL21"/>
-    <mergeCell ref="CVE21:CVJ21"/>
-    <mergeCell ref="CVK21:CVP21"/>
-    <mergeCell ref="CVQ21:CVV21"/>
-    <mergeCell ref="CVW21:CWB21"/>
-    <mergeCell ref="CWC21:CWH21"/>
-    <mergeCell ref="CUA21:CUF21"/>
-    <mergeCell ref="CUG21:CUL21"/>
-    <mergeCell ref="CUM21:CUR21"/>
-    <mergeCell ref="CUS21:CUX21"/>
-    <mergeCell ref="CUY21:CVD21"/>
-    <mergeCell ref="CSW21:CTB21"/>
-    <mergeCell ref="CTC21:CTH21"/>
-    <mergeCell ref="CTI21:CTN21"/>
-    <mergeCell ref="CTO21:CTT21"/>
-    <mergeCell ref="CTU21:CTZ21"/>
-    <mergeCell ref="CRS21:CRX21"/>
-    <mergeCell ref="CRY21:CSD21"/>
-    <mergeCell ref="CSE21:CSJ21"/>
-    <mergeCell ref="CSK21:CSP21"/>
-    <mergeCell ref="CSQ21:CSV21"/>
-    <mergeCell ref="CQO21:CQT21"/>
-    <mergeCell ref="CQU21:CQZ21"/>
-    <mergeCell ref="CRA21:CRF21"/>
-    <mergeCell ref="CRG21:CRL21"/>
-    <mergeCell ref="CRM21:CRR21"/>
-    <mergeCell ref="CPK21:CPP21"/>
-    <mergeCell ref="CPQ21:CPV21"/>
-    <mergeCell ref="CPW21:CQB21"/>
-    <mergeCell ref="CQC21:CQH21"/>
-    <mergeCell ref="CQI21:CQN21"/>
-    <mergeCell ref="COG21:COL21"/>
-    <mergeCell ref="COM21:COR21"/>
-    <mergeCell ref="COS21:COX21"/>
-    <mergeCell ref="COY21:CPD21"/>
-    <mergeCell ref="CPE21:CPJ21"/>
-    <mergeCell ref="CNC21:CNH21"/>
-    <mergeCell ref="CNI21:CNN21"/>
-    <mergeCell ref="CNO21:CNT21"/>
-    <mergeCell ref="CNU21:CNZ21"/>
-    <mergeCell ref="COA21:COF21"/>
-    <mergeCell ref="CLY21:CMD21"/>
-    <mergeCell ref="CME21:CMJ21"/>
-    <mergeCell ref="CMK21:CMP21"/>
-    <mergeCell ref="CMQ21:CMV21"/>
-    <mergeCell ref="CMW21:CNB21"/>
-    <mergeCell ref="CKU21:CKZ21"/>
-    <mergeCell ref="CLA21:CLF21"/>
-    <mergeCell ref="CLG21:CLL21"/>
-    <mergeCell ref="CLM21:CLR21"/>
-    <mergeCell ref="CLS21:CLX21"/>
-    <mergeCell ref="CJQ21:CJV21"/>
-    <mergeCell ref="CJW21:CKB21"/>
-    <mergeCell ref="CKC21:CKH21"/>
-    <mergeCell ref="CKI21:CKN21"/>
-    <mergeCell ref="CKO21:CKT21"/>
-    <mergeCell ref="CIM21:CIR21"/>
-    <mergeCell ref="CIS21:CIX21"/>
-    <mergeCell ref="CIY21:CJD21"/>
-    <mergeCell ref="CJE21:CJJ21"/>
-    <mergeCell ref="CJK21:CJP21"/>
-    <mergeCell ref="CHI21:CHN21"/>
-    <mergeCell ref="CHO21:CHT21"/>
-    <mergeCell ref="CHU21:CHZ21"/>
-    <mergeCell ref="CIA21:CIF21"/>
-    <mergeCell ref="CIG21:CIL21"/>
-    <mergeCell ref="CGE21:CGJ21"/>
-    <mergeCell ref="CGK21:CGP21"/>
-    <mergeCell ref="CGQ21:CGV21"/>
-    <mergeCell ref="CGW21:CHB21"/>
-    <mergeCell ref="CHC21:CHH21"/>
-    <mergeCell ref="CFA21:CFF21"/>
-    <mergeCell ref="CFG21:CFL21"/>
-    <mergeCell ref="CFM21:CFR21"/>
-    <mergeCell ref="CFS21:CFX21"/>
-    <mergeCell ref="CFY21:CGD21"/>
-    <mergeCell ref="CDW21:CEB21"/>
-    <mergeCell ref="CEC21:CEH21"/>
-    <mergeCell ref="CEI21:CEN21"/>
-    <mergeCell ref="CEO21:CET21"/>
-    <mergeCell ref="CEU21:CEZ21"/>
-    <mergeCell ref="CCS21:CCX21"/>
-    <mergeCell ref="CCY21:CDD21"/>
-    <mergeCell ref="CDE21:CDJ21"/>
-    <mergeCell ref="CDK21:CDP21"/>
-    <mergeCell ref="CDQ21:CDV21"/>
-    <mergeCell ref="CBO21:CBT21"/>
-    <mergeCell ref="CBU21:CBZ21"/>
-    <mergeCell ref="CCA21:CCF21"/>
-    <mergeCell ref="CCG21:CCL21"/>
-    <mergeCell ref="CCM21:CCR21"/>
-    <mergeCell ref="CAK21:CAP21"/>
-    <mergeCell ref="CAQ21:CAV21"/>
-    <mergeCell ref="CAW21:CBB21"/>
-    <mergeCell ref="CBC21:CBH21"/>
-    <mergeCell ref="CBI21:CBN21"/>
-    <mergeCell ref="BZG21:BZL21"/>
-    <mergeCell ref="BZM21:BZR21"/>
-    <mergeCell ref="BZS21:BZX21"/>
-    <mergeCell ref="BZY21:CAD21"/>
-    <mergeCell ref="CAE21:CAJ21"/>
-    <mergeCell ref="BYC21:BYH21"/>
-    <mergeCell ref="BYI21:BYN21"/>
-    <mergeCell ref="BYO21:BYT21"/>
-    <mergeCell ref="BYU21:BYZ21"/>
-    <mergeCell ref="BZA21:BZF21"/>
-    <mergeCell ref="BWY21:BXD21"/>
-    <mergeCell ref="BXE21:BXJ21"/>
-    <mergeCell ref="BXK21:BXP21"/>
-    <mergeCell ref="BXQ21:BXV21"/>
-    <mergeCell ref="BXW21:BYB21"/>
-    <mergeCell ref="BVU21:BVZ21"/>
-    <mergeCell ref="BWA21:BWF21"/>
-    <mergeCell ref="BWG21:BWL21"/>
-    <mergeCell ref="BWM21:BWR21"/>
-    <mergeCell ref="BWS21:BWX21"/>
-    <mergeCell ref="BUQ21:BUV21"/>
-    <mergeCell ref="BUW21:BVB21"/>
-    <mergeCell ref="BVC21:BVH21"/>
-    <mergeCell ref="BVI21:BVN21"/>
-    <mergeCell ref="BVO21:BVT21"/>
-    <mergeCell ref="BTM21:BTR21"/>
-    <mergeCell ref="BTS21:BTX21"/>
-    <mergeCell ref="BTY21:BUD21"/>
-    <mergeCell ref="BUE21:BUJ21"/>
-    <mergeCell ref="BUK21:BUP21"/>
-    <mergeCell ref="BSI21:BSN21"/>
-    <mergeCell ref="BSO21:BST21"/>
-    <mergeCell ref="BSU21:BSZ21"/>
-    <mergeCell ref="BTA21:BTF21"/>
-    <mergeCell ref="BTG21:BTL21"/>
-    <mergeCell ref="BRE21:BRJ21"/>
-    <mergeCell ref="BRK21:BRP21"/>
-    <mergeCell ref="BRQ21:BRV21"/>
-    <mergeCell ref="BRW21:BSB21"/>
-    <mergeCell ref="BSC21:BSH21"/>
-    <mergeCell ref="BQA21:BQF21"/>
-    <mergeCell ref="BQG21:BQL21"/>
-    <mergeCell ref="BQM21:BQR21"/>
-    <mergeCell ref="BQS21:BQX21"/>
-    <mergeCell ref="BQY21:BRD21"/>
-    <mergeCell ref="BOW21:BPB21"/>
-    <mergeCell ref="BPC21:BPH21"/>
-    <mergeCell ref="BPI21:BPN21"/>
-    <mergeCell ref="BPO21:BPT21"/>
-    <mergeCell ref="BPU21:BPZ21"/>
-    <mergeCell ref="BNS21:BNX21"/>
-    <mergeCell ref="BNY21:BOD21"/>
-    <mergeCell ref="BOE21:BOJ21"/>
-    <mergeCell ref="BOK21:BOP21"/>
-    <mergeCell ref="BOQ21:BOV21"/>
-    <mergeCell ref="BMO21:BMT21"/>
-    <mergeCell ref="BMU21:BMZ21"/>
-    <mergeCell ref="BNA21:BNF21"/>
-    <mergeCell ref="BNG21:BNL21"/>
-    <mergeCell ref="BNM21:BNR21"/>
-    <mergeCell ref="BLK21:BLP21"/>
-    <mergeCell ref="BLQ21:BLV21"/>
-    <mergeCell ref="BLW21:BMB21"/>
-    <mergeCell ref="BMC21:BMH21"/>
-    <mergeCell ref="BMI21:BMN21"/>
-    <mergeCell ref="BKG21:BKL21"/>
-    <mergeCell ref="BKM21:BKR21"/>
-    <mergeCell ref="BKS21:BKX21"/>
-    <mergeCell ref="BKY21:BLD21"/>
-    <mergeCell ref="BLE21:BLJ21"/>
-    <mergeCell ref="BJC21:BJH21"/>
-    <mergeCell ref="BJI21:BJN21"/>
-    <mergeCell ref="BJO21:BJT21"/>
-    <mergeCell ref="BJU21:BJZ21"/>
-    <mergeCell ref="BKA21:BKF21"/>
-    <mergeCell ref="BHY21:BID21"/>
-    <mergeCell ref="BIE21:BIJ21"/>
-    <mergeCell ref="BIK21:BIP21"/>
-    <mergeCell ref="BIQ21:BIV21"/>
-    <mergeCell ref="BIW21:BJB21"/>
-    <mergeCell ref="BGU21:BGZ21"/>
-    <mergeCell ref="BHA21:BHF21"/>
-    <mergeCell ref="BHG21:BHL21"/>
-    <mergeCell ref="BHM21:BHR21"/>
-    <mergeCell ref="BHS21:BHX21"/>
-    <mergeCell ref="BFQ21:BFV21"/>
-    <mergeCell ref="BFW21:BGB21"/>
-    <mergeCell ref="BGC21:BGH21"/>
-    <mergeCell ref="BGI21:BGN21"/>
-    <mergeCell ref="BGO21:BGT21"/>
-    <mergeCell ref="BEM21:BER21"/>
-    <mergeCell ref="BES21:BEX21"/>
-    <mergeCell ref="BEY21:BFD21"/>
-    <mergeCell ref="BFE21:BFJ21"/>
-    <mergeCell ref="BFK21:BFP21"/>
-    <mergeCell ref="BDI21:BDN21"/>
-    <mergeCell ref="BDO21:BDT21"/>
-    <mergeCell ref="BDU21:BDZ21"/>
-    <mergeCell ref="BEA21:BEF21"/>
-    <mergeCell ref="BEG21:BEL21"/>
-    <mergeCell ref="BCE21:BCJ21"/>
-    <mergeCell ref="BCK21:BCP21"/>
-    <mergeCell ref="BCQ21:BCV21"/>
-    <mergeCell ref="BCW21:BDB21"/>
-    <mergeCell ref="BDC21:BDH21"/>
-    <mergeCell ref="BBA21:BBF21"/>
-    <mergeCell ref="BBG21:BBL21"/>
-    <mergeCell ref="BBM21:BBR21"/>
-    <mergeCell ref="BBS21:BBX21"/>
-    <mergeCell ref="BBY21:BCD21"/>
-    <mergeCell ref="AZW21:BAB21"/>
-    <mergeCell ref="BAC21:BAH21"/>
-    <mergeCell ref="BAI21:BAN21"/>
-    <mergeCell ref="BAO21:BAT21"/>
-    <mergeCell ref="BAU21:BAZ21"/>
-    <mergeCell ref="AYS21:AYX21"/>
-    <mergeCell ref="AYY21:AZD21"/>
-    <mergeCell ref="AZE21:AZJ21"/>
-    <mergeCell ref="AZK21:AZP21"/>
-    <mergeCell ref="AZQ21:AZV21"/>
-    <mergeCell ref="AXO21:AXT21"/>
-    <mergeCell ref="AXU21:AXZ21"/>
-    <mergeCell ref="AYA21:AYF21"/>
-    <mergeCell ref="AYG21:AYL21"/>
-    <mergeCell ref="AYM21:AYR21"/>
-    <mergeCell ref="AWK21:AWP21"/>
-    <mergeCell ref="AWQ21:AWV21"/>
-    <mergeCell ref="AWW21:AXB21"/>
-    <mergeCell ref="AXC21:AXH21"/>
-    <mergeCell ref="AXI21:AXN21"/>
-    <mergeCell ref="AVG21:AVL21"/>
-    <mergeCell ref="AVM21:AVR21"/>
-    <mergeCell ref="AVS21:AVX21"/>
-    <mergeCell ref="AVY21:AWD21"/>
-    <mergeCell ref="AWE21:AWJ21"/>
-    <mergeCell ref="AUC21:AUH21"/>
-    <mergeCell ref="AUI21:AUN21"/>
-    <mergeCell ref="AUO21:AUT21"/>
-    <mergeCell ref="AUU21:AUZ21"/>
-    <mergeCell ref="AVA21:AVF21"/>
-    <mergeCell ref="ASY21:ATD21"/>
-    <mergeCell ref="ATE21:ATJ21"/>
-    <mergeCell ref="ATK21:ATP21"/>
-    <mergeCell ref="ATQ21:ATV21"/>
-    <mergeCell ref="ATW21:AUB21"/>
-    <mergeCell ref="ARU21:ARZ21"/>
-    <mergeCell ref="ASA21:ASF21"/>
-    <mergeCell ref="ASG21:ASL21"/>
-    <mergeCell ref="ASM21:ASR21"/>
-    <mergeCell ref="ASS21:ASX21"/>
-    <mergeCell ref="AQQ21:AQV21"/>
-    <mergeCell ref="AQW21:ARB21"/>
-    <mergeCell ref="ARC21:ARH21"/>
-    <mergeCell ref="ARI21:ARN21"/>
-    <mergeCell ref="ARO21:ART21"/>
-    <mergeCell ref="APM21:APR21"/>
-    <mergeCell ref="APS21:APX21"/>
-    <mergeCell ref="APY21:AQD21"/>
-    <mergeCell ref="AQE21:AQJ21"/>
-    <mergeCell ref="AQK21:AQP21"/>
-    <mergeCell ref="AOI21:AON21"/>
-    <mergeCell ref="AOO21:AOT21"/>
-    <mergeCell ref="AOU21:AOZ21"/>
-    <mergeCell ref="APA21:APF21"/>
-    <mergeCell ref="APG21:APL21"/>
-    <mergeCell ref="ANE21:ANJ21"/>
-    <mergeCell ref="ANK21:ANP21"/>
-    <mergeCell ref="ANQ21:ANV21"/>
-    <mergeCell ref="ANW21:AOB21"/>
-    <mergeCell ref="AOC21:AOH21"/>
-    <mergeCell ref="AMA21:AMF21"/>
-    <mergeCell ref="AMG21:AML21"/>
-    <mergeCell ref="AMM21:AMR21"/>
-    <mergeCell ref="AMS21:AMX21"/>
-    <mergeCell ref="AMY21:AND21"/>
-    <mergeCell ref="AKW21:ALB21"/>
-    <mergeCell ref="ALC21:ALH21"/>
-    <mergeCell ref="ALI21:ALN21"/>
-    <mergeCell ref="ALO21:ALT21"/>
-    <mergeCell ref="ALU21:ALZ21"/>
-    <mergeCell ref="AJS21:AJX21"/>
-    <mergeCell ref="AJY21:AKD21"/>
-    <mergeCell ref="AKE21:AKJ21"/>
-    <mergeCell ref="AKK21:AKP21"/>
-    <mergeCell ref="AKQ21:AKV21"/>
-    <mergeCell ref="AIO21:AIT21"/>
-    <mergeCell ref="AIU21:AIZ21"/>
-    <mergeCell ref="AJA21:AJF21"/>
-    <mergeCell ref="AJG21:AJL21"/>
-    <mergeCell ref="AJM21:AJR21"/>
-    <mergeCell ref="AHK21:AHP21"/>
-    <mergeCell ref="AHQ21:AHV21"/>
-    <mergeCell ref="AHW21:AIB21"/>
-    <mergeCell ref="AIC21:AIH21"/>
-    <mergeCell ref="AII21:AIN21"/>
-    <mergeCell ref="AGG21:AGL21"/>
-    <mergeCell ref="AGM21:AGR21"/>
-    <mergeCell ref="AGS21:AGX21"/>
-    <mergeCell ref="AGY21:AHD21"/>
-    <mergeCell ref="AHE21:AHJ21"/>
-    <mergeCell ref="AFC21:AFH21"/>
-    <mergeCell ref="AFI21:AFN21"/>
-    <mergeCell ref="AFO21:AFT21"/>
-    <mergeCell ref="AFU21:AFZ21"/>
-    <mergeCell ref="AGA21:AGF21"/>
-    <mergeCell ref="ADY21:AED21"/>
-    <mergeCell ref="AEE21:AEJ21"/>
-    <mergeCell ref="AEK21:AEP21"/>
-    <mergeCell ref="AEQ21:AEV21"/>
-    <mergeCell ref="AEW21:AFB21"/>
-    <mergeCell ref="ACU21:ACZ21"/>
-    <mergeCell ref="ADA21:ADF21"/>
-    <mergeCell ref="ADG21:ADL21"/>
-    <mergeCell ref="ADM21:ADR21"/>
-    <mergeCell ref="ADS21:ADX21"/>
-    <mergeCell ref="ABQ21:ABV21"/>
-    <mergeCell ref="ABW21:ACB21"/>
-    <mergeCell ref="ACC21:ACH21"/>
-    <mergeCell ref="ACI21:ACN21"/>
-    <mergeCell ref="ACO21:ACT21"/>
-    <mergeCell ref="AAM21:AAR21"/>
-    <mergeCell ref="AAS21:AAX21"/>
-    <mergeCell ref="AAY21:ABD21"/>
-    <mergeCell ref="ABE21:ABJ21"/>
-    <mergeCell ref="ABK21:ABP21"/>
-    <mergeCell ref="ZI21:ZN21"/>
-    <mergeCell ref="ZO21:ZT21"/>
-    <mergeCell ref="ZU21:ZZ21"/>
-    <mergeCell ref="AAA21:AAF21"/>
-    <mergeCell ref="AAG21:AAL21"/>
-    <mergeCell ref="YE21:YJ21"/>
-    <mergeCell ref="YK21:YP21"/>
-    <mergeCell ref="YQ21:YV21"/>
-    <mergeCell ref="YW21:ZB21"/>
-    <mergeCell ref="ZC21:ZH21"/>
-    <mergeCell ref="XA21:XF21"/>
-    <mergeCell ref="XG21:XL21"/>
-    <mergeCell ref="XM21:XR21"/>
-    <mergeCell ref="XS21:XX21"/>
-    <mergeCell ref="XY21:YD21"/>
-    <mergeCell ref="VW21:WB21"/>
-    <mergeCell ref="WC21:WH21"/>
-    <mergeCell ref="WI21:WN21"/>
-    <mergeCell ref="WO21:WT21"/>
-    <mergeCell ref="WU21:WZ21"/>
-    <mergeCell ref="US21:UX21"/>
-    <mergeCell ref="UY21:VD21"/>
-    <mergeCell ref="VE21:VJ21"/>
-    <mergeCell ref="VK21:VP21"/>
-    <mergeCell ref="VQ21:VV21"/>
-    <mergeCell ref="TO21:TT21"/>
-    <mergeCell ref="TU21:TZ21"/>
-    <mergeCell ref="UA21:UF21"/>
-    <mergeCell ref="UG21:UL21"/>
-    <mergeCell ref="UM21:UR21"/>
-    <mergeCell ref="SK21:SP21"/>
-    <mergeCell ref="SQ21:SV21"/>
-    <mergeCell ref="SW21:TB21"/>
-    <mergeCell ref="TC21:TH21"/>
-    <mergeCell ref="TI21:TN21"/>
-    <mergeCell ref="RG21:RL21"/>
-    <mergeCell ref="RM21:RR21"/>
-    <mergeCell ref="RS21:RX21"/>
-    <mergeCell ref="RY21:SD21"/>
-    <mergeCell ref="SE21:SJ21"/>
-    <mergeCell ref="QC21:QH21"/>
-    <mergeCell ref="QI21:QN21"/>
-    <mergeCell ref="QO21:QT21"/>
-    <mergeCell ref="QU21:QZ21"/>
-    <mergeCell ref="RA21:RF21"/>
-    <mergeCell ref="OY21:PD21"/>
-    <mergeCell ref="PE21:PJ21"/>
-    <mergeCell ref="PK21:PP21"/>
-    <mergeCell ref="PQ21:PV21"/>
-    <mergeCell ref="PW21:QB21"/>
-    <mergeCell ref="NU21:NZ21"/>
-    <mergeCell ref="OA21:OF21"/>
-    <mergeCell ref="OG21:OL21"/>
-    <mergeCell ref="OM21:OR21"/>
-    <mergeCell ref="OS21:OX21"/>
-    <mergeCell ref="MQ21:MV21"/>
-    <mergeCell ref="MW21:NB21"/>
-    <mergeCell ref="NC21:NH21"/>
-    <mergeCell ref="NI21:NN21"/>
-    <mergeCell ref="NO21:NT21"/>
-    <mergeCell ref="LM21:LR21"/>
-    <mergeCell ref="LS21:LX21"/>
-    <mergeCell ref="LY21:MD21"/>
-    <mergeCell ref="ME21:MJ21"/>
-    <mergeCell ref="MK21:MP21"/>
-    <mergeCell ref="KI21:KN21"/>
-    <mergeCell ref="KO21:KT21"/>
-    <mergeCell ref="KU21:KZ21"/>
-    <mergeCell ref="LA21:LF21"/>
-    <mergeCell ref="LG21:LL21"/>
-    <mergeCell ref="JE21:JJ21"/>
-    <mergeCell ref="JK21:JP21"/>
-    <mergeCell ref="JQ21:JV21"/>
-    <mergeCell ref="JW21:KB21"/>
-    <mergeCell ref="KC21:KH21"/>
-    <mergeCell ref="IA21:IF21"/>
-    <mergeCell ref="IG21:IL21"/>
-    <mergeCell ref="IM21:IR21"/>
-    <mergeCell ref="IS21:IX21"/>
-    <mergeCell ref="IY21:JD21"/>
-    <mergeCell ref="GW21:HB21"/>
-    <mergeCell ref="HC21:HH21"/>
-    <mergeCell ref="HI21:HN21"/>
-    <mergeCell ref="HO21:HT21"/>
-    <mergeCell ref="HU21:HZ21"/>
-    <mergeCell ref="FS21:FX21"/>
-    <mergeCell ref="FY21:GD21"/>
-    <mergeCell ref="GE21:GJ21"/>
-    <mergeCell ref="GK21:GP21"/>
-    <mergeCell ref="GQ21:GV21"/>
-    <mergeCell ref="EO21:ET21"/>
-    <mergeCell ref="EU21:EZ21"/>
-    <mergeCell ref="FA21:FF21"/>
-    <mergeCell ref="FG21:FL21"/>
-    <mergeCell ref="FM21:FR21"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="DK21:DP21"/>
-    <mergeCell ref="DQ21:DV21"/>
-    <mergeCell ref="DW21:EB21"/>
-    <mergeCell ref="EC21:EH21"/>
-    <mergeCell ref="EI21:EN21"/>
-    <mergeCell ref="CG21:CL21"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="CS21:CX21"/>
-    <mergeCell ref="CY21:DD21"/>
-    <mergeCell ref="DE21:DJ21"/>
-    <mergeCell ref="BC21:BH21"/>
-    <mergeCell ref="BI21:BN21"/>
-    <mergeCell ref="BO21:BT21"/>
-    <mergeCell ref="BU21:BZ21"/>
-    <mergeCell ref="CA21:CF21"/>
-    <mergeCell ref="Y21:AD21"/>
-    <mergeCell ref="AE21:AJ21"/>
-    <mergeCell ref="AK21:AP21"/>
-    <mergeCell ref="AQ21:AV21"/>
-    <mergeCell ref="AW21:BB21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/服务器交互接口1.04.xlsx
+++ b/服务器交互接口1.04.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
   <si>
     <t>业务操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>/Domain/assign/expressid/{expressid}/userid/{userid}</t>
-  </si>
-  <si>
-    <t>/Domain/getExpressSheet/{id}</t>
   </si>
   <si>
     <t>/Misc/doLogin/{uname}/{pwd}</t>
@@ -304,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Domain/getExpressList/recievertel/eq/{Tel}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Domain/getExpressList/{Property}/{Restrictions}/{Value}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,10 +366,6 @@
   </si>
   <si>
     <t>/Domain/getTransPackage/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Domain/getExpressListInPackage/PackageId/{PackageId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -573,6 +562,34 @@
   </si>
   <si>
     <t>响应头："Get_TransNode"；内容：TransNode对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Domain/getExpressList/receivertel/eq/{Tel}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【获得某快件上路径所有节点】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Domain/getExpressListInPackage/PackageId/{PackageId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Domain/getExpressSheet/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Domain/getExpressRoute/{expressid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD47"/>
+  <dimension ref="A1:XFD48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1128,7 +1145,7 @@
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1137,7 +1154,7 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1149,7 +1166,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1161,15 +1178,15 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1178,18 +1195,18 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1198,18 +1215,18 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1224,68 +1241,68 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -1293,46 +1310,46 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:16384" x14ac:dyDescent="0.2">
@@ -1349,7 +1366,7 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:16384" x14ac:dyDescent="0.2">
@@ -1366,29 +1383,29 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:16384" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1398,7 +1415,7 @@
     </row>
     <row r="21" spans="1:16384" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -17786,40 +17803,40 @@
     </row>
     <row r="22" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -17828,23 +17845,23 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:16384" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -17854,243 +17871,252 @@
     </row>
     <row r="29" spans="1:16384" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:16384" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:16384" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>80</v>
+    <row r="31" spans="1:16384" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>137</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:16384" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="B31" t="s">
         <v>138</v>
       </c>
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16384" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
         <v>97</v>
       </c>
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E36" t="s">
         <v>98</v>
       </c>
-      <c r="D35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>137</v>
+      <c r="F36" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" t="s">
-        <v>106</v>
-      </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="E40" t="s">
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>132</v>
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>18</v>
+      <c r="A43" s="10" t="s">
+        <v>129</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="2"/>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -18098,11 +18124,20 @@
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
+      <c r="A47" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2741">
@@ -18112,11 +18147,11 @@
     <mergeCell ref="M21:R21"/>
     <mergeCell ref="S21:X21"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A44:D44"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A45:E45"/>
     <mergeCell ref="DK21:DP21"/>
     <mergeCell ref="DQ21:DV21"/>
     <mergeCell ref="DW21:EB21"/>
@@ -20819,7 +20854,7 @@
     <mergeCell ref="XFA21:XFD21"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="XDQ21:XDV21"/>
     <mergeCell ref="XDW21:XEB21"/>
     <mergeCell ref="XEC21:XEH21"/>
